--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D38440C-91AA-46C3-8359-7C820B21AC78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C257A4-7CAB-432B-B08D-6CB770D68E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="schedule_md" sheetId="3" r:id="rId5"/>
     <sheet name="sessions_md" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="AcadademicCalendar" sheetId="5" r:id="rId8"/>
+    <sheet name="AcademicCalendar" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="737">
   <si>
     <t>courseid</t>
   </si>
@@ -2092,39 +2092,15 @@
     <t>Course ID:</t>
   </si>
   <si>
-    <t>Top-level page name:</t>
-  </si>
-  <si>
     <t>General class info</t>
   </si>
   <si>
     <t>Site settings</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>External links</t>
   </si>
   <si>
-    <t>Link #1 title:</t>
-  </si>
-  <si>
-    <t>Link #2 url:</t>
-  </si>
-  <si>
-    <t>Link #1 url:</t>
-  </si>
-  <si>
-    <t>Link #2 title:</t>
-  </si>
-  <si>
-    <t>Link #3 title:</t>
-  </si>
-  <si>
-    <t>Link #3 url:</t>
-  </si>
-  <si>
     <t>GitHub Repository</t>
   </si>
   <si>
@@ -2144,9 +2120,6 @@
   </si>
   <si>
     <t>Site title:</t>
-  </si>
-  <si>
-    <t>Data@Rensselaer</t>
   </si>
   <si>
     <t>Author:</t>
@@ -2225,19 +2198,10 @@
     <t># Top-level page</t>
   </si>
   <si>
-    <t>/index</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Textbook logo link:</t>
   </si>
   <si>
     <t xml:space="preserve">   Collapse inactive chapters:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Add a search link:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Top-level URL:</t>
   </si>
   <si>
     <t xml:space="preserve">  not_numbered: true</t>
@@ -2254,6 +2218,215 @@
   </si>
   <si>
     <t>| :-----: | :-----: | :-----: | ------------------------------------------------- | ------------------------------------------------- |</t>
+  </si>
+  <si>
+    <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
+- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)
+- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
+- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
+- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)
+- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</t>
+  </si>
+  <si>
+    <t>- [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)
+- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)
+- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)
+- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)
+- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)
+- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</t>
+  </si>
+  <si>
+    <t>- [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)
+- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)
+- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)
+- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)
+- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)
+- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</t>
+  </si>
+  <si>
+    <t>1. Link title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Link url:</t>
+  </si>
+  <si>
+    <t>2. Link title:</t>
+  </si>
+  <si>
+    <t>3. Link title:</t>
+  </si>
+  <si>
+    <t># Adds a searchbar link</t>
+  </si>
+  <si>
+    <t>- title: Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Divider for meta-pages and content page
+- divider: true
+</t>
+  </si>
+  <si>
+    <t># External link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  external: true</t>
+  </si>
+  <si>
+    <t>Intro to Machine Learning Applications</t>
+  </si>
+  <si>
+    <t>Add a search link:</t>
+  </si>
+  <si>
+    <t>Jason Kuruzovich</t>
+  </si>
+  <si>
+    <t># Welcome to Jekyll!
+#
+# This config file is meant for settings that affect your whole blog, values
+# which you are expected to set up once and rarely edit after that. If you find
+# yourself editing this file very often, consider using Jekyll's data files
+# feature for the data you need to update frequently.
+#
+# For technical reasons, this file is *NOT* reloaded automatically when you use
+# 'bundle exec jekyll serve'. If you change this file, please restart the server process.
+# Site settings
+# These are used to personalize your new site. If you look in the HTML files,
+# you will see them accessed via {{ site.title }}, {{ site.email }}, and so on.
+# You can create any custom variable you would like, and they will be accessible
+# in the templates via {{ site.myvariable }}.
+#######################################################################################
+# Jekyll site settings</t>
+  </si>
+  <si>
+    <t>Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.</t>
+  </si>
+  <si>
+    <t>kuruzj@rpi.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/course-intro-ml-app  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rpi-data.github.io  </t>
+  </si>
+  <si>
+    <t>images/logo/rpi.png</t>
+  </si>
+  <si>
+    <t>https://rpi-data.github.io/course-intro-ml-app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Divider for meta-pages and content page
+- divider: true
+# A chapter w/ a collection of sections beneath it
+- title: Schedule
+  url: /schedule
+  not_numbered: true
+# A chapter w/ a collection of sections beneath it
+- title: Session
+  url: /session_01
+  not_numbered: true
+</t>
+  </si>
+  <si>
+    <t>#######################################################################################
+# Jupyter Book settings
+# Sidebar settings
+show_sidebar: true                # Show the sidebar. Only set to false if your only wish to host a single page.
+collapse_inactive_chapters: true  # Whether to collapse the inactive chapters in the sidebar</t>
+  </si>
+  <si>
+    <t>sidebar_footer_text: Powered by &lt;a href="https://github.com/jupyter/jupyter-book"&gt;Jupyter Book&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Search settings
+search_max_words_in_content: 100   # In the search function, use at most this many words (too many words will make search slow)
+#######################################################################################
+# Interact link settings
+# General interact settings
+use_jupyterlab: false                     # If 'true', interact links will use JupyterLab as the interface
+# Jupyterhub link settings
+use_jupyterhub_button: false              # If 'true', display a button that will direct users to a JupyterHub (that you provide)
+jupyterhub_url: ''                        # The URL for your JupyterHub. If no URL, use ""
+jupyterhub_interact_text: Interact        # The text that interact buttons will contain.
+# Binder link settings
+use_binder_button: false                  # If 'true', add a binder button for interactive links
+binderhub_url: https://mybinder.org       # The URL for your BinderHub. If no URL, use ""
+binder_repo_base: https://github.com/     # The site on which the textbook repository is hosted
+binder_repo_org: YOUR-ORG                 # The username or organization that owns this repository
+binder_repo_name: YOUR-REPO               # The name of the repository on the web
+binder_repo_branch: gh-pages              # The branch on which your textbook is hosted.
+binderhub_interact_text: Interact         # The text that interact buttons will contain.
+# Thebelab settings
+use_thebelab_button: false                # If 'true', display a button to allow in-page running code cells with Thebelab
+thebelab_button_text: Thebelab            # The text to display inside the Thebelab initialization button
+codemirror_theme: abcdef                  # Theme for codemirror cells, for options see https://codemirror.net/doc/manual.html#config
+# nbinteract settings
+use_show_widgets_button: true             # If 'true', display a button to allow in-page running code cells with nbinteract
+# Download settings
+use_download_button: true                 # If 'true', display a button to download a zip file for the notebook
+download_button_text: Download            # The text that download buttons will contain
+#######################################################################################
+# Jupyter book extensions and additional features
+# Bibliography and citation settings. See https://github.com/inukshuk/jekyll-scholar#configuration for options
+scholar:
+  style: ieee
+#######################################################################################
+# Option to add a Google analytics tracking code
+# Navigate to https://analytics.google.com, add a new property for your jupyter book and copy the tracking id here.
+google_analytics:
+  mytrackingcode:
+#######################################################################################
+# Jupyter book settings you probably don't need to change
+content_folder_name: content              # The folder where your raw content (notebooks/markdown files) are located
+images_url: /assets/images                # Path to static image files
+css_url: /assets/css                      # Path to static CSS files
+js_url: /assets/js                        # Path to JS files
+custom_static_url: /assets/custom         # Path to user's custom CSS/JS files
+#######################################################################################
+# Jekyll build settings (only modify if you know what you're doing)
+# Site settings
+defaults:
+- scope:
+    path: ''
+  values:
+    layout: default
+    toc: true
+    toc_label: '  On this page'
+    toc_icon: list-ul
+favicon_path: images/logo/favicon.png
+# Markdown Processing
+markdown: kramdown
+kramdown:
+  input: GFM
+  syntax_highlighter: rouge
+encoding: utf-8
+sass:
+  style: compressed
+collections:
+  build:
+    output: true
+    permalink: /:path.html
+# Exclude from processing.
+# The following items will not be processed, by default. Create a custom list
+# to override the default setting.
+exclude:
+- scripts/
+- Gemfile
+- Gemfile.lock
+- node_modules
+- vendor/bundle/
+- vendor/cache/
+- vendor/gems/
+- vendor/ruby/
+plugins:
+- jekyll-redirect-from
+- jekyll-scholar
+# Jupyter Book version - DO NOT CHANGE THIS. It is generated when a new book is created
+jupyter_book_version: 0.5.1</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2462,6 +2635,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2780,10 +2958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -2794,7 +2972,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B1" s="30"/>
     </row>
@@ -2820,52 +2998,62 @@
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>695</v>
+        <v>686</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B7" s="28"/>
+        <v>687</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B8" s="28"/>
+        <v>688</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B9" s="28"/>
+        <v>689</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B10" s="28"/>
+        <v>692</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>729</v>
+      </c>
       <c r="C10" s="22" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B11" s="28"/>
+        <v>691</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>730</v>
+      </c>
       <c r="C11" s="22" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -2874,146 +3062,135 @@
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" t="s">
-        <v>677</v>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>724</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>718</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>695</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>714</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="C16" s="22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>24</v>
+        <v>731</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>24</v>
+        <v>705</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>732</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="B19" s="29"/>
+        <v>700</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>701</v>
+      </c>
       <c r="C19" s="22" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="22"/>
+      <c r="B23" s="30" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>685</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{15B2624E-6EB3-4255-9E78-4CB7E9E00A4C}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{042009D7-9FD9-483E-8B74-03E32AAD5484}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{69EC54D9-7D43-492D-9D92-266E9DF0F5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3022,10 +3199,10 @@
   <dimension ref="A1:P958"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15.6"/>
@@ -3140,7 +3317,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="17" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>106</v>
@@ -3194,7 +3371,7 @@
         <v xml:space="preserve">**Labor Day No Classes (Tuesday Follows Monday Schedule** &lt;br&gt; </v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="187.2">
+    <row r="5" spans="1:16" ht="327.60000000000002">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3219,6 +3396,9 @@
       </c>
       <c r="H5" s="14" t="s">
         <v>660</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>711</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3288,7 +3468,7 @@
         <v>**Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="124.8">
+    <row r="7" spans="1:16" ht="280.8">
       <c r="A7">
         <f>A4+1</f>
         <v>3</v>
@@ -3314,7 +3494,9 @@
       <c r="H7" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="21" t="s">
+        <v>712</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="8" t="str">
@@ -3380,7 +3562,7 @@
         <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="93.6">
+    <row r="9" spans="1:16" ht="280.8">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3406,7 +3588,9 @@
       <c r="H9" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="7" t="s">
+        <v>713</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
         <f>IF(ISBLANK(L9),"",CONCATENATE("Assignment ",L9," Due ", TEXT(D9+configuration!$B$3, "mm/dd")))</f>
@@ -17461,22 +17645,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="89.34765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="str">
+        <f>CONCATENATE("title: ",configuration!B6)</f>
+        <v>title: Intro to Machine Learning Applications</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="str">
+        <f>CONCATENATE("author: ",configuration!B7)</f>
+        <v>author: Jason Kuruzovich</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="str">
+        <f>CONCATENATE("email: ",configuration!B8)</f>
+        <v>email: kuruzj@rpi.edu</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.2">
+      <c r="A5" s="6" t="str">
+        <f>CONCATENATE("description: &gt;-", configuration!B9)</f>
+        <v>description: &gt;-Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="str">
+        <f>CONCATENATE("baseurl: ", configuration!B10)</f>
+        <v xml:space="preserve">baseurl: /course-intro-ml-app  </v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="str">
+        <f>CONCATENATE("baseurl: ", configuration!B11)</f>
+        <v xml:space="preserve">baseurl: https://rpi-data.github.io  </v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="93.6">
+      <c r="A10" s="14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f>CONCATENATE("textbook_logo: ",configuration!B17)</f>
+        <v>textbook_logo: images/logo/rpi.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="str">
+        <f>CONCATENATE("textbook_logo_link: ",configuration!B18)</f>
+        <v>textbook_logo_link: https://rpi-data.github.io/course-intro-ml-app/</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="str">
+        <f>CONCATENATE("number_toc_chapters: ",configuration!B19)</f>
+        <v>number_toc_chapters: false</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="409.5">
+      <c r="A15" s="32" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76144F0-49F8-41D3-8DBA-F84830CD836B}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17486,29 +17753,136 @@
   <sheetData>
     <row r="1" spans="1:1" ht="358.8">
       <c r="A1" s="32" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="str">
         <f>CONCATENATE("- title: ",configuration!B6)</f>
-        <v>- title: Data@Rensselaer</v>
+        <v>- title: Intro to Machine Learning Applications</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="str">
-        <f>CONCATENATE("  url: ",configuration!B15)</f>
-        <v xml:space="preserve">  url: /index</v>
+        <f>CONCATENATE("  url: ",configuration!B11)</f>
+        <v xml:space="preserve">  url: https://rpi-data.github.io  </v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="35" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f>CONCATENATE("  search: ",configuration!B14)</f>
+        <v xml:space="preserve">  search: true</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="202.8">
+      <c r="A11" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="8" customFormat="1" ht="46.8">
+      <c r="A12" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f>CONCATENATE("- title: ",configuration!B22)</f>
+        <v>- title: GitHub Repository</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f>CONCATENATE("  url: ",configuration!B23)</f>
+        <v xml:space="preserve">  url: https://github.com/RPI-DATA/jupyter-book</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="str">
+        <f>CONCATENATE("- title: ",configuration!B24)</f>
+        <v>- title: Colab</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="str">
+        <f>CONCATENATE("  url: ",configuration!B25)</f>
+        <v xml:space="preserve">  url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="str">
+        <f>CONCATENATE("- title: ",configuration!B26)</f>
+        <v>- title: Slack</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="str">
+        <f>CONCATENATE("  url: ",configuration!B27)</f>
+        <v xml:space="preserve">  url: https://rpi-data.slack.com/messages</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -17535,7 +17909,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17543,7 +17917,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -17567,7 +17941,12 @@
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="8" t="str">
         <f>CONCATENATE("| ",data!A5," | ",data!C5," | ",TEXT(data!D5,"mm/dd")," | ",data!P5," | ",data!I5," |")</f>
-        <v>| 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt; |  |</v>
+        <v>| 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt; | - [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
+- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)
+- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
+- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
+- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)
+- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -17579,7 +17958,12 @@
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="8" t="str">
         <f>CONCATENATE("| ",data!A7," | ",data!C7," | ",TEXT(data!D7,"mm/dd")," | ",data!P7," | ",data!I7," |")</f>
-        <v>| 3 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <v>| 3 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt; | - [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)
+- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)
+- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)
+- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)
+- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)
+- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -17591,7 +17975,12 @@
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="8" t="str">
         <f>CONCATENATE("| ",data!A9," | ",data!C9," | ",TEXT(data!D9,"mm/dd")," | ",data!P9," | ",data!I9," |")</f>
-        <v>| 4 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <v>| 4 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt; | - [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)
+- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)
+- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)
+- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)
+- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)
+- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -17756,8 +18145,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -17857,7 +18246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57181392-DEF7-4741-B30A-5E78ECE9DF55}">
   <dimension ref="A2:L929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -39131,7 +39520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C257A4-7CAB-432B-B08D-6CB770D68E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFB269-A845-4A35-9C2F-78E5A4008B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -2215,9 +2215,6 @@
   </si>
   <si>
     <t>| Session | Day | Date | Topic | Notebooks |</t>
-  </si>
-  <si>
-    <t>| :-----: | :-----: | :-----: | ------------------------------------------------- | ------------------------------------------------- |</t>
   </si>
   <si>
     <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
@@ -2427,6 +2424,9 @@
 - jekyll-scholar
 # Jupyter Book version - DO NOT CHANGE THIS. It is generated when a new book is created
 jupyter_book_version: 0.5.1</t>
+  </si>
+  <si>
+    <t>| :-----: | :-----: | :-----: | :-------------------------------------------------: | :-------------------------------------------------: |</t>
   </si>
 </sst>
 </file>
@@ -2631,15 +2631,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2960,8 +2960,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -3006,16 +3006,16 @@
       <c r="A6" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>723</v>
+      <c r="B6" s="34" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>725</v>
+      <c r="B7" s="34" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3023,23 +3023,23 @@
         <v>688</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>727</v>
+      <c r="B9" s="34" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>729</v>
+      <c r="B10" s="34" t="s">
+        <v>728</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>693</v>
@@ -3049,8 +3049,8 @@
       <c r="A11" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>730</v>
+      <c r="B11" s="34" t="s">
+        <v>729</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>694</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>24</v>
@@ -3098,7 +3098,7 @@
         <v>698</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>697</v>
@@ -3109,7 +3109,7 @@
         <v>705</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>699</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>680</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>683</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>681</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>684</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>682</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>685</v>
@@ -3398,7 +3398,7 @@
         <v>660</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3495,7 +3495,7 @@
         <v>661</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3589,7 +3589,7 @@
         <v>662</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
@@ -17657,8 +17657,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>726</v>
+      <c r="A1" s="35" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17702,7 +17702,7 @@
     </row>
     <row r="10" spans="1:1" ht="93.6">
       <c r="A10" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -17719,7 +17719,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -17730,7 +17730,7 @@
     </row>
     <row r="15" spans="1:1" ht="409.5">
       <c r="A15" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -17780,12 +17780,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="33" t="s">
         <v>718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -17796,17 +17796,17 @@
     </row>
     <row r="11" spans="1:1" ht="202.8">
       <c r="A11" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="8" customFormat="1" ht="46.8">
       <c r="A12" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -17823,7 +17823,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -17833,7 +17833,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -17850,7 +17850,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -17860,7 +17860,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -17877,7 +17877,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -17898,8 +17898,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -39563,10 +39563,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="36">
         <v>43709</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="10">
@@ -39609,10 +39609,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="36">
         <v>43739</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="10">
@@ -39663,10 +39663,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>43770</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -39733,10 +39733,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="36">
         <v>43800</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="10">
@@ -39819,10 +39819,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="36">
         <v>43831</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="37"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="12" t="s">
@@ -39873,10 +39873,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>43862</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="37"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="10">
@@ -39903,10 +39903,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="36">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="37"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="10">
@@ -39981,10 +39981,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="36">
         <v>43922</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="10">
@@ -40027,10 +40027,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="36">
         <v>43952</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="37"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="12" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFB269-A845-4A35-9C2F-78E5A4008B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F854F06-49CF-4CBD-9479-A61E00B88B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="_config_yml" sheetId="8" r:id="rId3"/>
     <sheet name="toc_yml" sheetId="7" r:id="rId4"/>
-    <sheet name="schedule_md" sheetId="3" r:id="rId5"/>
-    <sheet name="sessions_md" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="AcademicCalendar" sheetId="5" r:id="rId8"/>
+    <sheet name="contact_md" sheetId="9" r:id="rId5"/>
+    <sheet name="schedule_md" sheetId="3" r:id="rId6"/>
+    <sheet name="sessions_md" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="AcademicCalendar" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,14 +31,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi8Kq5VhnzXrZ96MCzybU4eJ6youw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mi8Kq5VhnzXrZ96MCzybU4eJ6youw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="753">
   <si>
     <t>courseid</t>
   </si>
@@ -1977,9 +1978,6 @@
   </si>
   <si>
     <t>Python visualization, data manipulation , and feature creation (continued)</t>
-  </si>
-  <si>
-    <t>Labor Day No Classes (Tuesday Follows Monday Schedule</t>
   </si>
   <si>
     <t>Introduction to APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
@@ -2119,15 +2117,6 @@
     <t>https://rpi-data.slack.com/messages</t>
   </si>
   <si>
-    <t>Site title:</t>
-  </si>
-  <si>
-    <t>Author:</t>
-  </si>
-  <si>
-    <t>Author's email:</t>
-  </si>
-  <si>
     <t>Short description:</t>
   </si>
   <si>
@@ -2168,34 +2157,6 @@
   </si>
   <si>
     <t>(Whether to add numbers to chapters in your Table of Contents. If true, you can control this at the Chapter level below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># This file contains the order and numbering for all sections in the book.
-#
-# It is a sample TOC file to help you get started. Fill it out with entries
-# for your own content.
-#
-# Each entry has the following schema:
-#
-# - title: mytitle   # Title of chapter or section
-#   url: /myurl  # URL of section relative to the /content/ folder.
-#   sections:  # Contains a list of more entries that make up the chapter's sections
-#   not_numbered: true  # if the section shouldn't have a number in the sidebar
-#     (e.g. Introduction or appendices)
-#   expand_sections: true  # if you'd like the sections of this chapter to always
-#     be expanded in the sidebar.
-#   external: true  # Whether the URL is an external link or points to content in the book
-#
-# Below are some special values that trigger specific behavior:
-# - search: true  # Will provide a link to a search page
-# - divider: true  # Will insert a divider in the sidebar
-# - header: My Header  # Will insert a header with no link in the sidebar
-#
-# See the links below for an example.
-</t>
-  </si>
-  <si>
-    <t># Top-level page</t>
   </si>
   <si>
     <t xml:space="preserve">   Textbook logo link:</t>
@@ -2253,18 +2214,7 @@
     <t>3. Link title:</t>
   </si>
   <si>
-    <t># Adds a searchbar link</t>
-  </si>
-  <si>
     <t>- title: Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Divider for meta-pages and content page
-- divider: true
-</t>
-  </si>
-  <si>
-    <t># External link</t>
   </si>
   <si>
     <t xml:space="preserve">  external: true</t>
@@ -2313,26 +2263,6 @@
   </si>
   <si>
     <t>https://rpi-data.github.io/course-intro-ml-app/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Divider for meta-pages and content page
-- divider: true
-# A chapter w/ a collection of sections beneath it
-- title: Schedule
-  url: /schedule
-  not_numbered: true
-# A chapter w/ a collection of sections beneath it
-- title: Session
-  url: /session_01
-  not_numbered: true
-</t>
-  </si>
-  <si>
-    <t>#######################################################################################
-# Jupyter Book settings
-# Sidebar settings
-show_sidebar: true                # Show the sidebar. Only set to false if your only wish to host a single page.
-collapse_inactive_chapters: true  # Whether to collapse the inactive chapters in the sidebar</t>
   </si>
   <si>
     <t>sidebar_footer_text: Powered by &lt;a href="https://github.com/jupyter/jupyter-book"&gt;Jupyter Book&lt;/a&gt;</t>
@@ -2426,7 +2356,148 @@
 jupyter_book_version: 0.5.1</t>
   </si>
   <si>
-    <t>| :-----: | :-----: | :-----: | :-------------------------------------------------: | :-------------------------------------------------: |</t>
+    <t>Labor Day No Classes (Tuesday Follows Monday Schedule)</t>
+  </si>
+  <si>
+    <t>- - -</t>
+  </si>
+  <si>
+    <t>- [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)
+- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)
+- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)
+- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)
+- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)
+- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)
+- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</t>
+  </si>
+  <si>
+    <t>- [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)
+- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)
+- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</t>
+  </si>
+  <si>
+    <t>- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)
+- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# External link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Divider for meta-pages and content page
+- divider: true
+# External link</t>
+  </si>
+  <si>
+    <t># This file contains the order and numbering for all sections in the book.
+#
+# It is a sample TOC file to help you get started. Fill it out with entries
+# for your own content.
+#
+# Each entry has the following schema:
+#
+# - title: mytitle   # Title of chapter or section
+#   url: /myurl  # URL of section relative to the /content/ folder.
+#   sections:  # Contains a list of more entries that make up the chapter's sections
+#   not_numbered: true  # if the section shouldn't have a number in the sidebar
+#     (e.g. Introduction or appendices)
+#   expand_sections: true  # if you'd like the sections of this chapter to always
+#     be expanded in the sidebar.
+#   external: true  # Whether the URL is an external link or points to content in the book
+#
+# Below are some special values that trigger specific behavior:
+# - search: true  # Will provide a link to a search page
+# - divider: true  # Will insert a divider in the sidebar
+# - header: My Header  # Will insert a header with no link in the sidebar
+#
+# See the links below for an example.
+# Top-level page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Adds a searchbar link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#######################################################################################
+# Jupyter Book settings
+# Sidebar settings
+show_sidebar: true                # Show the sidebar. Only set to false if your only wish to host a single page.
+collapse_inactive_chapters: true  # Whether to collapse the inactive chapters in the sidebar</t>
+  </si>
+  <si>
+    <t>Instructor:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Email:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Office location:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Phone:</t>
+  </si>
+  <si>
+    <t>TA:</t>
+  </si>
+  <si>
+    <t>Course name:</t>
+  </si>
+  <si>
+    <t>Pittsburgh 4108</t>
+  </si>
+  <si>
+    <t>518-698-9910</t>
+  </si>
+  <si>
+    <t>Lianlian Jiang</t>
+  </si>
+  <si>
+    <t>jiangl4@rpi.edu</t>
+  </si>
+  <si>
+    <t>Pittsburgh 2226</t>
+  </si>
+  <si>
+    <t>Additional contact info:</t>
+  </si>
+  <si>
+    <t>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
+I’d prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</t>
+  </si>
+  <si>
+    <t>description: &gt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Divider for meta-pages and content page
+- divider: true
+# A chapter w/ a collection of sections beneath it
+- title: Contact Info
+  url: /contact
+  not_numbered: true
+# A chapter w/ a collection of sections beneath it
+- title: Schedule
+  url: /schedule
+  not_numbered: true
+# A chapter w/ a collection of sections beneath it
+- title: Session
+  url: /session_01
+  not_numbered: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;SCHEDULE&lt;/h1&gt;
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;CONTACT INFO&lt;/h1&gt;
+---
+</t>
+  </si>
+  <si>
+    <t>| :-----: | :-----: | :-----: | :------------------------------------------------- | :------------------------------------------------- |</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2640,6 +2711,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2958,10 +3038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -2972,225 +3052,274 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B3" s="30">
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="30">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
-    </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="B5" s="30"/>
+      <c r="A5" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>722</v>
+        <v>736</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>724</v>
+        <v>737</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>727</v>
+        <v>738</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>726</v>
+        <v>739</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>693</v>
+        <v>736</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B21" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="13" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>690</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="B23" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="B25" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
-      <c r="A21" s="23" t="s">
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="B22" s="30" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B23" s="30" t="s">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="B24" s="29" t="s">
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B25" s="30" t="s">
+    <row r="33" spans="1:2" ht="15" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{042009D7-9FD9-483E-8B74-03E32AAD5484}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{69EC54D9-7D43-492D-9D92-266E9DF0F5C0}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{042009D7-9FD9-483E-8B74-03E32AAD5484}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{69EC54D9-7D43-492D-9D92-266E9DF0F5C0}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{CE8243A2-6234-41E5-8DB9-AB660C9B9DAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3198,20 +3327,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P958"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.6484375" customWidth="1"/>
-    <col min="4" max="4" width="8.34765625" customWidth="1"/>
-    <col min="5" max="5" width="30.046875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.6484375" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" customWidth="1"/>
+    <col min="4" max="4" width="5.94921875" customWidth="1"/>
+    <col min="5" max="5" width="24.1484375" style="6" customWidth="1"/>
     <col min="6" max="6" width="38.6484375" customWidth="1"/>
     <col min="7" max="7" width="36.34765625" customWidth="1"/>
     <col min="8" max="8" width="51.1484375" customWidth="1"/>
@@ -3317,13 +3446,13 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="17" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f>IF(ISBLANK(L3),"",CONCATENATE("Assignment ",L3," Due ", TEXT(D3+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L3),"",CONCATENATE("Assignment ",L3," Due ", TEXT(D3+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N3" t="str">
@@ -3351,15 +3480,17 @@
         <v>43710</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="M4" s="8" t="str">
-        <f>IF(ISBLANK(L4),"",CONCATENATE("Assignment ",L4," Due ", TEXT(D4+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L4),"",CONCATENATE("Assignment ",L4," Due ", TEXT(D4+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N4" s="8" t="str">
@@ -3368,7 +3499,7 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P36" si="0">CONCATENATE("**",TRIM(E4),"** &lt;br&gt; ", N4, O4)</f>
-        <v xml:space="preserve">**Labor Day No Classes (Tuesday Follows Monday Schedule** &lt;br&gt; </v>
+        <v xml:space="preserve">**Labor Day No Classes (Tuesday Follows Monday Schedule)** &lt;br&gt; </v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="327.60000000000002">
@@ -3395,10 +3526,10 @@
         <v>108</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3410,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="8" t="str">
-        <f>IF(ISBLANK(L5),"",CONCATENATE("Assignment ",L5," Due ", TEXT(D5+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L5),"",CONCATENATE("Assignment ",L5," Due ", TEXT(D5+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 1 Due 09/17</v>
       </c>
       <c r="N5" s="8" t="str">
@@ -3449,10 +3580,12 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="M6" s="8" t="str">
-        <f>IF(ISBLANK(L6),"",CONCATENATE("Assignment ",L6," Due ", TEXT(D6+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L6),"",CONCATENATE("Assignment ",L6," Due ", TEXT(D6+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N6" s="8" t="str">
@@ -3492,15 +3625,15 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="8" t="str">
-        <f>IF(ISBLANK(L7),"",CONCATENATE("Assignment ",L7," Due ", TEXT(D7+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L7),"",CONCATENATE("Assignment ",L7," Due ", TEXT(D7+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N7" s="8" t="str">
@@ -3540,13 +3673,15 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f>IF(ISBLANK(L8),"",CONCATENATE("Assignment ",L8," Due ", TEXT(D8+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L8),"",CONCATENATE("Assignment ",L8," Due ", TEXT(D8+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 2 Due 09/26</v>
       </c>
       <c r="N8" s="8" t="str">
@@ -3582,18 +3717,18 @@
         <v>643</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
-        <f>IF(ISBLANK(L9),"",CONCATENATE("Assignment ",L9," Due ", TEXT(D9+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L9),"",CONCATENATE("Assignment ",L9," Due ", TEXT(D9+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N9" s="8" t="str">
@@ -3633,13 +3768,15 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f>IF(ISBLANK(L10),"",CONCATENATE("Assignment ",L10," Due ", TEXT(D10+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L10),"",CONCATENATE("Assignment ",L10," Due ", TEXT(D10+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 3 Due 10/03</v>
       </c>
       <c r="N10" s="8" t="str">
@@ -3672,19 +3809,21 @@
         <v>43731</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>647</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>648</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>662</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="M11" s="8" t="str">
-        <f>IF(ISBLANK(L11),"",CONCATENATE("Assignment ",L11," Due ", TEXT(D11+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L11),"",CONCATENATE("Assignment ",L11," Due ", TEXT(D11+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N11" s="8" t="str">
@@ -3700,7 +3839,7 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="374.4">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3717,20 +3856,22 @@
         <v>43734</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>727</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f>IF(ISBLANK(L12),"",CONCATENATE("Assignment ",L12," Due ", TEXT(D12+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L12),"",CONCATENATE("Assignment ",L12," Due ", TEXT(D12+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 4 Due 10/10</v>
       </c>
       <c r="N12" s="8" t="str">
@@ -3766,16 +3907,16 @@
         <v>25</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="M13" s="8" t="str">
-        <f>IF(ISBLANK(L13),"",CONCATENATE("Assignment ",L13," Due ", TEXT(D13+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L13),"",CONCATENATE("Assignment ",L13," Due ", TEXT(D13+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N13" s="8" t="str">
@@ -3820,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f>IF(ISBLANK(L14),"",CONCATENATE("Assignment ",L14," Due ", TEXT(D14+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L14),"",CONCATENATE("Assignment ",L14," Due ", TEXT(D14+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 5 Due 10/17</v>
       </c>
       <c r="N14" s="8" t="str">
@@ -3853,20 +3994,20 @@
         <v>43745</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="M15" s="8" t="str">
-        <f>IF(ISBLANK(L15),"",CONCATENATE("Assignment ",L15," Due ", TEXT(D15+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L15),"",CONCATENATE("Assignment ",L15," Due ", TEXT(D15+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N15" s="8" t="str">
@@ -3882,7 +4023,7 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session12/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="140.4">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3898,20 +4039,22 @@
         <v>43748</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="7" t="s">
+        <v>728</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="L16">
         <v>6</v>
       </c>
       <c r="M16" s="8" t="str">
-        <f>IF(ISBLANK(L16),"",CONCATENATE("Assignment ",L16," Due ", TEXT(D16+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L16),"",CONCATENATE("Assignment ",L16," Due ", TEXT(D16+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 6 Due 10/24</v>
       </c>
       <c r="N16" s="8" t="str">
@@ -3944,7 +4087,7 @@
         <v>43752</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3952,7 +4095,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="M17" s="8" t="str">
-        <f>IF(ISBLANK(L17),"",CONCATENATE("Assignment ",L17," Due ", TEXT(D17+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L17),"",CONCATENATE("Assignment ",L17," Due ", TEXT(D17+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N17" s="8" t="str">
@@ -3968,7 +4111,7 @@
         <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session14/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="93.6">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -3988,13 +4131,15 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="7" t="s">
+        <v>729</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="L18">
         <v>7</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f>IF(ISBLANK(L18),"",CONCATENATE("Assignment ",L18," Due ", TEXT(D18+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L18),"",CONCATENATE("Assignment ",L18," Due ", TEXT(D18+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 7 Due 10/31</v>
       </c>
       <c r="N18" s="8" t="str">
@@ -4027,17 +4172,19 @@
         <v>43759</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="M19" s="8" t="str">
-        <f>IF(ISBLANK(L19),"",CONCATENATE("Assignment ",L19," Due ", TEXT(D19+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L19),"",CONCATENATE("Assignment ",L19," Due ", TEXT(D19+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N19" s="8" t="str">
@@ -4070,18 +4217,20 @@
         <v>43762</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" s="8" t="str">
-        <f>IF(ISBLANK(L20),"",CONCATENATE("Assignment ",L20," Due ", TEXT(D20+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L20),"",CONCATENATE("Assignment ",L20," Due ", TEXT(D20+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N20" s="8" t="str">
@@ -4114,18 +4263,20 @@
         <v>43766</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="M21" s="8" t="str">
-        <f>IF(ISBLANK(L21),"",CONCATENATE("Assignment ",L21," Due ", TEXT(D21+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L21),"",CONCATENATE("Assignment ",L21," Due ", TEXT(D21+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N21" s="8" t="str">
@@ -4158,17 +4309,19 @@
         <v>43769</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="M22" s="8" t="str">
-        <f>IF(ISBLANK(L22),"",CONCATENATE("Assignment ",L22," Due ", TEXT(D22+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L22),"",CONCATENATE("Assignment ",L22," Due ", TEXT(D22+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N22" s="8" t="str">
@@ -4201,19 +4354,21 @@
         <v>43773</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>667</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="M23" s="8" t="str">
-        <f>IF(ISBLANK(L23),"",CONCATENATE("Assignment ",L23," Due ", TEXT(D23+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L23),"",CONCATENATE("Assignment ",L23," Due ", TEXT(D23+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N23" s="8" t="str">
@@ -4246,17 +4401,19 @@
         <v>43776</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="M24" s="8" t="str">
-        <f>IF(ISBLANK(L24),"",CONCATENATE("Assignment ",L24," Due ", TEXT(D24+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L24),"",CONCATENATE("Assignment ",L24," Due ", TEXT(D24+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N24" s="8" t="str">
@@ -4292,18 +4449,20 @@
         <v>30</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25">
         <v>8</v>
       </c>
       <c r="M25" s="8" t="str">
-        <f>IF(ISBLANK(L25),"",CONCATENATE("Assignment ",L25," Due ", TEXT(D25+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L25),"",CONCATENATE("Assignment ",L25," Due ", TEXT(D25+configuration!$B$4, "mm/dd")))</f>
         <v>Assignment 8 Due 11/25</v>
       </c>
       <c r="N25" s="8" t="str">
@@ -4336,20 +4495,22 @@
         <v>43783</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>668</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="M26" s="8" t="str">
-        <f>IF(ISBLANK(L26),"",CONCATENATE("Assignment ",L26," Due ", TEXT(D26+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L26),"",CONCATENATE("Assignment ",L26," Due ", TEXT(D26+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N26" s="8" t="str">
@@ -4382,18 +4543,20 @@
         <v>43787</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="M27" s="8" t="str">
-        <f>IF(ISBLANK(L27),"",CONCATENATE("Assignment ",L27," Due ", TEXT(D27+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L27),"",CONCATENATE("Assignment ",L27," Due ", TEXT(D27+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N27" s="8" t="str">
@@ -4426,17 +4589,19 @@
         <v>43790</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="M28" s="8" t="str">
-        <f>IF(ISBLANK(L28),"",CONCATENATE("Assignment ",L28," Due ", TEXT(D28+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L28),"",CONCATENATE("Assignment ",L28," Due ", TEXT(D28+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N28" s="8" t="str">
@@ -4469,17 +4634,19 @@
         <v>43794</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>658</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>659</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="M29" s="8" t="str">
-        <f>IF(ISBLANK(L29),"",CONCATENATE("Assignment ",L29," Due ", TEXT(D29+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L29),"",CONCATENATE("Assignment ",L29," Due ", TEXT(D29+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N29" s="8" t="str">
@@ -4513,10 +4680,12 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="M30" s="8" t="str">
-        <f>IF(ISBLANK(L30),"",CONCATENATE("Assignment ",L30," Due ", TEXT(D30+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L30),"",CONCATENATE("Assignment ",L30," Due ", TEXT(D30+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N30" s="8" t="str">
@@ -4548,17 +4717,19 @@
         <v>43801</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="M31" s="8" t="str">
-        <f>IF(ISBLANK(L31),"",CONCATENATE("Assignment ",L31," Due ", TEXT(D31+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L31),"",CONCATENATE("Assignment ",L31," Due ", TEXT(D31+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N31" s="8" t="str">
@@ -4596,10 +4767,12 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="M32" s="8" t="str">
-        <f>IF(ISBLANK(L32),"",CONCATENATE("Assignment ",L32," Due ", TEXT(D32+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L32),"",CONCATENATE("Assignment ",L32," Due ", TEXT(D32+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N32" s="8" t="str">
@@ -4636,10 +4809,12 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="M33" s="8" t="str">
-        <f>IF(ISBLANK(L33),"",CONCATENATE("Assignment ",L33," Due ", TEXT(D33+configuration!$B$3, "mm/dd")))</f>
+        <f>IF(ISBLANK(L33),"",CONCATENATE("Assignment ",L33," Due ", TEXT(D33+configuration!$B$4, "mm/dd")))</f>
         <v/>
       </c>
       <c r="N33" s="8" t="str">
@@ -4656,6 +4831,9 @@
       </c>
     </row>
     <row r="34" spans="1:16">
+      <c r="A34">
+        <v>17</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
@@ -4668,7 +4846,9 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="M34" s="8" t="e">
         <f>IF(ISBLANK(#REF!),"",CONCATENATE("[",#REF!,"](/",configuration!$B$2,"/assignments/assignment",A34,"/)"))</f>
@@ -17645,10 +17825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17658,79 +17838,83 @@
   <sheetData>
     <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="str">
-        <f>CONCATENATE("title: ",configuration!B6)</f>
+        <f>CONCATENATE("title: ",configuration!B3)</f>
         <v>title: Intro to Machine Learning Applications</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="str">
-        <f>CONCATENATE("author: ",configuration!B7)</f>
+        <f>CONCATENATE("author: ",configuration!B5)</f>
         <v>author: Jason Kuruzovich</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="str">
-        <f>CONCATENATE("email: ",configuration!B8)</f>
+        <f>CONCATENATE("email: ",configuration!B6)</f>
         <v>email: kuruzj@rpi.edu</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31.2">
-      <c r="A5" s="6" t="str">
-        <f>CONCATENATE("description: &gt;-", configuration!B9)</f>
-        <v>description: &gt;-Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8"/>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="46.8">
+      <c r="A6" s="40" t="str">
+        <f>CONCATENATE(" ",configuration!B15,"
+")</f>
+        <v xml:space="preserve"> Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.
+</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="str">
-        <f>CONCATENATE("baseurl: ", configuration!B10)</f>
+        <f>CONCATENATE("baseurl: ", configuration!B16)</f>
         <v xml:space="preserve">baseurl: /course-intro-ml-app  </v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="str">
-        <f>CONCATENATE("baseurl: ", configuration!B11)</f>
+        <f>CONCATENATE("baseurl: ", configuration!B17)</f>
         <v xml:space="preserve">baseurl: https://rpi-data.github.io  </v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="93.6">
-      <c r="A10" s="14" t="s">
-        <v>733</v>
+    <row r="9" spans="1:1" ht="109.2">
+      <c r="A9" s="14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f>CONCATENATE("textbook_logo: ",configuration!B23)</f>
+        <v>textbook_logo: images/logo/rpi.png</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="str">
-        <f>CONCATENATE("textbook_logo: ",configuration!B17)</f>
-        <v>textbook_logo: images/logo/rpi.png</v>
+      <c r="A11" s="8" t="str">
+        <f>CONCATENATE("textbook_logo_link: ",configuration!B24)</f>
+        <v>textbook_logo_link: https://rpi-data.github.io/course-intro-ml-app/</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="str">
-        <f>CONCATENATE("textbook_logo_link: ",configuration!B18)</f>
-        <v>textbook_logo_link: https://rpi-data.github.io/course-intro-ml-app/</v>
+      <c r="A12" s="13" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8" t="str">
-        <f>CONCATENATE("number_toc_chapters: ",configuration!B19)</f>
+      <c r="A13" s="8" t="str">
+        <f>CONCATENATE("number_toc_chapters: ",configuration!B25)</f>
         <v>number_toc_chapters: false</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="409.5">
-      <c r="A15" s="32" t="s">
-        <v>735</v>
+    <row r="14" spans="1:1" ht="409.5">
+      <c r="A14" s="14" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -17740,10 +17924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76144F0-49F8-41D3-8DBA-F84830CD836B}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17751,138 +17935,128 @@
     <col min="1" max="1" width="97.34765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="358.8">
+    <row r="1" spans="1:1" ht="378.9" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>704</v>
+      <c r="A2" t="str">
+        <f>CONCATENATE("- title: ",configuration!B3)</f>
+        <v>- title: Intro to Machine Learning Applications</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="str">
-        <f>CONCATENATE("- title: ",configuration!B6)</f>
-        <v>- title: Intro to Machine Learning Applications</v>
+      <c r="A3" s="13" t="str">
+        <f>CONCATENATE("  url: ",configuration!B17)</f>
+        <v xml:space="preserve">  url: https://rpi-data.github.io  </v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="str">
-        <f>CONCATENATE("  url: ",configuration!B11)</f>
-        <v xml:space="preserve">  url: https://rpi-data.github.io  </v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
-        <v>707</v>
+      <c r="A4" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.2">
+      <c r="A5" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="33" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="33" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="str">
-        <f>CONCATENATE("  search: ",configuration!B14)</f>
+      <c r="A7" t="str">
+        <f>CONCATENATE("  search: ",configuration!B20)</f>
         <v xml:space="preserve">  search: true</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="202.8">
-      <c r="A11" s="14" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="8" customFormat="1" ht="46.8">
-      <c r="A12" s="6" t="s">
-        <v>719</v>
+    <row r="8" spans="1:1" ht="280.8">
+      <c r="A8" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="78">
+      <c r="A9" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f>CONCATENATE("- title: ",configuration!B28)</f>
+        <v>- title: GitHub Repository</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f>CONCATENATE("  url: ",configuration!B29)</f>
+        <v xml:space="preserve">  url: https://github.com/RPI-DATA/jupyter-book</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="str">
-        <f>CONCATENATE("- title: ",configuration!B22)</f>
-        <v>- title: GitHub Repository</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="31.2">
+      <c r="A14" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="str">
-        <f>CONCATENATE("  url: ",configuration!B23)</f>
-        <v xml:space="preserve">  url: https://github.com/RPI-DATA/jupyter-book</v>
+      <c r="A15" s="8" t="str">
+        <f>CONCATENATE("- title: ",configuration!B30)</f>
+        <v>- title: Colab</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>721</v>
+      <c r="A16" s="8" t="str">
+        <f>CONCATENATE("  url: ",configuration!B31)</f>
+        <v xml:space="preserve">  url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
-        <v>720</v>
+      <c r="A17" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="31.2">
+      <c r="A19" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="str">
-        <f>CONCATENATE("- title: ",configuration!B24)</f>
-        <v>- title: Colab</v>
+        <f>CONCATENATE("- title: ",configuration!B32)</f>
+        <v>- title: Slack</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("  url: ",configuration!B25)</f>
-        <v xml:space="preserve">  url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
+        <f>CONCATENATE("  url: ",configuration!B33)</f>
+        <v xml:space="preserve">  url: https://rpi-data.slack.com/messages</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="str">
-        <f>CONCATENATE("- title: ",configuration!B26)</f>
-        <v>- title: Slack</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="str">
-        <f>CONCATENATE("  url: ",configuration!B27)</f>
-        <v xml:space="preserve">  url: https://rpi-data.slack.com/messages</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -17892,14 +18066,92 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA79271-EC78-4AC6-8582-FA7745C5D1C1}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="53.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="62.4">
+      <c r="A1" s="14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="str">
+        <f>CONCATENATE("## ",configuration!B5," (Instructor)")</f>
+        <v>## Jason Kuruzovich (Instructor)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f>CONCATENATE("- Email: ",configuration!B6)</f>
+        <v>- Email: kuruzj@rpi.edu</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f>CONCATENATE("- Office location: ",configuration!B7)</f>
+        <v>- Office location: Pittsburgh 4108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="str">
+        <f>CONCATENATE("- Phone: ",configuration!B8)</f>
+        <v>- Phone: 518-698-9910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="8" customFormat="1"/>
+    <row r="7" spans="1:1" ht="15.3" customHeight="1">
+      <c r="A7" s="8" t="str">
+        <f>CONCATENATE("
+## ",configuration!B9," (TA)")</f>
+        <v xml:space="preserve">
+## Lianlian Jiang (TA)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="str">
+        <f>CONCATENATE("- Email: ",configuration!B10)</f>
+        <v>- Email: jiangl4@rpi.edu</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="str">
+        <f>CONCATENATE("- Office location: ",configuration!B11,"
+")</f>
+        <v xml:space="preserve">- Office location: Pittsburgh 2226
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="30" t="str">
+        <f>configuration!B12</f>
+        <v>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
+I’d prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -17907,22 +18159,27 @@
     <col min="1" max="1" width="101.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="46.8">
+      <c r="A1" s="14" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="8" t="str">
         <f>CONCATENATE("| ",data!A3," | ",data!C3," | ",TEXT(data!D3,"mm/dd")," | ",data!P3," | ",data!I3," |")</f>
         <v>| 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session1/) &lt;br&gt; ** &lt;br&gt; | - [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)
 - [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)
@@ -17930,16 +18187,16 @@
 - [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)
 - [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb) |</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="str">
-        <f>CONCATENATE("| ",data!A4," | ",data!C4," | ",TEXT(data!D4,"mm/dd")," | ",data!P4," | ",data!I4," |")</f>
-        <v>| 2 | M | 09/02 | **Labor Day No Classes (Tuesday Follows Monday Schedule** &lt;br&gt;  |  |</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="8" t="str">
+        <f>CONCATENATE("| ",data!A4," | ",data!C4," | ",TEXT(data!D4,"mm/dd")," | ",data!P4," | ",data!I4," |")</f>
+        <v>| 2 | M | 09/02 | **Labor Day No Classes (Tuesday Follows Monday Schedule)** &lt;br&gt;  | - - - |</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="8" t="str">
         <f>CONCATENATE("| ",data!A5," | ",data!C5," | ",TEXT(data!D5,"mm/dd")," | ",data!P5," | ",data!I5," |")</f>
         <v>| 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt; | - [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
 - [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)
@@ -17949,14 +18206,14 @@
 - [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="8" t="str">
-        <f>CONCATENATE("| ",data!A6," | ",data!C6," | ",TEXT(data!D6,"mm/dd")," | ",data!P6," | ",data!I6," |")</f>
-        <v>| 2 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt; |  |</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="8" t="str">
+        <f>CONCATENATE("| ",data!A6," | ",data!C6," | ",TEXT(data!D6,"mm/dd")," | ",data!P6," | ",data!I6," |")</f>
+        <v>| 2 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="8" t="str">
         <f>CONCATENATE("| ",data!A7," | ",data!C7," | ",TEXT(data!D7,"mm/dd")," | ",data!P7," | ",data!I7," |")</f>
         <v>| 3 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt; | - [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)
 - [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)
@@ -17966,14 +18223,14 @@
 - [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="8" t="str">
-        <f>CONCATENATE("| ",data!A8," | ",data!C8," | ",TEXT(data!D8,"mm/dd")," | ",data!P8," | ",data!I8," |")</f>
-        <v>| 3 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt; |  |</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="8" t="str">
+        <f>CONCATENATE("| ",data!A8," | ",data!C8," | ",TEXT(data!D8,"mm/dd")," | ",data!P8," | ",data!I8," |")</f>
+        <v>| 3 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt; | - - - |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="8" t="str">
         <f>CONCATENATE("| ",data!A9," | ",data!C9," | ",TEXT(data!D9,"mm/dd")," | ",data!P9," | ",data!I9," |")</f>
         <v>| 4 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt; | - [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)
 - [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)
@@ -17983,152 +18240,161 @@
 - [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="8" t="str">
-        <f>CONCATENATE("| ",data!A10," | ",data!C10," | ",TEXT(data!D10,"mm/dd")," | ",data!P10," | ",data!I10," |")</f>
-        <v>| 4 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session7/) &lt;br&gt; *Assignment 3 Due 10/03* &lt;br&gt; |  |</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="8" t="str">
-        <f>CONCATENATE("| ",data!A11," | ",data!C11," | ",TEXT(data!D11,"mm/dd")," | ",data!P11," | ",data!I11," |")</f>
-        <v>| 5 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A10," | ",data!C10," | ",TEXT(data!D10,"mm/dd")," | ",data!P10," | ",data!I10," |")</f>
+        <v>| 4 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session7/) &lt;br&gt; *Assignment 3 Due 10/03* &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="8" t="str">
-        <f>CONCATENATE("| ",data!A12," | ",data!C12," | ",TEXT(data!D12,"mm/dd")," | ",data!P12," | ",data!I12," |")</f>
-        <v>| 5 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session9/) &lt;br&gt; *Assignment 4 Due 10/10* &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A11," | ",data!C11," | ",TEXT(data!D11,"mm/dd")," | ",data!P11," | ",data!I11," |")</f>
+        <v>| 5 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="8" t="str">
+        <f>CONCATENATE("| ",data!A12," | ",data!C12," | ",TEXT(data!D12,"mm/dd")," | ",data!P12," | ",data!I12," |")</f>
+        <v>| 5 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session9/) &lt;br&gt; *Assignment 4 Due 10/10* &lt;br&gt; | - [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)
+- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)
+- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)
+- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)
+- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)
+- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)
+- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="8" t="str">
         <f>CONCATENATE("| ",data!A13," | ",data!C13," | ",TEXT(data!D13,"mm/dd")," | ",data!P13," | ",data!I13," |")</f>
         <v>| 6 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session10/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="8" t="str">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="8" t="str">
         <f>CONCATENATE("| ",data!A14," | ",data!C14," | ",TEXT(data!D14,"mm/dd")," | ",data!P14," | ",data!I14," |")</f>
         <v>| 6 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session11/) &lt;br&gt; *Assignment 5 Due 10/17* &lt;br&gt; |  |</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="8" t="str">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="8" t="str">
         <f>CONCATENATE("| ",data!A15," | ",data!C15," | ",TEXT(data!D15,"mm/dd")," | ",data!P15," | ",data!I15," |")</f>
         <v>| 7 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session12/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="8" t="str">
-        <f>CONCATENATE("| ",data!A16," | ",data!C16," | ",TEXT(data!D16,"mm/dd")," | ",data!P16," | ",data!I16," |")</f>
-        <v>| 7 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt; |  |</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="8" t="str">
+        <f>CONCATENATE("| ",data!A16," | ",data!C16," | ",TEXT(data!D16,"mm/dd")," | ",data!P16," | ",data!I16," |")</f>
+        <v>| 7 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt; | - [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)
+- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)
+- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1">
+      <c r="A18" s="8" t="str">
         <f>CONCATENATE("| ",data!A17," | ",data!C17," | ",TEXT(data!D17,"mm/dd")," | ",data!P17," | ",data!I17," |")</f>
         <v>| 8 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session14/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="8" t="str">
-        <f>CONCATENATE("| ",data!A18," | ",data!C18," | ",TEXT(data!D18,"mm/dd")," | ",data!P18," | ",data!I18," |")</f>
-        <v>| 8 | Th | 10/17 | **Midterm** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session15/) &lt;br&gt; *Assignment 7 Due 10/31* &lt;br&gt; |  |</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="8" t="str">
-        <f>CONCATENATE("| ",data!A19," | ",data!C19," | ",TEXT(data!D19,"mm/dd")," | ",data!P19," | ",data!I19," |")</f>
-        <v>| 9 | M | 10/21 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session16/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A18," | ",data!C18," | ",TEXT(data!D18,"mm/dd")," | ",data!P18," | ",data!I18," |")</f>
+        <v>| 8 | Th | 10/17 | **Midterm** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session15/) &lt;br&gt; *Assignment 7 Due 10/31* &lt;br&gt; | - [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)
+- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="8" t="str">
-        <f>CONCATENATE("| ",data!A20," | ",data!C20," | ",TEXT(data!D20,"mm/dd")," | ",data!P20," | ",data!I20," |")</f>
-        <v>| 9 | Th | 10/24 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session17/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A19," | ",data!C19," | ",TEXT(data!D19,"mm/dd")," | ",data!P19," | ",data!I19," |")</f>
+        <v>| 9 | M | 10/21 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session16/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("| ",data!A21," | ",data!C21," | ",TEXT(data!D21,"mm/dd")," | ",data!P21," | ",data!I21," |")</f>
-        <v>| 10 | M | 10/28 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session18/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A20," | ",data!C20," | ",TEXT(data!D20,"mm/dd")," | ",data!P20," | ",data!I20," |")</f>
+        <v>| 9 | Th | 10/24 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session17/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="8" t="str">
-        <f>CONCATENATE("| ",data!A22," | ",data!C22," | ",TEXT(data!D22,"mm/dd")," | ",data!P22," | ",data!I22," |")</f>
-        <v>| 10 | Th | 10/31 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session19/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A21," | ",data!C21," | ",TEXT(data!D21,"mm/dd")," | ",data!P21," | ",data!I21," |")</f>
+        <v>| 10 | M | 10/28 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session18/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="8" t="str">
-        <f>CONCATENATE("| ",data!A23," | ",data!C23," | ",TEXT(data!D23,"mm/dd")," | ",data!P23," | ",data!I23," |")</f>
-        <v>| 11 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session20/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A22," | ",data!C22," | ",TEXT(data!D22,"mm/dd")," | ",data!P22," | ",data!I22," |")</f>
+        <v>| 10 | Th | 10/31 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session19/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="8" t="str">
-        <f>CONCATENATE("| ",data!A24," | ",data!C24," | ",TEXT(data!D24,"mm/dd")," | ",data!P24," | ",data!I24," |")</f>
-        <v>| 11 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session21/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A23," | ",data!C23," | ",TEXT(data!D23,"mm/dd")," | ",data!P23," | ",data!I23," |")</f>
+        <v>| 11 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session20/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="8" t="str">
-        <f>CONCATENATE("| ",data!A25," | ",data!C25," | ",TEXT(data!D25,"mm/dd")," | ",data!P25," | ",data!I25," |")</f>
-        <v>| 12 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session22/) &lt;br&gt; *Assignment 8 Due 11/25* &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A24," | ",data!C24," | ",TEXT(data!D24,"mm/dd")," | ",data!P24," | ",data!I24," |")</f>
+        <v>| 11 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session21/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="8" t="str">
-        <f>CONCATENATE("| ",data!A26," | ",data!C26," | ",TEXT(data!D26,"mm/dd")," | ",data!P26," | ",data!I26," |")</f>
-        <v>| 12 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session23/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A25," | ",data!C25," | ",TEXT(data!D25,"mm/dd")," | ",data!P25," | ",data!I25," |")</f>
+        <v>| 12 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session22/) &lt;br&gt; *Assignment 8 Due 11/25* &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="8" t="str">
-        <f>CONCATENATE("| ",data!A27," | ",data!C27," | ",TEXT(data!D27,"mm/dd")," | ",data!P27," | ",data!I27," |")</f>
-        <v>| 13 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A26," | ",data!C26," | ",TEXT(data!D26,"mm/dd")," | ",data!P26," | ",data!I26," |")</f>
+        <v>| 12 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session23/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="8" t="str">
+        <f>CONCATENATE("| ",data!A27," | ",data!C27," | ",TEXT(data!D27,"mm/dd")," | ",data!P27," | ",data!I27," |")</f>
+        <v>| 13 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" customHeight="1">
+      <c r="A29" s="8" t="str">
         <f>CONCATENATE("| ",data!A28," | ",data!C28," | ",TEXT(data!D28,"mm/dd")," | ",data!P28," | ",data!I28," |")</f>
-        <v>| 13 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt; |  |</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.6">
-      <c r="A29" s="8" t="str">
-        <f>CONCATENATE("| ",data!A29," | ",data!C29," | ",TEXT(data!D29,"mm/dd")," | ",data!P29," | ",data!I29," |")</f>
-        <v>| 14 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <v>| 13 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.6">
       <c r="A30" s="8" t="str">
-        <f>CONCATENATE("| ",data!A30," | ",data!C30," | ",TEXT(data!D30,"mm/dd")," | ",data!P30," | ",data!I30," |")</f>
-        <v>| 14 | Th | 11/28 | **Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A29," | ",data!C29," | ",TEXT(data!D29,"mm/dd")," | ",data!P29," | ",data!I29," |")</f>
+        <v>| 14 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.6">
       <c r="A31" s="8" t="str">
-        <f>CONCATENATE("| ",data!A31," | ",data!C31," | ",TEXT(data!D31,"mm/dd")," | ",data!P31," | ",data!I31," |")</f>
-        <v>| 15 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A30," | ",data!C30," | ",TEXT(data!D30,"mm/dd")," | ",data!P30," | ",data!I30," |")</f>
+        <v>| 14 | Th | 11/28 | **Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.6">
       <c r="A32" s="8" t="str">
-        <f>CONCATENATE("| ",data!A32," | ",data!C32," | ",TEXT(data!D32,"mm/dd")," | ",data!P32," | ",data!I32," |")</f>
-        <v>| 15 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A31," | ",data!C31," | ",TEXT(data!D31,"mm/dd")," | ",data!P31," | ",data!I31," |")</f>
+        <v>| 15 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.6">
       <c r="A33" s="8" t="str">
+        <f>CONCATENATE("| ",data!A32," | ",data!C32," | ",TEXT(data!D32,"mm/dd")," | ",data!P32," | ",data!I32," |")</f>
+        <v>| 15 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.6">
+      <c r="A34" s="8" t="str">
         <f>CONCATENATE("| ",data!A33," | ",data!C33," | ",TEXT(data!D33,"mm/dd")," | ",data!P33," | ",data!I33," |")</f>
-        <v>| 16 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt; |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6">
-      <c r="A34" s="8" t="e">
+        <v>| 16 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.6">
+      <c r="A35" s="8" t="e">
         <f>CONCATENATE("| ",data!A34," | ",data!C34," | ",TEXT(data!D34,"mm/dd")," | ",data!P34," | ")</f>
         <v>#REF!</v>
       </c>
@@ -18138,22 +18404,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="75.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="8" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.84765625" style="6" customWidth="1"/>
     <col min="5" max="16384" width="11.1484375" style="6"/>
   </cols>
@@ -18170,14 +18436,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="259" customHeight="1">
-      <c r="A2" s="15" t="str">
+    <row r="2" spans="1:4" ht="289.5" customHeight="1">
+      <c r="A2" s="39" t="str">
         <f>CONCATENATE(C2,D2)</f>
-        <v xml:space="preserve">---
-layout: default
-published: true
-title: Course Overview &amp; Introduction to the Data Science Lifecycle
-order: 1
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
 ---
 ### Description
 In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.  Explore introduction. 
@@ -18189,40 +18451,26 @@
 - Be able to use the colab computing environment.
 ### Assignment
 - Appreciate the broader impact of machine learning on the world.
-- Be able to use the colab computing environment.
----
-</v>
+- Be able to use the colab computing environment.</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="str">
-        <f>CONCATENATE("---
-layout: default
-published: ",B2,"
-title: ",data!E3,"
-order: ",data!A3,"
----
-"
-)</f>
-        <v xml:space="preserve">---
-layout: default
-published: true
-title: Course Overview &amp; Introduction to the Data Science Lifecycle
-order: 1
----
-</v>
+      <c r="C2" s="6" t="str">
+        <f>CONCATENATE("&lt;h1 style="&amp;CHAR(34)&amp;"font-family: Verdana, Geneva, sans-serif; text-align:center;"&amp;CHAR(34)&amp;"&gt;",data!E3,"&lt;/h1&gt;
+---")</f>
+        <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
+---</v>
       </c>
       <c r="D2" s="15" t="str">
-        <f>CONCATENATE("### Description
+        <f>CONCATENATE("
+### Description
 ",data!F3,"
 ### Learning Objectives",data!G3,"
 ### Notebooks",data!G3,"
-### Assignment", data!G3,"
----
-"
-)</f>
-        <v xml:space="preserve">### Description
+### Assignment", data!G3)</f>
+        <v xml:space="preserve">
+### Description
 In this class we motivate the overall field of data science, machine learning, and the emerging area of AI.  Explore introduction. 
 ### Learning Objectives
 - Appreciate the broader impact of machine learning on the world.
@@ -18232,17 +18480,16 @@
 - Be able to use the colab computing environment.
 ### Assignment
 - Appreciate the broader impact of machine learning on the world.
-- Be able to use the colab computing environment.
----
-</v>
-      </c>
-    </row>
+- Be able to use the colab computing environment.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48.9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57181392-DEF7-4741-B30A-5E78ECE9DF55}">
   <dimension ref="A2:L929"/>
   <sheetViews>
@@ -39516,7 +39763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F854F06-49CF-4CBD-9479-A61E00B88B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C295D65-DE1E-44D9-953B-D21CE7442DD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -2041,13 +2041,6 @@
 - [Ted Talk](https://www.ted.com/talks/david_mccandless_the_beauty_of_data_visualization#t-304102)</t>
   </si>
   <si>
-    <t>(1) [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;
-(2) [The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1).&lt;br&gt;
-(3) [15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)
-(4) [A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;
-(5) [An Introduction to Machine Learning with Python - Chapter 2-3](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880)</t>
-  </si>
-  <si>
     <t>[R for Data Science](https://r4ds.had.co.nz) Chapters 1-3
 Prior to class, please create an account on [RStudio Cloud](https://rstudio.cloud).</t>
   </si>
@@ -2166,40 +2159,6 @@
   </si>
   <si>
     <t xml:space="preserve">  not_numbered: true</t>
-  </si>
-  <si>
-    <t>- [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)
-- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)
-- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)
-- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)
-- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb)</t>
-  </si>
-  <si>
-    <t>| Session | Day | Date | Topic | Notebooks |</t>
-  </si>
-  <si>
-    <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
-- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)
-- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
-- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
-- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)
-- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb)</t>
-  </si>
-  <si>
-    <t>- [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)
-- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)
-- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)
-- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)
-- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)
-- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb)</t>
-  </si>
-  <si>
-    <t>- [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)
-- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)
-- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)
-- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)
-- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)
-- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb)</t>
   </si>
   <si>
     <t>1. Link title:</t>
@@ -2356,28 +2315,7 @@
 jupyter_book_version: 0.5.1</t>
   </si>
   <si>
-    <t>Labor Day No Classes (Tuesday Follows Monday Schedule)</t>
-  </si>
-  <si>
     <t>- - -</t>
-  </si>
-  <si>
-    <t>- [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)
-- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)
-- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)
-- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)
-- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)
-- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)
-- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb)</t>
-  </si>
-  <si>
-    <t>- [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)
-- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)
-- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)</t>
-  </si>
-  <si>
-    <t>- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)
-- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2460,11 +2398,11 @@
     <t>Pittsburgh 2226</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;SCHEDULE&lt;/h1&gt;
+</t>
+  </si>
+  <si>
     <t>Additional contact info:</t>
-  </si>
-  <si>
-    <t>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
-I’d prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</t>
   </si>
   <si>
     <t>description: &gt;-</t>
@@ -2487,17 +2425,50 @@
   not_numbered: true</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;SCHEDULE&lt;/h1&gt;
----
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;CONTACT INFO&lt;/h1&gt;
 ---
 </t>
   </si>
   <si>
-    <t>| :-----: | :-----: | :-----: | :------------------------------------------------- | :------------------------------------------------- |</t>
+    <t>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
+I'd prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</t>
+  </si>
+  <si>
+    <t>(1) [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;
+(2) [The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1).&lt;br&gt;
+(3) [15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;
+(4) [A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;
+(5) [An Introduction to Machine Learning with Python - Chapter 2-3](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880)</t>
+  </si>
+  <si>
+    <t>Labor Day - no classes (Tuesday follows Monday schedule)</t>
+  </si>
+  <si>
+    <t>| Week  | Session |  Day  | Date  | Topic | Notebooks |</t>
+  </si>
+  <si>
+    <t>| :---: | :-----: | :---: | :---: | :---- | :-------- |</t>
+  </si>
+  <si>
+    <t>- [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb) &lt;br&gt;- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb) &lt;br&gt;- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb) &lt;br&gt;- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb) &lt;br&gt;- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb) &lt;br&gt;- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb) &lt;br&gt;- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb) &lt;br&gt;- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb) &lt;br&gt;- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb) &lt;br&gt;- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb) &lt;br&gt;- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb) &lt;br&gt;- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb) &lt;br&gt;- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb) &lt;br&gt;- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb) &lt;br&gt;- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb) &lt;br&gt;- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb) &lt;br&gt;- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb) &lt;br&gt;- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb) &lt;br&gt;- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb) &lt;br&gt;- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb) &lt;br&gt;- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb) &lt;br&gt;- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) &lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2707,11 +2678,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2720,6 +2687,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3041,7 +3015,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -3052,13 +3026,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1</v>
@@ -3066,15 +3040,15 @@
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B4" s="30">
         <v>14</v>
@@ -3082,66 +3056,66 @@
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>747</v>
+        <v>737</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3150,38 +3124,38 @@
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>688</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>719</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3190,13 +3164,13 @@
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>24</v>
@@ -3204,7 +3178,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>24</v>
@@ -3212,46 +3186,46 @@
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>696</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="C25" s="22" t="s">
         <v>697</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3261,55 +3235,55 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -3327,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P958"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
@@ -3422,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="218.4">
+    <row r="3" spans="1:16" ht="202.8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3445,10 +3419,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>106</v>
       </c>
       <c r="M3" s="8" t="str">
@@ -3468,7 +3442,7 @@
         <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session1/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="31.2">
+    <row r="4" spans="1:16" ht="46.8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3480,13 +3454,13 @@
         <v>43710</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J4" s="6"/>
       <c r="M4" s="8" t="str">
@@ -3499,7 +3473,7 @@
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P36" si="0">CONCATENATE("**",TRIM(E4),"** &lt;br&gt; ", N4, O4)</f>
-        <v xml:space="preserve">**Labor Day No Classes (Tuesday Follows Monday Schedule)** &lt;br&gt; </v>
+        <v xml:space="preserve">**Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt; </v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="327.60000000000002">
@@ -3529,7 +3503,7 @@
         <v>659</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3581,7 +3555,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J6" s="6"/>
       <c r="M6" s="8" t="str">
@@ -3627,8 +3601,8 @@
       <c r="H7" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>705</v>
+      <c r="I7" s="20" t="s">
+        <v>747</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3649,7 +3623,7 @@
         <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.2">
+    <row r="8" spans="1:16" ht="46.8">
       <c r="A8">
         <f t="shared" ref="A8:A13" si="3">A6+1</f>
         <v>3</v>
@@ -3674,7 +3648,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8">
@@ -3723,8 +3697,8 @@
       <c r="H9" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>706</v>
+      <c r="I9" s="17" t="s">
+        <v>748</v>
       </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
@@ -3769,7 +3743,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J10" s="6"/>
       <c r="L10">
@@ -3819,7 +3793,7 @@
         <v>662</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J11" s="6"/>
       <c r="M11" s="8" t="str">
@@ -3839,7 +3813,7 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="374.4">
+    <row r="12" spans="1:16" ht="343.2">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3863,8 +3837,8 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
-        <v>727</v>
+      <c r="I12" s="17" t="s">
+        <v>749</v>
       </c>
       <c r="J12" s="6"/>
       <c r="L12">
@@ -3907,11 +3881,11 @@
         <v>25</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -4001,7 +3975,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="20" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4046,8 +4020,8 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7" t="s">
-        <v>728</v>
+      <c r="I16" s="17" t="s">
+        <v>750</v>
       </c>
       <c r="J16" s="6"/>
       <c r="L16">
@@ -4070,7 +4044,7 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="31.2">
       <c r="A17">
         <f>A15+1</f>
         <v>8</v>
@@ -4131,8 +4105,8 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7" t="s">
-        <v>729</v>
+      <c r="I18" s="17" t="s">
+        <v>751</v>
       </c>
       <c r="J18" s="6"/>
       <c r="L18">
@@ -4175,12 +4149,12 @@
         <v>651</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J19" s="6"/>
       <c r="M19" s="8" t="str">
@@ -4225,7 +4199,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4266,12 +4240,12 @@
         <v>652</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4317,7 +4291,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J22" s="6"/>
       <c r="M22" s="8" t="str">
@@ -4357,14 +4331,14 @@
         <v>653</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J23" s="6"/>
       <c r="M23" s="8" t="str">
@@ -4409,7 +4383,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J24" s="6"/>
       <c r="M24" s="8" t="str">
@@ -4449,12 +4423,12 @@
         <v>30</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4498,14 +4472,14 @@
         <v>656</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4546,12 +4520,12 @@
         <v>654</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4572,7 +4546,7 @@
         <v>**Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="31.2">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -4597,7 +4571,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J28" s="6"/>
       <c r="M28" s="8" t="str">
@@ -4642,7 +4616,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J29" s="6"/>
       <c r="M29" s="8" t="str">
@@ -4681,7 +4655,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J30" s="6"/>
       <c r="M30" s="8" t="str">
@@ -4725,7 +4699,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J31" s="6"/>
       <c r="M31" s="8" t="str">
@@ -4768,7 +4742,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J32" s="6"/>
       <c r="M32" s="8" t="str">
@@ -4810,7 +4784,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J33" s="6"/>
       <c r="M33" s="8" t="str">
@@ -4847,7 +4821,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J34" s="6"/>
       <c r="M34" s="8" t="e">
@@ -17827,8 +17801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17838,7 +17812,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17861,11 +17835,11 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1" ht="46.8">
-      <c r="A6" s="40" t="str">
+      <c r="A6" s="38" t="str">
         <f>CONCATENATE(" ",configuration!B15,"
 ")</f>
         <v xml:space="preserve"> Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.
@@ -17886,7 +17860,7 @@
     </row>
     <row r="9" spans="1:1" ht="109.2">
       <c r="A9" s="14" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17903,7 +17877,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -17914,7 +17888,7 @@
     </row>
     <row r="14" spans="1:1" ht="409.5">
       <c r="A14" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -17937,7 +17911,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="378.9" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17954,17 +17928,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="31.2">
       <c r="A5" s="6" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="33" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -17975,12 +17949,12 @@
     </row>
     <row r="8" spans="1:1" ht="280.8">
       <c r="A8" s="14" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="78">
       <c r="A9" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17997,17 +17971,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="31.2">
       <c r="A14" s="6" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -18024,17 +17998,17 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="31.2">
       <c r="A19" s="6" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -18051,12 +18025,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -18069,9 +18043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA79271-EC78-4AC6-8582-FA7745C5D1C1}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
@@ -18080,7 +18052,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="62.4">
       <c r="A1" s="14" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -18134,7 +18106,7 @@
       <c r="A10" s="30" t="str">
         <f>configuration!B12</f>
         <v>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
-I’d prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</v>
+I'd prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</v>
       </c>
     </row>
   </sheetData>
@@ -18151,7 +18123,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -18159,14 +18131,14 @@
     <col min="1" max="1" width="101.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="46.8">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="31.2">
       <c r="A1" s="14" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -18174,228 +18146,200 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="8" t="str">
-        <f>CONCATENATE("| ",data!A3," | ",data!C3," | ",TEXT(data!D3,"mm/dd")," | ",data!P3," | ",data!I3," |")</f>
-        <v>| 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session1/) &lt;br&gt; ** &lt;br&gt; | - [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)
-- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)
-- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)
-- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)
-- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A3," | ",data!B3," | ",data!C3," | ",TEXT(data!D3,"mm/dd")," | ",data!P3," | ",data!I3," |")</f>
+        <v>| 1 | 1 | Th | 08/29 | **Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session1/) &lt;br&gt; ** &lt;br&gt; | - [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb)&lt;br&gt; |</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="8" t="str">
-        <f>CONCATENATE("| ",data!A4," | ",data!C4," | ",TEXT(data!D4,"mm/dd")," | ",data!P4," | ",data!I4," |")</f>
-        <v>| 2 | M | 09/02 | **Labor Day No Classes (Tuesday Follows Monday Schedule)** &lt;br&gt;  | - - - |</v>
+        <f>CONCATENATE("| ",data!A4," | ",data!B4," | ",data!C4," | ",TEXT(data!D4,"mm/dd")," | ",data!P4," | ",data!I4," |")</f>
+        <v>| 2 |  | M | 09/02 | **Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt;  | - - - |</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="8" t="str">
-        <f>CONCATENATE("| ",data!A5," | ",data!C5," | ",TEXT(data!D5,"mm/dd")," | ",data!P5," | ",data!I5," |")</f>
-        <v>| 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt; | - [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb)
-- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb)
-- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
-- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb)
-- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb)
-- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A5," | ",data!B5," | ",data!C5," | ",TEXT(data!D5,"mm/dd")," | ",data!P5," | ",data!I5," |")</f>
+        <v>| 2 | 2 | Tu | 09/03 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt; | - [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb) &lt;br&gt;- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb) &lt;br&gt;- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb) &lt;br&gt;- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="8" t="str">
-        <f>CONCATENATE("| ",data!A6," | ",data!C6," | ",TEXT(data!D6,"mm/dd")," | ",data!P6," | ",data!I6," |")</f>
-        <v>| 2 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A6," | ",data!B6," | ",data!C6," | ",TEXT(data!D6,"mm/dd")," | ",data!P6," | ",data!I6," |")</f>
+        <v>| 2 | 3 | Th | 09/05 | **Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="8" t="str">
-        <f>CONCATENATE("| ",data!A7," | ",data!C7," | ",TEXT(data!D7,"mm/dd")," | ",data!P7," | ",data!I7," |")</f>
-        <v>| 3 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt; | - [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb)
-- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb)
-- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb)
-- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb)
-- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb)
-- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A7," | ",data!B7," | ",data!C7," | ",TEXT(data!D7,"mm/dd")," | ",data!P7," | ",data!I7," |")</f>
+        <v>| 3 | 4 | M | 09/09 | **Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt; | - [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb) &lt;br&gt;- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb) &lt;br&gt;- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb) &lt;br&gt;- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb) &lt;br&gt;- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb) &lt;br&gt;- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="8" t="str">
-        <f>CONCATENATE("| ",data!A8," | ",data!C8," | ",TEXT(data!D8,"mm/dd")," | ",data!P8," | ",data!I8," |")</f>
-        <v>| 3 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A8," | ",data!B8," | ",data!C8," | ",TEXT(data!D8,"mm/dd")," | ",data!P8," | ",data!I8," |")</f>
+        <v>| 3 | 5 | Th | 09/12 | **Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="8" t="str">
-        <f>CONCATENATE("| ",data!A9," | ",data!C9," | ",TEXT(data!D9,"mm/dd")," | ",data!P9," | ",data!I9," |")</f>
-        <v>| 4 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt; | - [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb)
-- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb)
-- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb)
-- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb)
-- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb)
-- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A9," | ",data!B9," | ",data!C9," | ",TEXT(data!D9,"mm/dd")," | ",data!P9," | ",data!I9," |")</f>
+        <v>| 4 | 6 | M | 09/16 | **Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt; | - [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb) &lt;br&gt;- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb) &lt;br&gt;- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb) &lt;br&gt;- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb) &lt;br&gt;- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb) &lt;br&gt;- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="8" t="str">
-        <f>CONCATENATE("| ",data!A10," | ",data!C10," | ",TEXT(data!D10,"mm/dd")," | ",data!P10," | ",data!I10," |")</f>
-        <v>| 4 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session7/) &lt;br&gt; *Assignment 3 Due 10/03* &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A10," | ",data!B10," | ",data!C10," | ",TEXT(data!D10,"mm/dd")," | ",data!P10," | ",data!I10," |")</f>
+        <v>| 4 | 7 | Th | 09/19 | **Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session7/) &lt;br&gt; *Assignment 3 Due 10/03* &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="8" t="str">
-        <f>CONCATENATE("| ",data!A11," | ",data!C11," | ",TEXT(data!D11,"mm/dd")," | ",data!P11," | ",data!I11," |")</f>
-        <v>| 5 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A11," | ",data!B11," | ",data!C11," | ",TEXT(data!D11,"mm/dd")," | ",data!P11," | ",data!I11," |")</f>
+        <v>| 5 | 8 | M | 09/23 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="8" t="str">
-        <f>CONCATENATE("| ",data!A12," | ",data!C12," | ",TEXT(data!D12,"mm/dd")," | ",data!P12," | ",data!I12," |")</f>
-        <v>| 5 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session9/) &lt;br&gt; *Assignment 4 Due 10/10* &lt;br&gt; | - [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb)
-- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb)
-- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb)
-- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb)
-- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb)
-- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb)
-- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A12," | ",data!B12," | ",data!C12," | ",TEXT(data!D12,"mm/dd")," | ",data!P12," | ",data!I12," |")</f>
+        <v>| 5 | 9 | Th | 09/26 | **Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session9/) &lt;br&gt; *Assignment 4 Due 10/10* &lt;br&gt; | - [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb) &lt;br&gt;- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb) &lt;br&gt;- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb) &lt;br&gt;- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb) &lt;br&gt;- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb) &lt;br&gt;- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb) &lt;br&gt;- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="8" t="str">
-        <f>CONCATENATE("| ",data!A13," | ",data!C13," | ",TEXT(data!D13,"mm/dd")," | ",data!P13," | ",data!I13," |")</f>
-        <v>| 6 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session10/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A13," | ",data!B13," | ",data!C13," | ",TEXT(data!D13,"mm/dd")," | ",data!P13," | ",data!I13," |")</f>
+        <v>| 6 | 10 | M | 09/30 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session10/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="8" t="str">
-        <f>CONCATENATE("| ",data!A14," | ",data!C14," | ",TEXT(data!D14,"mm/dd")," | ",data!P14," | ",data!I14," |")</f>
-        <v>| 6 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session11/) &lt;br&gt; *Assignment 5 Due 10/17* &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A14," | ",data!B14," | ",data!C14," | ",TEXT(data!D14,"mm/dd")," | ",data!P14," | ",data!I14," |")</f>
+        <v>| 6 | 11 | Th | 10/03 | **Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session11/) &lt;br&gt; *Assignment 5 Due 10/17* &lt;br&gt; |  |</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="8" t="str">
-        <f>CONCATENATE("| ",data!A15," | ",data!C15," | ",TEXT(data!D15,"mm/dd")," | ",data!P15," | ",data!I15," |")</f>
-        <v>| 7 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session12/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A15," | ",data!B15," | ",data!C15," | ",TEXT(data!D15,"mm/dd")," | ",data!P15," | ",data!I15," |")</f>
+        <v>| 7 | 12 | M | 10/07 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session12/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="8" t="str">
-        <f>CONCATENATE("| ",data!A16," | ",data!C16," | ",TEXT(data!D16,"mm/dd")," | ",data!P16," | ",data!I16," |")</f>
-        <v>| 7 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt; | - [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb)
-- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb)
-- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A16," | ",data!B16," | ",data!C16," | ",TEXT(data!D16,"mm/dd")," | ",data!P16," | ",data!I16," |")</f>
+        <v>| 7 | 13 | Th | 10/10 | **Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt; | - [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb) &lt;br&gt;- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb) &lt;br&gt;- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="8" t="str">
-        <f>CONCATENATE("| ",data!A17," | ",data!C17," | ",TEXT(data!D17,"mm/dd")," | ",data!P17," | ",data!I17," |")</f>
-        <v>| 8 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session14/) &lt;br&gt; ** &lt;br&gt; |  |</v>
+        <f>CONCATENATE("| ",data!A17," | ",data!B17," | ",data!C17," | ",TEXT(data!D17,"mm/dd")," | ",data!P17," | ",data!I17," |")</f>
+        <v>| 8 | 14 | M | 10/14 | **Review/Kaggle Project Introduction** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session14/) &lt;br&gt; ** &lt;br&gt; |  |</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="8" t="str">
-        <f>CONCATENATE("| ",data!A18," | ",data!C18," | ",TEXT(data!D18,"mm/dd")," | ",data!P18," | ",data!I18," |")</f>
-        <v>| 8 | Th | 10/17 | **Midterm** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session15/) &lt;br&gt; *Assignment 7 Due 10/31* &lt;br&gt; | - [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb)
-- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) |</v>
+        <f>CONCATENATE("| ",data!A18," | ",data!B18," | ",data!C18," | ",TEXT(data!D18,"mm/dd")," | ",data!P18," | ",data!I18," |")</f>
+        <v>| 8 | 15 | Th | 10/17 | **Midterm** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session15/) &lt;br&gt; *Assignment 7 Due 10/31* &lt;br&gt; | - [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) &lt;br&gt; |</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="8" t="str">
-        <f>CONCATENATE("| ",data!A19," | ",data!C19," | ",TEXT(data!D19,"mm/dd")," | ",data!P19," | ",data!I19," |")</f>
-        <v>| 9 | M | 10/21 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session16/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A19," | ",data!B19," | ",data!C19," | ",TEXT(data!D19,"mm/dd")," | ",data!P19," | ",data!I19," |")</f>
+        <v>| 9 | 16 | M | 10/21 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session16/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("| ",data!A20," | ",data!C20," | ",TEXT(data!D20,"mm/dd")," | ",data!P20," | ",data!I20," |")</f>
-        <v>| 9 | Th | 10/24 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session17/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A20," | ",data!B20," | ",data!C20," | ",TEXT(data!D20,"mm/dd")," | ",data!P20," | ",data!I20," |")</f>
+        <v>| 9 | 17 | Th | 10/24 | **Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session17/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="8" t="str">
-        <f>CONCATENATE("| ",data!A21," | ",data!C21," | ",TEXT(data!D21,"mm/dd")," | ",data!P21," | ",data!I21," |")</f>
-        <v>| 10 | M | 10/28 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session18/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A21," | ",data!B21," | ",data!C21," | ",TEXT(data!D21,"mm/dd")," | ",data!P21," | ",data!I21," |")</f>
+        <v>| 10 | 18 | M | 10/28 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session18/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="8" t="str">
-        <f>CONCATENATE("| ",data!A22," | ",data!C22," | ",TEXT(data!D22,"mm/dd")," | ",data!P22," | ",data!I22," |")</f>
-        <v>| 10 | Th | 10/31 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session19/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A22," | ",data!B22," | ",data!C22," | ",TEXT(data!D22,"mm/dd")," | ",data!P22," | ",data!I22," |")</f>
+        <v>| 10 | 19 | Th | 10/31 | **Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session19/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="8" t="str">
-        <f>CONCATENATE("| ",data!A23," | ",data!C23," | ",TEXT(data!D23,"mm/dd")," | ",data!P23," | ",data!I23," |")</f>
-        <v>| 11 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session20/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A23," | ",data!B23," | ",data!C23," | ",TEXT(data!D23,"mm/dd")," | ",data!P23," | ",data!I23," |")</f>
+        <v>| 11 | 20 | M | 11/04 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session20/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="8" t="str">
-        <f>CONCATENATE("| ",data!A24," | ",data!C24," | ",TEXT(data!D24,"mm/dd")," | ",data!P24," | ",data!I24," |")</f>
-        <v>| 11 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session21/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A24," | ",data!B24," | ",data!C24," | ",TEXT(data!D24,"mm/dd")," | ",data!P24," | ",data!I24," |")</f>
+        <v>| 11 | 21 | Th | 11/07 | **Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session21/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="8" t="str">
-        <f>CONCATENATE("| ",data!A25," | ",data!C25," | ",TEXT(data!D25,"mm/dd")," | ",data!P25," | ",data!I25," |")</f>
-        <v>| 12 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session22/) &lt;br&gt; *Assignment 8 Due 11/25* &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A25," | ",data!B25," | ",data!C25," | ",TEXT(data!D25,"mm/dd")," | ",data!P25," | ",data!I25," |")</f>
+        <v>| 12 | 22 | M | 11/11 | **Introduction to Big Data** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session22/) &lt;br&gt; *Assignment 8 Due 11/25* &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="8" t="str">
-        <f>CONCATENATE("| ",data!A26," | ",data!C26," | ",TEXT(data!D26,"mm/dd")," | ",data!P26," | ",data!I26," |")</f>
-        <v>| 12 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session23/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A26," | ",data!B26," | ",data!C26," | ",TEXT(data!D26,"mm/dd")," | ",data!P26," | ",data!I26," |")</f>
+        <v>| 12 | 23 | Th | 11/14 | **Time Series Analysis** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session23/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="8" t="str">
-        <f>CONCATENATE("| ",data!A27," | ",data!C27," | ",TEXT(data!D27,"mm/dd")," | ",data!P27," | ",data!I27," |")</f>
-        <v>| 13 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A27," | ",data!B27," | ",data!C27," | ",TEXT(data!D27,"mm/dd")," | ",data!P27," | ",data!I27," |")</f>
+        <v>| 13 | 24 | M | 11/18 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="8" t="str">
-        <f>CONCATENATE("| ",data!A28," | ",data!C28," | ",TEXT(data!D28,"mm/dd")," | ",data!P28," | ",data!I28," |")</f>
-        <v>| 13 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A28," | ",data!B28," | ",data!C28," | ",TEXT(data!D28,"mm/dd")," | ",data!P28," | ",data!I28," |")</f>
+        <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.6">
       <c r="A30" s="8" t="str">
-        <f>CONCATENATE("| ",data!A29," | ",data!C29," | ",TEXT(data!D29,"mm/dd")," | ",data!P29," | ",data!I29," |")</f>
-        <v>| 14 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A29," | ",data!B29," | ",data!C29," | ",TEXT(data!D29,"mm/dd")," | ",data!P29," | ",data!I29," |")</f>
+        <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.6">
       <c r="A31" s="8" t="str">
-        <f>CONCATENATE("| ",data!A30," | ",data!C30," | ",TEXT(data!D30,"mm/dd")," | ",data!P30," | ",data!I30," |")</f>
-        <v>| 14 | Th | 11/28 | **Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A30," | ",data!B30," | ",data!C30," | ",TEXT(data!D30,"mm/dd")," | ",data!P30," | ",data!I30," |")</f>
+        <v>| 14 |  | Th | 11/28 | **Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.6">
       <c r="A32" s="8" t="str">
-        <f>CONCATENATE("| ",data!A31," | ",data!C31," | ",TEXT(data!D31,"mm/dd")," | ",data!P31," | ",data!I31," |")</f>
-        <v>| 15 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A31," | ",data!B31," | ",data!C31," | ",TEXT(data!D31,"mm/dd")," | ",data!P31," | ",data!I31," |")</f>
+        <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.6">
       <c r="A33" s="8" t="str">
-        <f>CONCATENATE("| ",data!A32," | ",data!C32," | ",TEXT(data!D32,"mm/dd")," | ",data!P32," | ",data!I32," |")</f>
-        <v>| 15 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A32," | ",data!B32," | ",data!C32," | ",TEXT(data!D32,"mm/dd")," | ",data!P32," | ",data!I32," |")</f>
+        <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.6">
       <c r="A34" s="8" t="str">
-        <f>CONCATENATE("| ",data!A33," | ",data!C33," | ",TEXT(data!D33,"mm/dd")," | ",data!P33," | ",data!I33," |")</f>
-        <v>| 16 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
+        <f>CONCATENATE("| ",data!A33," | ",data!B33," | ",data!C33," | ",TEXT(data!D33,"mm/dd")," | ",data!P33," | ",data!I33," |")</f>
+        <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.6">
       <c r="A35" s="8" t="e">
-        <f>CONCATENATE("| ",data!A34," | ",data!C34," | ",TEXT(data!D34,"mm/dd")," | ",data!P34," | ")</f>
+        <f>CONCATENATE("| ",data!A34," | ",data!B34," | ",data!C34," | ",TEXT(data!D34,"mm/dd")," | ",data!P34," | ",data!I34," |")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -18437,7 +18381,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="289.5" customHeight="1">
-      <c r="A2" s="39" t="str">
+      <c r="A2" s="37" t="str">
         <f>CONCATENATE(C2,D2)</f>
         <v>&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;Course Overview &amp; Introduction to the Data Science Lifecycle&lt;/h1&gt;
 ---
@@ -39810,10 +39754,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="40">
         <v>43709</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="10">
@@ -39856,10 +39800,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="40">
         <v>43739</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="10">
@@ -39910,10 +39854,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>43770</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -39980,10 +39924,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
+      <c r="A27" s="40">
         <v>43800</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="10">
@@ -40066,10 +40010,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="36">
+      <c r="A38" s="40">
         <v>43831</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="41"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="12" t="s">
@@ -40120,10 +40064,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="36">
+      <c r="A45" s="40">
         <v>43862</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="41"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="10">
@@ -40150,10 +40094,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="36">
+      <c r="A49" s="40">
         <v>43891</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="10">
@@ -40228,10 +40172,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="36">
+      <c r="A59" s="40">
         <v>43922</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="10">
@@ -40274,10 +40218,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="36">
+      <c r="A65" s="40">
         <v>43952</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="12" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C295D65-DE1E-44D9-953B-D21CE7442DD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1D128A-9092-4C86-9AA3-CAC347E26DE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -2158,9 +2158,6 @@
     <t xml:space="preserve">   Collapse inactive chapters:</t>
   </si>
   <si>
-    <t xml:space="preserve">  not_numbered: true</t>
-  </si>
-  <si>
     <t>1. Link title:</t>
   </si>
   <si>
@@ -2174,9 +2171,6 @@
   </si>
   <si>
     <t>- title: Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  external: true</t>
   </si>
   <si>
     <t>Intro to Machine Learning Applications</t>
@@ -2225,6 +2219,168 @@
   </si>
   <si>
     <t>sidebar_footer_text: Powered by &lt;a href="https://github.com/jupyter/jupyter-book"&gt;Jupyter Book&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>- - -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# External link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Divider for meta-pages and content page
+- divider: true
+# External link</t>
+  </si>
+  <si>
+    <t># This file contains the order and numbering for all sections in the book.
+#
+# It is a sample TOC file to help you get started. Fill it out with entries
+# for your own content.
+#
+# Each entry has the following schema:
+#
+# - title: mytitle   # Title of chapter or section
+#   url: /myurl  # URL of section relative to the /content/ folder.
+#   sections:  # Contains a list of more entries that make up the chapter's sections
+#   not_numbered: true  # if the section shouldn't have a number in the sidebar
+#     (e.g. Introduction or appendices)
+#   expand_sections: true  # if you'd like the sections of this chapter to always
+#     be expanded in the sidebar.
+#   external: true  # Whether the URL is an external link or points to content in the book
+#
+# Below are some special values that trigger specific behavior:
+# - search: true  # Will provide a link to a search page
+# - divider: true  # Will insert a divider in the sidebar
+# - header: My Header  # Will insert a header with no link in the sidebar
+#
+# See the links below for an example.
+# Top-level page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Adds a searchbar link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#######################################################################################
+# Jupyter Book settings
+# Sidebar settings
+show_sidebar: true                # Show the sidebar. Only set to false if your only wish to host a single page.
+collapse_inactive_chapters: true  # Whether to collapse the inactive chapters in the sidebar</t>
+  </si>
+  <si>
+    <t>Instructor:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Email:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Office location:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Phone:</t>
+  </si>
+  <si>
+    <t>TA:</t>
+  </si>
+  <si>
+    <t>Course name:</t>
+  </si>
+  <si>
+    <t>Pittsburgh 4108</t>
+  </si>
+  <si>
+    <t>518-698-9910</t>
+  </si>
+  <si>
+    <t>Lianlian Jiang</t>
+  </si>
+  <si>
+    <t>jiangl4@rpi.edu</t>
+  </si>
+  <si>
+    <t>Pittsburgh 2226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;SCHEDULE&lt;/h1&gt;
+</t>
+  </si>
+  <si>
+    <t>Additional contact info:</t>
+  </si>
+  <si>
+    <t>description: &gt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;CONTACT INFO&lt;/h1&gt;
+---
+</t>
+  </si>
+  <si>
+    <t>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
+I'd prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</t>
+  </si>
+  <si>
+    <t>(1) [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;
+(2) [The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1).&lt;br&gt;
+(3) [15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;
+(4) [A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;
+(5) [An Introduction to Machine Learning with Python - Chapter 2-3](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880)</t>
+  </si>
+  <si>
+    <t>Labor Day - no classes (Tuesday follows Monday schedule)</t>
+  </si>
+  <si>
+    <t>| Week  | Session |  Day  | Date  | Topic | Notebooks |</t>
+  </si>
+  <si>
+    <t>| :---: | :-----: | :---: | :---: | :---- | :-------- |</t>
+  </si>
+  <si>
+    <t>- [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb) &lt;br&gt;- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb) &lt;br&gt;- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb) &lt;br&gt;- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb) &lt;br&gt;- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb) &lt;br&gt;- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb) &lt;br&gt;- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb) &lt;br&gt;- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb) &lt;br&gt;- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb) &lt;br&gt;- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb) &lt;br&gt;- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb) &lt;br&gt;- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb) &lt;br&gt;- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb) &lt;br&gt;- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb) &lt;br&gt;- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb) &lt;br&gt;- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb) &lt;br&gt;- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb) &lt;br&gt;- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb) &lt;br&gt;- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb) &lt;br&gt;- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb) &lt;br&gt;- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb) &lt;br&gt;- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not_numbered: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Divider for meta-pages and content page
+- divider: true
+# A chapter w/ a collection of sections beneath it
+- title: Contact Info
+  url: /contact
+  not_numbered: true
+# A chapter w/ a collection of sections beneath it
+- title: Schedule
+ url: /schedule
+ not_numbered: true
+# A chapter w/ a collection of sections beneath it
+- title: Session
+ url: /session_01
+ not_numbered: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> external: true</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2259,12 +2415,12 @@
 # Jupyter book extensions and additional features
 # Bibliography and citation settings. See https://github.com/inukshuk/jekyll-scholar#configuration for options
 scholar:
-  style: ieee
+ style: ieee
 #######################################################################################
 # Option to add a Google analytics tracking code
 # Navigate to https://analytics.google.com, add a new property for your jupyter book and copy the tracking id here.
 google_analytics:
-  mytrackingcode:
+ mytrackingcode:
 #######################################################################################
 # Jupyter book settings you probably don't need to change
 content_folder_name: content              # The folder where your raw content (notebooks/markdown files) are located
@@ -2277,25 +2433,25 @@
 # Site settings
 defaults:
 - scope:
-    path: ''
-  values:
-    layout: default
-    toc: true
-    toc_label: '  On this page'
-    toc_icon: list-ul
+  path: ''
+values:
+  layout: default
+  toc: true
+  toc_label: '  On this page'
+  toc_icon: list-ul
 favicon_path: images/logo/favicon.png
 # Markdown Processing
 markdown: kramdown
 kramdown:
-  input: GFM
-  syntax_highlighter: rouge
+ input: GFM
+ syntax_highlighter: rouge
 encoding: utf-8
 sass:
-  style: compressed
+ style: compressed
 collections:
-  build:
-    output: true
-    permalink: /:path.html
+ build:
+  output: true
+  permalink: /:path.html
 # Exclude from processing.
 # The following items will not be processed, by default. Create a custom list
 # to override the default setting.
@@ -2313,162 +2469,6 @@
 - jekyll-scholar
 # Jupyter Book version - DO NOT CHANGE THIS. It is generated when a new book is created
 jupyter_book_version: 0.5.1</t>
-  </si>
-  <si>
-    <t>- - -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# External link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Divider for meta-pages and content page
-- divider: true
-# External link</t>
-  </si>
-  <si>
-    <t># This file contains the order and numbering for all sections in the book.
-#
-# It is a sample TOC file to help you get started. Fill it out with entries
-# for your own content.
-#
-# Each entry has the following schema:
-#
-# - title: mytitle   # Title of chapter or section
-#   url: /myurl  # URL of section relative to the /content/ folder.
-#   sections:  # Contains a list of more entries that make up the chapter's sections
-#   not_numbered: true  # if the section shouldn't have a number in the sidebar
-#     (e.g. Introduction or appendices)
-#   expand_sections: true  # if you'd like the sections of this chapter to always
-#     be expanded in the sidebar.
-#   external: true  # Whether the URL is an external link or points to content in the book
-#
-# Below are some special values that trigger specific behavior:
-# - search: true  # Will provide a link to a search page
-# - divider: true  # Will insert a divider in the sidebar
-# - header: My Header  # Will insert a header with no link in the sidebar
-#
-# See the links below for an example.
-# Top-level page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Adds a searchbar link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-#######################################################################################
-# Jupyter Book settings
-# Sidebar settings
-show_sidebar: true                # Show the sidebar. Only set to false if your only wish to host a single page.
-collapse_inactive_chapters: true  # Whether to collapse the inactive chapters in the sidebar</t>
-  </si>
-  <si>
-    <t>Instructor:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Email:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Office location:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Phone:</t>
-  </si>
-  <si>
-    <t>TA:</t>
-  </si>
-  <si>
-    <t>Course name:</t>
-  </si>
-  <si>
-    <t>Pittsburgh 4108</t>
-  </si>
-  <si>
-    <t>518-698-9910</t>
-  </si>
-  <si>
-    <t>Lianlian Jiang</t>
-  </si>
-  <si>
-    <t>jiangl4@rpi.edu</t>
-  </si>
-  <si>
-    <t>Pittsburgh 2226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;SCHEDULE&lt;/h1&gt;
-</t>
-  </si>
-  <si>
-    <t>Additional contact info:</t>
-  </si>
-  <si>
-    <t>description: &gt;-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Divider for meta-pages and content page
-- divider: true
-# A chapter w/ a collection of sections beneath it
-- title: Contact Info
-  url: /contact
-  not_numbered: true
-# A chapter w/ a collection of sections beneath it
-- title: Schedule
-  url: /schedule
-  not_numbered: true
-# A chapter w/ a collection of sections beneath it
-- title: Session
-  url: /session_01
-  not_numbered: true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1 style="font-family: Verdana, Geneva, sans-serif; text-align:center;"&gt;CONTACT INFO&lt;/h1&gt;
----
-</t>
-  </si>
-  <si>
-    <t>Ask technical questions related to to class to an appropriate slack channel (#homework/#lab). This will ensure that everyone can jump in and help.
-I'd prefer that you address other messages to me also through Slack (rather than email). This will enable me to turn off my email while continuing to give priority support to this class.</t>
-  </si>
-  <si>
-    <t>(1) [Cross Validation](https://www.analyticsvidhya.com/blog/2015/11/improve-model-performance-cross-validation-in-python-r/)&lt;br&gt;
-(2) [The 10 Algorithms Machine Learning Engineers Need to Know](https://gab41.lab41.org/the-10-algorithms-machine-learning-engineers-need-to-know-f4bb63f5b2fa#.4rekzo2o1).&lt;br&gt;
-(3) [15 Algorithms Machine Learning Engineers Must Need to Know](https://www.favouriteblog.com/15-algorithms-machine-learning-engineers/)&lt;br&gt;
-(4) [A Tour of Machine Learning Algorithms](http://machinelearningmastery.com/a-tour-of-machine-learning-algorithms/)&lt;br&gt;
-(5) [An Introduction to Machine Learning with Python - Chapter 2-3](http://proquestcombo.safaribooksonline.com/book/programming/machine-learning/9781449369880)</t>
-  </si>
-  <si>
-    <t>Labor Day - no classes (Tuesday follows Monday schedule)</t>
-  </si>
-  <si>
-    <t>| Week  | Session |  Day  | Date  | Topic | Notebooks |</t>
-  </si>
-  <si>
-    <t>| :---: | :-----: | :---: | :---: | :---- | :-------- |</t>
-  </si>
-  <si>
-    <t>- [What is Jupyter?](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/01-what-is-jupyter.ipynb#scrollTo=mdFTkIqGwgOJ)&lt;br&gt;- [Notebook Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/02-notebook-basics.ipynb)&lt;br&gt;- [Running Code](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/03-running-code.ipynb)&lt;br&gt;- [Markdown](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/01-overview/01-notebook-basics/04-markdown.ipynb)&lt;br&gt;- [More on Colab](https://colab.research.google.com/notebooks/welcome.ipynb)&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [Conditional-Loops](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/01-intro-python-conditionals-loops.ipynb) &lt;br&gt;- [Functions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/02-intro-python-functions.ipynb) &lt;br&gt;- [Null Values](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/03-intro-python-null-values.ipynb) &lt;br&gt;- [Groupby](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/04-intro-python-groupby.ipynb) &lt;br&gt;- [Kaggle Baseline](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/05-intro-kaggle-baseline.ipynb) &lt;br&gt;- [Assignment 2](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/03-python/hm-02/hm02.ipynb) &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [Twitter](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/01_intro_api_twitter.ipynb) &lt;br&gt;- [Web Mining](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/02_intro_python_webmining.ipynb) &lt;br&gt;- [Visualizations - Seaborn](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/03_visualization_python_seaborn.ipynb) &lt;br&gt;- [Strings - Regular Expressions](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/04_strings_and_regular_expressions.ipynb) &lt;br&gt;- [Feature Dummies](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/05_features_dummies.ipynb) &lt;br&gt;- [Assignment 3](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/04-viz-api-scraper/hm-03/hm03.ipynb) &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [The Simplest Neural Network with Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-Neural-Networks.ipynb) &lt;br&gt;- [Train Test Split](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/01-training-test-split.ipynb) &lt;br&gt;- [Introduction to Logistic Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/02-intro-logistic-knn.ipynb) &lt;br&gt;- [K Nearest Neighbor](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/03-knn.ipynb) &lt;br&gt;- [ROC and SVM](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/04-svm-roc.ipynb) &lt;br&gt;- [HM5A Visualization &amp; Screen Scraping](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05A.ipynb) &lt;br&gt;- [HM5B Intro Modeling](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/05-intro-modeling/hm5/homework_05B.ipynb) &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [Matrix Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/01-matrix-regression-gradient-decent-python.ipynb) &lt;br&gt;- [Regression Basics](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/02-regression-boston-housing-python.ipynb) &lt;br&gt;- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [Ridge and Lasso Regression](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/03-ridge-lasso-python.ipynb) &lt;br&gt;- [PCA](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/07-intro-modeling2/Python/04_introduction_pca.ipynb) &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>- [Python Overview](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/01-intro-python-overview.ipynb) &lt;br&gt;- [Basic Data Structures](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/02-intro-python-datastructures.ipynbhttps://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/03-intro-python-numpy.ipynb) &lt;br&gt;- [Numpy](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Pandas](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/04-intro-python-pandas.ipynb) &lt;br&gt;- [Lab](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/lab/lab.ipynb) &lt;br&gt;- [Homework 1](https://colab.research.google.com/github/rpi-techfundamentals/spring2019-materials/blob/master/02-intro-python/hm-01/hm01.ipynb) &lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
@@ -3056,66 +3056,66 @@
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>737</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3133,7 +3133,7 @@
         <v>684</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3141,7 +3141,7 @@
         <v>687</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>688</v>
@@ -3152,7 +3152,7 @@
         <v>686</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>689</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>24</v>
@@ -3200,7 +3200,7 @@
         <v>693</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>692</v>
@@ -3211,7 +3211,7 @@
         <v>698</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>694</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>678</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>681</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>679</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>682</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>680</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>683</v>
@@ -3301,11 +3301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P958"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15.6"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="39" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>106</v>
@@ -3454,13 +3454,13 @@
         <v>43710</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J4" s="6"/>
       <c r="M4" s="8" t="str">
@@ -3503,7 +3503,7 @@
         <v>659</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3555,7 +3555,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J6" s="6"/>
       <c r="M6" s="8" t="str">
@@ -3602,7 +3602,7 @@
         <v>660</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3648,7 +3648,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8">
@@ -3698,7 +3698,7 @@
         <v>661</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
@@ -3743,7 +3743,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J10" s="6"/>
       <c r="L10">
@@ -3793,7 +3793,7 @@
         <v>662</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J11" s="6"/>
       <c r="M11" s="8" t="str">
@@ -3838,7 +3838,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J12" s="6"/>
       <c r="L12">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="20" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4021,7 +4021,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="17" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J16" s="6"/>
       <c r="L16">
@@ -4106,7 +4106,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="17" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J18" s="6"/>
       <c r="L18">
@@ -4154,7 +4154,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J19" s="6"/>
       <c r="M19" s="8" t="str">
@@ -4199,7 +4199,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4245,7 +4245,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4291,7 +4291,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J22" s="6"/>
       <c r="M22" s="8" t="str">
@@ -4338,7 +4338,7 @@
         <v>666</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J23" s="6"/>
       <c r="M23" s="8" t="str">
@@ -4383,7 +4383,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J24" s="6"/>
       <c r="M24" s="8" t="str">
@@ -4428,7 +4428,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4479,7 +4479,7 @@
         <v>667</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4525,7 +4525,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4571,7 +4571,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J28" s="6"/>
       <c r="M28" s="8" t="str">
@@ -4616,7 +4616,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J29" s="6"/>
       <c r="M29" s="8" t="str">
@@ -4655,7 +4655,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J30" s="6"/>
       <c r="M30" s="8" t="str">
@@ -4699,7 +4699,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J31" s="6"/>
       <c r="M31" s="8" t="str">
@@ -4742,7 +4742,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J32" s="6"/>
       <c r="M32" s="8" t="str">
@@ -4784,7 +4784,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J33" s="6"/>
       <c r="M33" s="8" t="str">
@@ -4821,7 +4821,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="J34" s="6"/>
       <c r="M34" s="8" t="e">
@@ -17801,8 +17801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17812,7 +17812,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17835,7 +17835,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1" ht="46.8">
@@ -17860,7 +17860,7 @@
     </row>
     <row r="9" spans="1:1" ht="109.2">
       <c r="A9" s="14" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17877,7 +17877,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -17888,7 +17888,7 @@
     </row>
     <row r="14" spans="1:1" ht="409.5">
       <c r="A14" s="14" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -17900,8 +17900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76144F0-49F8-41D3-8DBA-F84830CD836B}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17911,7 +17911,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="378.9" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17922,39 +17922,39 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="13" t="str">
-        <f>CONCATENATE("  url: ",configuration!B17)</f>
-        <v xml:space="preserve">  url: https://rpi-data.github.io  </v>
+        <f>CONCATENATE(" url: ",configuration!B17)</f>
+        <v xml:space="preserve"> url: https://rpi-data.github.io  </v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="31.2">
       <c r="A5" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="str">
-        <f>CONCATENATE("  search: ",configuration!B20)</f>
-        <v xml:space="preserve">  search: true</v>
+        <f>CONCATENATE(" search: ",configuration!B20)</f>
+        <v xml:space="preserve"> search: true</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="280.8">
       <c r="A8" s="14" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="78">
       <c r="A9" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17965,23 +17965,23 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="str">
-        <f>CONCATENATE("  url: ",configuration!B29)</f>
-        <v xml:space="preserve">  url: https://github.com/RPI-DATA/jupyter-book</v>
+        <f>CONCATENATE(" url: ",configuration!B29)</f>
+        <v xml:space="preserve"> url: https://github.com/RPI-DATA/jupyter-book</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="31.2">
       <c r="A14" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -17992,23 +17992,23 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="str">
-        <f>CONCATENATE("  url: ",configuration!B31)</f>
-        <v xml:space="preserve">  url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
+        <f>CONCATENATE(" url: ",configuration!B31)</f>
+        <v xml:space="preserve"> url: https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="31.2">
       <c r="A19" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -18019,18 +18019,18 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="str">
-        <f>CONCATENATE("  url: ",configuration!B33)</f>
-        <v xml:space="preserve">  url: https://rpi-data.slack.com/messages</v>
+        <f>CONCATENATE(" url: ",configuration!B33)</f>
+        <v xml:space="preserve"> url: https://rpi-data.slack.com/messages</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -18052,7 +18052,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="62.4">
       <c r="A1" s="14" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -18133,12 +18133,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" ht="31.2">
       <c r="A1" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -18146,7 +18146,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/course-intro-ml-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1D128A-9092-4C86-9AA3-CAC347E26DE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A97982-2E85-5B4B-8E97-0C0B3B3506E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,8 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
     <sheet name="AcademicCalendar" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mi8Kq5VhnzXrZ96MCzybU4eJ6youw=="/>
     </ext>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="753">
   <si>
     <t>courseid</t>
   </si>
@@ -2078,12 +2073,6 @@
   </si>
   <si>
     <t>Days for Assignment:</t>
-  </si>
-  <si>
-    <t>Course ID:</t>
-  </si>
-  <si>
-    <t>General class info</t>
   </si>
   <si>
     <t>Site settings</t>
@@ -2284,9 +2273,6 @@
   </si>
   <si>
     <t>TA:</t>
-  </si>
-  <si>
-    <t>Course name:</t>
   </si>
   <si>
     <t>Pittsburgh 4108</t>
@@ -2469,6 +2455,15 @@
 - jekyll-scholar
 # Jupyter Book version - DO NOT CHANGE THIS. It is generated when a new book is created
 jupyter_book_version: 0.5.1</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>coursename</t>
   </si>
 </sst>
 </file>
@@ -3014,25 +3009,27 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="17" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1" s="30"/>
+        <v>750</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1</v>
@@ -3040,10 +3037,10 @@
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
@@ -3056,66 +3053,66 @@
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>734</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3124,38 +3121,38 @@
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3164,13 +3161,13 @@
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>24</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>24</v>
@@ -3186,46 +3183,46 @@
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>695</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
@@ -3235,55 +3232,55 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3308,23 +3305,23 @@
       <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.6484375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" customWidth="1"/>
-    <col min="4" max="4" width="5.94921875" customWidth="1"/>
-    <col min="5" max="5" width="24.1484375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="38.6484375" customWidth="1"/>
-    <col min="7" max="7" width="36.34765625" customWidth="1"/>
-    <col min="8" max="8" width="51.1484375" customWidth="1"/>
-    <col min="9" max="9" width="64.94921875" customWidth="1"/>
-    <col min="10" max="10" width="14.6484375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="41.34765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" customWidth="1"/>
+    <col min="9" max="9" width="65" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="41.33203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="101.1484375" customWidth="1"/>
+    <col min="13" max="13" width="101.1640625" customWidth="1"/>
     <col min="14" max="15" width="47.5" customWidth="1"/>
-    <col min="16" max="16" width="128.1484375" customWidth="1"/>
+    <col min="16" max="16" width="128.1640625" customWidth="1"/>
     <col min="17" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3348,7 +3345,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="23" customFormat="1">
+    <row r="2" spans="1:16" s="23" customFormat="1" ht="17">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -3396,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="202.8">
+    <row r="3" spans="1:16" ht="221">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3420,7 +3417,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="39" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>106</v>
@@ -3442,7 +3439,7 @@
         <v>**Course Overview &amp; Introduction to the Data Science Lifecycle** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session1/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="46.8">
+    <row r="4" spans="1:16" ht="51">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3454,13 +3451,13 @@
         <v>43710</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J4" s="6"/>
       <c r="M4" s="8" t="str">
@@ -3476,7 +3473,7 @@
         <v xml:space="preserve">**Labor Day - no classes (Tuesday follows Monday schedule)** &lt;br&gt; </v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="327.60000000000002">
+    <row r="5" spans="1:16" ht="356">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>659</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>107</v>
@@ -3531,7 +3528,7 @@
         <v>**Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session2/) &lt;br&gt; *Assignment 1 Due 09/17* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3555,7 +3552,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J6" s="6"/>
       <c r="M6" s="8" t="str">
@@ -3575,7 +3572,7 @@
         <v>**Python Basics** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session3/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="280.8">
+    <row r="7" spans="1:16" ht="306">
       <c r="A7">
         <f>A4+1</f>
         <v>3</v>
@@ -3602,7 +3599,7 @@
         <v>660</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3623,7 +3620,7 @@
         <v>**Python conditionals, loops, functions, aggregating.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session4/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="46.8">
+    <row r="8" spans="1:16" ht="51">
       <c r="A8">
         <f t="shared" ref="A8:A13" si="3">A6+1</f>
         <v>3</v>
@@ -3648,7 +3645,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J8" s="6"/>
       <c r="L8">
@@ -3671,7 +3668,7 @@
         <v>**Python conditionals, loops, functions, aggregating (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session5/) &lt;br&gt; *Assignment 2 Due 09/26* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="280.8">
+    <row r="9" spans="1:16" ht="306">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3698,7 +3695,7 @@
         <v>661</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J9" s="6"/>
       <c r="M9" s="8" t="str">
@@ -3718,7 +3715,7 @@
         <v>**Python visualization, data manipulation , and feature creation.** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session6/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="46.8">
+    <row r="10" spans="1:16" ht="51">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3743,7 +3740,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J10" s="6"/>
       <c r="L10">
@@ -3766,7 +3763,7 @@
         <v>**Python visualization, data manipulation , and feature creation (continued)** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session7/) &lt;br&gt; *Assignment 3 Due 10/03* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="218.4">
+    <row r="11" spans="1:16" ht="238">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3793,7 +3790,7 @@
         <v>662</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J11" s="6"/>
       <c r="M11" s="8" t="str">
@@ -3813,7 +3810,7 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session8/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="343.2">
+    <row r="12" spans="1:16" ht="372">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3838,7 +3835,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J12" s="6"/>
       <c r="L12">
@@ -3861,7 +3858,7 @@
         <v>**Visualization with Tableau** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session9/) &lt;br&gt; *Assignment 4 Due 10/10* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="78">
+    <row r="13" spans="1:16" ht="85">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3906,7 +3903,7 @@
         <v>**Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session10/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="17">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>**Introduction to R** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session11/) &lt;br&gt; *Assignment 5 Due 10/17* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="280.8">
+    <row r="15" spans="1:16" ht="306">
       <c r="A15">
         <f>A13+1</f>
         <v>7</v>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="20" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3997,7 +3994,7 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session12/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="140.4">
+    <row r="16" spans="1:16" ht="153">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4021,7 +4018,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J16" s="6"/>
       <c r="L16">
@@ -4044,7 +4041,7 @@
         <v>**Overview of Modeling** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session13/) &lt;br&gt; *Assignment 6 Due 10/24* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.2">
+    <row r="17" spans="1:16" ht="34">
       <c r="A17">
         <f>A15+1</f>
         <v>8</v>
@@ -4085,7 +4082,7 @@
         <v>**Review/Kaggle Project Introduction** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session14/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="93.6">
+    <row r="18" spans="1:16" ht="119">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -4106,7 +4103,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J18" s="6"/>
       <c r="L18">
@@ -4129,7 +4126,7 @@
         <v>**Midterm** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session15/) &lt;br&gt; *Assignment 7 Due 10/31* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="46.8">
+    <row r="19" spans="1:16" ht="51">
       <c r="A19">
         <f t="shared" ref="A19:A32" si="5">A17+1</f>
         <v>9</v>
@@ -4154,7 +4151,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J19" s="6"/>
       <c r="M19" s="8" t="str">
@@ -4174,7 +4171,7 @@
         <v>**Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session16/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="17">
       <c r="A20">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -4199,7 +4196,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4220,7 +4217,7 @@
         <v>**Classification** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session17/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="31.2">
+    <row r="21" spans="1:16" ht="34">
       <c r="A21">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -4245,7 +4242,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4266,7 +4263,7 @@
         <v>**Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session18/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="17">
       <c r="A22">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -4291,7 +4288,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J22" s="6"/>
       <c r="M22" s="8" t="str">
@@ -4311,7 +4308,7 @@
         <v>**Regression** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session19/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="187.2">
+    <row r="23" spans="1:16" ht="204">
       <c r="A23">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -4338,7 +4335,7 @@
         <v>666</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J23" s="6"/>
       <c r="M23" s="8" t="str">
@@ -4358,7 +4355,7 @@
         <v>**Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session20/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="17">
       <c r="A24">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -4383,7 +4380,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J24" s="6"/>
       <c r="M24" s="8" t="str">
@@ -4403,7 +4400,7 @@
         <v>**Text and NLP** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session21/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="31.2">
+    <row r="25" spans="1:16" ht="51">
       <c r="A25">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -4428,7 +4425,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -4452,7 +4449,7 @@
         <v>**Introduction to Big Data** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session22/) &lt;br&gt; *Assignment 8 Due 11/25* &lt;br&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="140.4">
+    <row r="26" spans="1:16" ht="153">
       <c r="A26">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -4479,7 +4476,7 @@
         <v>667</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -4500,7 +4497,7 @@
         <v>**Time Series Analysis** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session23/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="78">
+    <row r="27" spans="1:16" ht="85">
       <c r="A27">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -4525,7 +4522,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -4546,7 +4543,7 @@
         <v>**Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session24/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="31.2">
+    <row r="28" spans="1:16" ht="34">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -4571,7 +4568,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J28" s="6"/>
       <c r="M28" s="8" t="str">
@@ -4591,7 +4588,7 @@
         <v>**Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.2">
+    <row r="29" spans="1:16" ht="34">
       <c r="A29">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -4616,7 +4613,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J29" s="6"/>
       <c r="M29" s="8" t="str">
@@ -4636,7 +4633,7 @@
         <v>**Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="17">
       <c r="A30">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -4655,7 +4652,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J30" s="6"/>
       <c r="M30" s="8" t="str">
@@ -4675,7 +4672,7 @@
         <v>**Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="17">
       <c r="A31">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4699,7 +4696,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J31" s="6"/>
       <c r="M31" s="8" t="str">
@@ -4719,7 +4716,7 @@
         <v>**Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="17">
       <c r="A32">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4742,7 +4739,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J32" s="6"/>
       <c r="M32" s="8" t="str">
@@ -4762,7 +4759,7 @@
         <v>**Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="17">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -4784,7 +4781,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J33" s="6"/>
       <c r="M33" s="8" t="str">
@@ -4804,7 +4801,7 @@
         <v>**Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="17">
       <c r="A34">
         <v>17</v>
       </c>
@@ -4821,7 +4818,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J34" s="6"/>
       <c r="M34" s="8" t="e">
@@ -17801,18 +17798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="89.34765625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="284.10000000000002" customHeight="1">
+    <row r="1" spans="1:1" ht="284" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17835,10 +17832,10 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="46.8">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="51">
       <c r="A6" s="38" t="str">
         <f>CONCATENATE(" ",configuration!B15,"
 ")</f>
@@ -17858,9 +17855,9 @@
         <v xml:space="preserve">baseurl: https://rpi-data.github.io  </v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="109.2">
+    <row r="9" spans="1:1" ht="136">
       <c r="A9" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17877,7 +17874,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -17886,9 +17883,9 @@
         <v>number_toc_chapters: false</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="409.5">
+    <row r="14" spans="1:1" ht="409.6">
       <c r="A14" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -17904,14 +17901,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="97.34765625" customWidth="1"/>
+    <col min="1" max="1" width="97.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="378.9" customHeight="1">
+    <row r="1" spans="1:1" ht="379" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17928,17 +17925,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="31.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="34">
       <c r="A5" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -17947,14 +17944,14 @@
         <v xml:space="preserve"> search: true</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="280.8">
+    <row r="8" spans="1:1" ht="306">
       <c r="A8" s="14" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="78">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="85">
       <c r="A9" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -17971,17 +17968,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="31.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="34">
       <c r="A14" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -17998,17 +17995,17 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="31.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34">
       <c r="A19" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -18025,12 +18022,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -18045,14 +18042,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="53.59765625" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="62.4">
+    <row r="1" spans="1:1" ht="68">
       <c r="A1" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -18080,7 +18077,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1"/>
-    <row r="7" spans="1:1" ht="15.3" customHeight="1">
+    <row r="7" spans="1:1" ht="15.25" customHeight="1">
       <c r="A7" s="8" t="str">
         <f>CONCATENATE("
 ## ",configuration!B9," (TA)")</f>
@@ -18126,19 +18123,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="101.84765625" customWidth="1"/>
+    <col min="1" max="1" width="101.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="31.2">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="34">
       <c r="A1" s="14" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -18146,7 +18143,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -18307,37 +18304,37 @@
         <v>| 13 | 25 | Th | 11/21 | **Image Data and Deep Learning** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session25/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6">
+    <row r="30" spans="1:1" ht="16">
       <c r="A30" s="8" t="str">
         <f>CONCATENATE("| ",data!A29," | ",data!B29," | ",data!C29," | ",TEXT(data!D29,"mm/dd")," | ",data!P29," | ",data!I29," |")</f>
         <v>| 14 | 26 | M | 11/25 | **Automl and Modeling Packages** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session26/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6">
+    <row r="31" spans="1:1" ht="16">
       <c r="A31" s="8" t="str">
         <f>CONCATENATE("| ",data!A30," | ",data!B30," | ",data!C30," | ",TEXT(data!D30,"mm/dd")," | ",data!P30," | ",data!I30," |")</f>
         <v>| 14 |  | Th | 11/28 | **Thanksgiving** &lt;br&gt;  &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6">
+    <row r="32" spans="1:1" ht="16">
       <c r="A32" s="8" t="str">
         <f>CONCATENATE("| ",data!A31," | ",data!B31," | ",data!C31," | ",TEXT(data!D31,"mm/dd")," | ",data!P31," | ",data!I31," |")</f>
         <v>| 15 | 27 | M | 12/02 | **Automl and Model Search** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session27/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6">
+    <row r="33" spans="1:1" ht="16">
       <c r="A33" s="8" t="str">
         <f>CONCATENATE("| ",data!A32," | ",data!B32," | ",data!C32," | ",TEXT(data!D32,"mm/dd")," | ",data!P32," | ",data!I32," |")</f>
         <v>| 15 | 28 | Th | 12/05 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session28/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.6">
+    <row r="34" spans="1:1" ht="16">
       <c r="A34" s="8" t="str">
         <f>CONCATENATE("| ",data!A33," | ",data!B33," | ",data!C33," | ",TEXT(data!D33,"mm/dd")," | ",data!P33," | ",data!I33," |")</f>
         <v>| 16 | 29 | M | 12/09 | **Final Presentations** &lt;br&gt; [more](/MGMT6560-fa19/sessions/session29/) &lt;br&gt; ** &lt;br&gt; | - - - |</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6">
+    <row r="35" spans="1:1" ht="16">
       <c r="A35" s="8" t="e">
         <f>CONCATENATE("| ",data!A34," | ",data!B34," | ",data!C34," | ",TEXT(data!D34,"mm/dd")," | ",data!P34," | ",data!I34," |")</f>
         <v>#REF!</v>
@@ -18359,16 +18356,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="75.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="8" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41.84765625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="11.1484375" style="6"/>
+    <col min="3" max="3" width="47.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>20</v>
@@ -18427,7 +18424,7 @@
 - Be able to use the colab computing environment.</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48.9" customHeight="1"/>
+    <row r="3" spans="1:4" ht="49" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18441,9 +18438,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="42.84765625" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -39715,7 +39712,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE9AB6-29C8-4A57-815E-E89D2C9AE7F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C673B-7A29-4F6B-95B9-D809C2BA2604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="758">
   <si>
     <t>MGMT6560-fa19</t>
   </si>
@@ -2311,25 +2311,13 @@
     <t>Landing page description:</t>
   </si>
   <si>
-    <t>divider:</t>
-  </si>
-  <si>
     <t>search:</t>
   </si>
   <si>
-    <t>- title:</t>
-  </si>
-  <si>
     <t>not_numbered:</t>
   </si>
   <si>
-    <t>/index</t>
-  </si>
-  <si>
     <t>url:</t>
-  </si>
-  <si>
-    <t>Home</t>
   </si>
   <si>
     <t>The [Schedule](https://rpi-data.github.io/course-intro-ml-app/schedule.html) for the course.
@@ -2346,6 +2334,30 @@
   </si>
   <si>
     <t>=configuration!B14</t>
+  </si>
+  <si>
+    <t>external:</t>
+  </si>
+  <si>
+    <t>title:</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>baseurl</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2560,6 +2572,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2567,8 +2582,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2889,8 +2904,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15" customHeight="1"/>
@@ -3005,23 +3020,23 @@
       <c r="A14" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="99" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>743</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>751</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1"/>
@@ -3155,7 +3170,7 @@
       <c r="A32" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>678</v>
       </c>
     </row>
@@ -3171,7 +3186,7 @@
       <c r="A34" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>679</v>
       </c>
     </row>
@@ -3187,7 +3202,7 @@
       <c r="A36" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>680</v>
       </c>
     </row>
@@ -3200,9 +3215,12 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{042009D7-9FD9-483E-8B74-03E32AAD5484}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{69EC54D9-7D43-492D-9D92-266E9DF0F5C0}"/>
     <hyperlink ref="B12" r:id="rId3" xr:uid="{CE8243A2-6234-41E5-8DB9-AB660C9B9DAD}"/>
+    <hyperlink ref="B36" r:id="rId4" xr:uid="{51B2D1FD-2C81-4C95-9DFD-0AACC3F1B2EF}"/>
+    <hyperlink ref="B34" r:id="rId5" location="recent=true" xr:uid="{1DF8FC81-1E99-4855-8529-7226CC41AC58}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{4BB445A6-0E2F-4B11-A87B-D3AD30B9BD77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -38962,15 +38980,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
-  <dimension ref="A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="8.796875" style="43"/>
+  </cols>
   <sheetData>
-    <row r="5" s="8" customFormat="1"/>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="43" t="str">
+        <f>configuration!B2</f>
+        <v>MGMT6560-fa19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="30" t="str">
+        <f>configuration!B7</f>
+        <v>Jason Kuruzovich</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" s="30" t="str">
+        <f>configuration!B8</f>
+        <v>kuruzj@rpi.edu</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" s="30" t="str">
+        <f>configuration!B18</f>
+        <v>Welcome to Technology Fundamentals for Business Analytics. We are going to familiarize you with all phases of the data science lifecycle and a wide variety of the technologies used.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="8" customFormat="1">
+      <c r="A5" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5" s="30" t="str">
+        <f>configuration!B19</f>
+        <v xml:space="preserve">/course-intro-ml-app  </v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B6" s="30" t="str">
+        <f>configuration!B20</f>
+        <v xml:space="preserve">https://rpi-data.github.io  </v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38978,61 +39052,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D008F881-5C6F-4157-A868-DE4C1A16983B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14.44921875" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="43"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="38" t="str">
+        <f>configuration!B23</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" s="43" t="str">
+        <f>configuration!B31</f>
+        <v>GitHub Repository</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B3" s="30" t="str">
+        <f>configuration!B32</f>
+        <v>https://github.com/RPI-DATA/jupyter-book</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="8" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="40" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="43" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="B6" s="30" t="str">
+        <f>configuration!B33</f>
+        <v>Colab</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="B7" s="30" t="str">
+        <f>configuration!B34</f>
+        <v>https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="B6" s="40"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="40" t="s">
-        <v>744</v>
-      </c>
-      <c r="B8" s="40"/>
+      <c r="B9" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <f>configuration!B35</f>
+        <v>Slack</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="30" t="str">
+        <f>configuration!B36</f>
+        <v>https://rpi-data.slack.com/messages</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39054,7 +39195,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="78">
       <c r="A1" s="34" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -39154,7 +39295,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="30" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -39528,10 +39669,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="41">
         <v>43709</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="10">
@@ -39574,10 +39715,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="38">
+      <c r="A11" s="41">
         <v>43739</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="10">
@@ -39628,10 +39769,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="38">
+      <c r="A18" s="41">
         <v>43770</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="42"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -39698,10 +39839,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="38">
+      <c r="A27" s="41">
         <v>43800</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="10">
@@ -39784,10 +39925,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="38">
+      <c r="A38" s="41">
         <v>43831</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="42"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="12" t="s">
@@ -39838,10 +39979,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="38">
+      <c r="A45" s="41">
         <v>43862</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="42"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="10">
@@ -39868,10 +40009,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="38">
+      <c r="A49" s="41">
         <v>43891</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="42"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="10">
@@ -39946,10 +40087,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="38">
+      <c r="A59" s="41">
         <v>43922</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="42"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="10">
@@ -39992,10 +40133,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="38">
+      <c r="A65" s="41">
         <v>43952</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="42"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="12" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjgar\Documents\RPI\clubs and activities\Metallography\course-intro-ml-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9404C92-5A4A-4857-805D-A43D8C0E4838}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A180931-1F22-4960-B258-D4D39CAB7867}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="763">
   <si>
     <t>MGMT6560-fa19</t>
   </si>
@@ -2307,15 +2307,6 @@
     <t>Landing page description:</t>
   </si>
   <si>
-    <t>search:</t>
-  </si>
-  <si>
-    <t>not_numbered:</t>
-  </si>
-  <si>
-    <t>url:</t>
-  </si>
-  <si>
     <t>The [Schedule](https://rpi-data.github.io/course-intro-ml-app/schedule.html) for the course.
 The [Course Materials](https://github.com/rpi-techfundamentals/spring2019-materials), including all data and Jupyter notebooks.
 The [LMS](https://lms.rpi.edu/) will be used for submissions of projects.
@@ -2332,12 +2323,6 @@
     <t>=configuration!B14</t>
   </si>
   <si>
-    <t>external:</t>
-  </si>
-  <si>
-    <t>title:</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -2360,6 +2345,36 @@
   </si>
   <si>
     <t>/course-intro-ml-app</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>not_numbered</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>/index</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Contact Info</t>
+  </si>
+  <si>
+    <t>/contact</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>/schedule</t>
+  </si>
+  <si>
+    <t>/session_01</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2576,7 +2591,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3035,23 +3049,23 @@
       <c r="A14" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" ht="99" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>741</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>745</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1"/>
@@ -3076,7 +3090,7 @@
         <v>684</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>685</v>
@@ -3087,7 +3101,7 @@
         <v>683</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>686</v>
@@ -3372,10 +3386,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>43709</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="8">
@@ -3418,10 +3432,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>43739</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="8">
@@ -3472,10 +3486,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>43770</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
@@ -3542,10 +3556,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="41">
+      <c r="A27" s="40">
         <v>43800</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="8">
@@ -3628,10 +3642,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="41">
+      <c r="A38" s="40">
         <v>43831</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
@@ -3682,10 +3696,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="41">
+      <c r="A45" s="40">
         <v>43862</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="41"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="8">
@@ -3712,10 +3726,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="40">
         <v>43891</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="8">
@@ -3790,10 +3804,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="41">
+      <c r="A59" s="40">
         <v>43922</v>
       </c>
-      <c r="B59" s="42"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="8">
@@ -3836,10 +3850,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="41">
+      <c r="A65" s="40">
         <v>43952</v>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="s">
@@ -26205,15 +26219,15 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.546875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="4.546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="5.94921875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="4.546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="4.546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="5.94921875" style="44" customWidth="1"/>
     <col min="5" max="5" width="24.1484375" style="4" customWidth="1"/>
     <col min="6" max="6" width="38.6484375" customWidth="1"/>
     <col min="7" max="7" width="36.34765625" customWidth="1"/>
@@ -26229,16 +26243,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -26277,16 +26291,16 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="202.8">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47">
-        <v>1</v>
-      </c>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="43">
         <v>43706</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -26323,13 +26337,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="46.8">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <f>D2+4</f>
         <v>43710</v>
       </c>
@@ -26357,17 +26371,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="327.60000000000002">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>43711</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -26412,17 +26426,17 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <f t="shared" ref="B5:B28" si="1">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <f t="shared" ref="D5:D6" si="2">D2+7</f>
         <v>43713</v>
       </c>
@@ -26456,18 +26470,18 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="280.8">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <f t="shared" si="2"/>
         <v>43717</v>
       </c>
@@ -26504,18 +26518,18 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="46.8">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" ref="A7:A12" si="3">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <f t="shared" ref="D7:D32" si="4">D5+7</f>
         <v>43720</v>
       </c>
@@ -26552,18 +26566,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="280.8">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <f t="shared" si="4"/>
         <v>43724</v>
       </c>
@@ -26599,18 +26613,18 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="46.8">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <f t="shared" si="4"/>
         <v>43727</v>
       </c>
@@ -26647,18 +26661,18 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="218.4">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <f t="shared" si="4"/>
         <v>43731</v>
       </c>
@@ -26694,18 +26708,18 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="343.2">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <f t="shared" si="4"/>
         <v>43734</v>
       </c>
@@ -26742,18 +26756,18 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="78">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <f t="shared" si="4"/>
         <v>43738</v>
       </c>
@@ -26787,17 +26801,17 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>6</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <f t="shared" si="4"/>
         <v>43741</v>
       </c>
@@ -26832,18 +26846,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="280.8">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <f>A12+1</f>
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <f t="shared" si="4"/>
         <v>43745</v>
       </c>
@@ -26878,17 +26892,17 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="140.4">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>7</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="43">
         <f t="shared" si="4"/>
         <v>43748</v>
       </c>
@@ -26925,18 +26939,18 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="31.2">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <f>A14+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <f t="shared" si="4"/>
         <v>43752</v>
       </c>
@@ -26966,17 +26980,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="93.6">
-      <c r="A17" s="47">
+      <c r="A17" s="46">
         <v>8</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="44">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <f t="shared" si="4"/>
         <v>43755</v>
       </c>
@@ -27010,18 +27024,18 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="46.8">
-      <c r="A18" s="45">
+      <c r="A18" s="44">
         <f t="shared" ref="A18:A31" si="5">A16+1</f>
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="44">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <f t="shared" si="4"/>
         <v>43759</v>
       </c>
@@ -27055,18 +27069,18 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="45">
+      <c r="A19" s="44">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="44">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="43">
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
@@ -27101,18 +27115,18 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="31.2">
-      <c r="A20" s="45">
+      <c r="A20" s="44">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="43">
         <f t="shared" si="4"/>
         <v>43766</v>
       </c>
@@ -27147,18 +27161,18 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="45">
+      <c r="A21" s="44">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="44">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="43">
         <f t="shared" si="4"/>
         <v>43769</v>
       </c>
@@ -27192,18 +27206,18 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="187.2">
-      <c r="A22" s="45">
+      <c r="A22" s="44">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="44">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="43">
         <f t="shared" si="4"/>
         <v>43773</v>
       </c>
@@ -27239,18 +27253,18 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="45">
+      <c r="A23" s="44">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="43">
         <f t="shared" si="4"/>
         <v>43776</v>
       </c>
@@ -27284,18 +27298,18 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="31.2">
-      <c r="A24" s="45">
+      <c r="A24" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="44">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="43">
         <f t="shared" si="4"/>
         <v>43780</v>
       </c>
@@ -27333,18 +27347,18 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="140.4">
-      <c r="A25" s="45">
+      <c r="A25" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="44">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="4"/>
         <v>43783</v>
       </c>
@@ -27381,18 +27395,18 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="78">
-      <c r="A26" s="45">
+      <c r="A26" s="44">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="43">
         <f t="shared" si="4"/>
         <v>43787</v>
       </c>
@@ -27427,18 +27441,18 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="31.2">
-      <c r="A27" s="45">
+      <c r="A27" s="44">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="44">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="43">
         <f t="shared" si="4"/>
         <v>43790</v>
       </c>
@@ -27472,18 +27486,18 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="31.2">
-      <c r="A28" s="45">
+      <c r="A28" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="44">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="43">
         <f t="shared" si="4"/>
         <v>43794</v>
       </c>
@@ -27517,14 +27531,14 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="45">
+      <c r="A29" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="43">
         <f t="shared" si="4"/>
         <v>43797</v>
       </c>
@@ -27556,17 +27570,17 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="45">
+      <c r="A30" s="44">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="46">
         <v>27</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="43">
         <f t="shared" si="4"/>
         <v>43801</v>
       </c>
@@ -27600,18 +27614,18 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="45">
+      <c r="A31" s="44">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="44">
         <f t="shared" ref="B31:B32" si="7">B30+1</f>
         <v>28</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="43">
         <f t="shared" si="4"/>
         <v>43804</v>
       </c>
@@ -27643,17 +27657,17 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="47">
+      <c r="A32" s="46">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="44">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="43">
         <f t="shared" si="4"/>
         <v>43808</v>
       </c>
@@ -27685,13 +27699,13 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="45">
+      <c r="A33" s="44">
         <v>17</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="44" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -27722,7 +27736,7 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -27742,7 +27756,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -27762,7 +27776,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="D36" s="44"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -27779,7 +27793,7 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="D37" s="44"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -27794,7 +27808,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="D38" s="44"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -27808,7 +27822,7 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="D39" s="44"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -27822,7 +27836,7 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="D40" s="44"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -27836,7 +27850,7 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="D41" s="44"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -27850,7 +27864,7 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -27864,7 +27878,7 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="D43" s="44"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -27878,7 +27892,7 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="D44" s="44"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -27892,7 +27906,7 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="D45" s="44"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -27906,7 +27920,7 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="D46" s="44"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -27920,7 +27934,7 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="D47" s="44"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -27934,7 +27948,7 @@
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="D48" s="44"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -27948,7 +27962,7 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="4:15">
-      <c r="D49" s="44"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -27962,7 +27976,7 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="4:15">
-      <c r="D50" s="44"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -27976,7 +27990,7 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="4:15">
-      <c r="D51" s="44"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -27990,7 +28004,7 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="4:15">
-      <c r="D52" s="44"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -28004,7 +28018,7 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="4:15">
-      <c r="D53" s="44"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -28018,7 +28032,7 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="4:15">
-      <c r="D54" s="44"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -28032,7 +28046,7 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="4:15">
-      <c r="D55" s="44"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -28046,7 +28060,7 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="4:15">
-      <c r="D56" s="44"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -28060,7 +28074,7 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="4:15">
-      <c r="D57" s="44"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -28074,7 +28088,7 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="44"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -28088,7 +28102,7 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="44"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -28102,7 +28116,7 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="44"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -28116,7 +28130,7 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="44"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -28130,7 +28144,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="44"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -28144,7 +28158,7 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="44"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -28158,7 +28172,7 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="44"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -28172,7 +28186,7 @@
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="44"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -28186,7 +28200,7 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="44"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -28200,7 +28214,7 @@
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="44"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -28214,7 +28228,7 @@
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="44"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -28228,7 +28242,7 @@
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="44"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -28242,7 +28256,7 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="44"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -28256,7 +28270,7 @@
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="44"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -28270,7 +28284,7 @@
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="4:15">
-      <c r="D72" s="44"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -28284,7 +28298,7 @@
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="4:15">
-      <c r="D73" s="44"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -28298,7 +28312,7 @@
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="4:15">
-      <c r="D74" s="44"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -28312,7 +28326,7 @@
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="4:15">
-      <c r="D75" s="44"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -28326,7 +28340,7 @@
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="4:15">
-      <c r="D76" s="44"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -28340,7 +28354,7 @@
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="4:15">
-      <c r="D77" s="44"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -28354,7 +28368,7 @@
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="4:15">
-      <c r="D78" s="44"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -28368,7 +28382,7 @@
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="4:15">
-      <c r="D79" s="44"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -28382,7 +28396,7 @@
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="4:15">
-      <c r="D80" s="44"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -28396,7 +28410,7 @@
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="4:15">
-      <c r="D81" s="44"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -28410,7 +28424,7 @@
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="4:15">
-      <c r="D82" s="44"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -28424,7 +28438,7 @@
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="4:15">
-      <c r="D83" s="44"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -28438,7 +28452,7 @@
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="4:15">
-      <c r="D84" s="44"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -28452,7 +28466,7 @@
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="4:15">
-      <c r="D85" s="44"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -28466,7 +28480,7 @@
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="4:15">
-      <c r="D86" s="44"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -28480,7 +28494,7 @@
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="4:15">
-      <c r="D87" s="44"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -28494,7 +28508,7 @@
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="4:15">
-      <c r="D88" s="44"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -28508,7 +28522,7 @@
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="4:15">
-      <c r="D89" s="44"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -28522,7 +28536,7 @@
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="4:15">
-      <c r="D90" s="44"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -28536,7 +28550,7 @@
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="4:15">
-      <c r="D91" s="44"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -28550,7 +28564,7 @@
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="4:15">
-      <c r="D92" s="44"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -28564,7 +28578,7 @@
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="4:15">
-      <c r="D93" s="44"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -28578,7 +28592,7 @@
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="4:15">
-      <c r="D94" s="44"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -28592,7 +28606,7 @@
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="4:15">
-      <c r="D95" s="44"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -28606,7 +28620,7 @@
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="4:15">
-      <c r="D96" s="44"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -28620,7 +28634,7 @@
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="4:15">
-      <c r="D97" s="44"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -28634,7 +28648,7 @@
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="4:15">
-      <c r="D98" s="44"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -28648,7 +28662,7 @@
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="4:15">
-      <c r="D99" s="44"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -28662,7 +28676,7 @@
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="4:15">
-      <c r="D100" s="44"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -28676,7 +28690,7 @@
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="4:15">
-      <c r="D101" s="44"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -28690,7 +28704,7 @@
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="4:15">
-      <c r="D102" s="44"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -28704,7 +28718,7 @@
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="4:15">
-      <c r="D103" s="44"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -28718,7 +28732,7 @@
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="4:15">
-      <c r="D104" s="44"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -28732,7 +28746,7 @@
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="4:15">
-      <c r="D105" s="44"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -28746,7 +28760,7 @@
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="4:15">
-      <c r="D106" s="44"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -28760,7 +28774,7 @@
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="4:15">
-      <c r="D107" s="44"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -28774,7 +28788,7 @@
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="4:15">
-      <c r="D108" s="44"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -28788,7 +28802,7 @@
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="4:15">
-      <c r="D109" s="44"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -28802,7 +28816,7 @@
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="4:15">
-      <c r="D110" s="44"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -28816,7 +28830,7 @@
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="4:15">
-      <c r="D111" s="44"/>
+      <c r="D111" s="43"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -28830,7 +28844,7 @@
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="4:15">
-      <c r="D112" s="44"/>
+      <c r="D112" s="43"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -28844,7 +28858,7 @@
       <c r="O112" s="2"/>
     </row>
     <row r="113" spans="4:15">
-      <c r="D113" s="44"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -28858,7 +28872,7 @@
       <c r="O113" s="2"/>
     </row>
     <row r="114" spans="4:15">
-      <c r="D114" s="44"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -28872,7 +28886,7 @@
       <c r="O114" s="2"/>
     </row>
     <row r="115" spans="4:15">
-      <c r="D115" s="44"/>
+      <c r="D115" s="43"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -28886,7 +28900,7 @@
       <c r="O115" s="2"/>
     </row>
     <row r="116" spans="4:15">
-      <c r="D116" s="44"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -28900,7 +28914,7 @@
       <c r="O116" s="2"/>
     </row>
     <row r="117" spans="4:15">
-      <c r="D117" s="44"/>
+      <c r="D117" s="43"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -28914,7 +28928,7 @@
       <c r="O117" s="2"/>
     </row>
     <row r="118" spans="4:15">
-      <c r="D118" s="44"/>
+      <c r="D118" s="43"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -28928,7 +28942,7 @@
       <c r="O118" s="2"/>
     </row>
     <row r="119" spans="4:15">
-      <c r="D119" s="44"/>
+      <c r="D119" s="43"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -28942,7 +28956,7 @@
       <c r="O119" s="2"/>
     </row>
     <row r="120" spans="4:15">
-      <c r="D120" s="44"/>
+      <c r="D120" s="43"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -28956,7 +28970,7 @@
       <c r="O120" s="2"/>
     </row>
     <row r="121" spans="4:15">
-      <c r="D121" s="44"/>
+      <c r="D121" s="43"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -28970,7 +28984,7 @@
       <c r="O121" s="2"/>
     </row>
     <row r="122" spans="4:15">
-      <c r="D122" s="44"/>
+      <c r="D122" s="43"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -28984,7 +28998,7 @@
       <c r="O122" s="2"/>
     </row>
     <row r="123" spans="4:15">
-      <c r="D123" s="44"/>
+      <c r="D123" s="43"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -28998,7 +29012,7 @@
       <c r="O123" s="2"/>
     </row>
     <row r="124" spans="4:15">
-      <c r="D124" s="44"/>
+      <c r="D124" s="43"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -29012,7 +29026,7 @@
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="4:15">
-      <c r="D125" s="44"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -29026,7 +29040,7 @@
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="4:15">
-      <c r="D126" s="44"/>
+      <c r="D126" s="43"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -29040,7 +29054,7 @@
       <c r="O126" s="2"/>
     </row>
     <row r="127" spans="4:15">
-      <c r="D127" s="44"/>
+      <c r="D127" s="43"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -29054,7 +29068,7 @@
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="4:15">
-      <c r="D128" s="44"/>
+      <c r="D128" s="43"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -29068,7 +29082,7 @@
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="4:15">
-      <c r="D129" s="44"/>
+      <c r="D129" s="43"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -29082,7 +29096,7 @@
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="4:15">
-      <c r="D130" s="44"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -29096,7 +29110,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="4:15">
-      <c r="D131" s="44"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -29110,7 +29124,7 @@
       <c r="O131" s="2"/>
     </row>
     <row r="132" spans="4:15">
-      <c r="D132" s="44"/>
+      <c r="D132" s="43"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -29124,7 +29138,7 @@
       <c r="O132" s="2"/>
     </row>
     <row r="133" spans="4:15">
-      <c r="D133" s="44"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -29138,7 +29152,7 @@
       <c r="O133" s="2"/>
     </row>
     <row r="134" spans="4:15">
-      <c r="D134" s="44"/>
+      <c r="D134" s="43"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -29152,7 +29166,7 @@
       <c r="O134" s="2"/>
     </row>
     <row r="135" spans="4:15">
-      <c r="D135" s="44"/>
+      <c r="D135" s="43"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -29166,7 +29180,7 @@
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="4:15">
-      <c r="D136" s="44"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -29180,7 +29194,7 @@
       <c r="O136" s="2"/>
     </row>
     <row r="137" spans="4:15">
-      <c r="D137" s="44"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -29194,7 +29208,7 @@
       <c r="O137" s="2"/>
     </row>
     <row r="138" spans="4:15">
-      <c r="D138" s="44"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -29208,7 +29222,7 @@
       <c r="O138" s="2"/>
     </row>
     <row r="139" spans="4:15">
-      <c r="D139" s="44"/>
+      <c r="D139" s="43"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -29222,7 +29236,7 @@
       <c r="O139" s="2"/>
     </row>
     <row r="140" spans="4:15">
-      <c r="D140" s="44"/>
+      <c r="D140" s="43"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -29236,7 +29250,7 @@
       <c r="O140" s="2"/>
     </row>
     <row r="141" spans="4:15">
-      <c r="D141" s="44"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -29250,7 +29264,7 @@
       <c r="O141" s="2"/>
     </row>
     <row r="142" spans="4:15">
-      <c r="D142" s="44"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -29264,7 +29278,7 @@
       <c r="O142" s="2"/>
     </row>
     <row r="143" spans="4:15">
-      <c r="D143" s="44"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -29278,7 +29292,7 @@
       <c r="O143" s="2"/>
     </row>
     <row r="144" spans="4:15">
-      <c r="D144" s="44"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -29292,7 +29306,7 @@
       <c r="O144" s="2"/>
     </row>
     <row r="145" spans="4:15">
-      <c r="D145" s="44"/>
+      <c r="D145" s="43"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -29306,7 +29320,7 @@
       <c r="O145" s="2"/>
     </row>
     <row r="146" spans="4:15">
-      <c r="D146" s="44"/>
+      <c r="D146" s="43"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -29320,7 +29334,7 @@
       <c r="O146" s="2"/>
     </row>
     <row r="147" spans="4:15">
-      <c r="D147" s="44"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -29334,7 +29348,7 @@
       <c r="O147" s="2"/>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="44"/>
+      <c r="D148" s="43"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -29348,7 +29362,7 @@
       <c r="O148" s="2"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="44"/>
+      <c r="D149" s="43"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -29362,7 +29376,7 @@
       <c r="O149" s="2"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="44"/>
+      <c r="D150" s="43"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -29376,7 +29390,7 @@
       <c r="O150" s="2"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="44"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -29390,7 +29404,7 @@
       <c r="O151" s="2"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="44"/>
+      <c r="D152" s="43"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -29404,7 +29418,7 @@
       <c r="O152" s="2"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="44"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -29418,7 +29432,7 @@
       <c r="O153" s="2"/>
     </row>
     <row r="154" spans="4:15">
-      <c r="D154" s="44"/>
+      <c r="D154" s="43"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -29432,7 +29446,7 @@
       <c r="O154" s="2"/>
     </row>
     <row r="155" spans="4:15">
-      <c r="D155" s="44"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -29446,7 +29460,7 @@
       <c r="O155" s="2"/>
     </row>
     <row r="156" spans="4:15">
-      <c r="D156" s="44"/>
+      <c r="D156" s="43"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -29460,7 +29474,7 @@
       <c r="O156" s="2"/>
     </row>
     <row r="157" spans="4:15">
-      <c r="D157" s="44"/>
+      <c r="D157" s="43"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -29474,7 +29488,7 @@
       <c r="O157" s="2"/>
     </row>
     <row r="158" spans="4:15">
-      <c r="D158" s="44"/>
+      <c r="D158" s="43"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -29488,7 +29502,7 @@
       <c r="O158" s="2"/>
     </row>
     <row r="159" spans="4:15">
-      <c r="D159" s="44"/>
+      <c r="D159" s="43"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -29502,7 +29516,7 @@
       <c r="O159" s="2"/>
     </row>
     <row r="160" spans="4:15">
-      <c r="D160" s="44"/>
+      <c r="D160" s="43"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -29516,7 +29530,7 @@
       <c r="O160" s="2"/>
     </row>
     <row r="161" spans="4:15">
-      <c r="D161" s="44"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -29530,7 +29544,7 @@
       <c r="O161" s="2"/>
     </row>
     <row r="162" spans="4:15">
-      <c r="D162" s="44"/>
+      <c r="D162" s="43"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -29544,7 +29558,7 @@
       <c r="O162" s="2"/>
     </row>
     <row r="163" spans="4:15">
-      <c r="D163" s="44"/>
+      <c r="D163" s="43"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -29558,7 +29572,7 @@
       <c r="O163" s="2"/>
     </row>
     <row r="164" spans="4:15">
-      <c r="D164" s="44"/>
+      <c r="D164" s="43"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -29572,7 +29586,7 @@
       <c r="O164" s="2"/>
     </row>
     <row r="165" spans="4:15">
-      <c r="D165" s="44"/>
+      <c r="D165" s="43"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -29586,7 +29600,7 @@
       <c r="O165" s="2"/>
     </row>
     <row r="166" spans="4:15">
-      <c r="D166" s="44"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -29600,7 +29614,7 @@
       <c r="O166" s="2"/>
     </row>
     <row r="167" spans="4:15">
-      <c r="D167" s="44"/>
+      <c r="D167" s="43"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -29614,7 +29628,7 @@
       <c r="O167" s="2"/>
     </row>
     <row r="168" spans="4:15">
-      <c r="D168" s="44"/>
+      <c r="D168" s="43"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -29628,7 +29642,7 @@
       <c r="O168" s="2"/>
     </row>
     <row r="169" spans="4:15">
-      <c r="D169" s="44"/>
+      <c r="D169" s="43"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -29642,7 +29656,7 @@
       <c r="O169" s="2"/>
     </row>
     <row r="170" spans="4:15">
-      <c r="D170" s="44"/>
+      <c r="D170" s="43"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -29656,7 +29670,7 @@
       <c r="O170" s="2"/>
     </row>
     <row r="171" spans="4:15">
-      <c r="D171" s="44"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -29670,7 +29684,7 @@
       <c r="O171" s="2"/>
     </row>
     <row r="172" spans="4:15">
-      <c r="D172" s="44"/>
+      <c r="D172" s="43"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -29684,7 +29698,7 @@
       <c r="O172" s="2"/>
     </row>
     <row r="173" spans="4:15">
-      <c r="D173" s="44"/>
+      <c r="D173" s="43"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -29698,7 +29712,7 @@
       <c r="O173" s="2"/>
     </row>
     <row r="174" spans="4:15">
-      <c r="D174" s="44"/>
+      <c r="D174" s="43"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -29712,7 +29726,7 @@
       <c r="O174" s="2"/>
     </row>
     <row r="175" spans="4:15">
-      <c r="D175" s="44"/>
+      <c r="D175" s="43"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -29726,7 +29740,7 @@
       <c r="O175" s="2"/>
     </row>
     <row r="176" spans="4:15">
-      <c r="D176" s="44"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -29740,7 +29754,7 @@
       <c r="O176" s="2"/>
     </row>
     <row r="177" spans="4:15">
-      <c r="D177" s="44"/>
+      <c r="D177" s="43"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -29754,7 +29768,7 @@
       <c r="O177" s="2"/>
     </row>
     <row r="178" spans="4:15">
-      <c r="D178" s="44"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -29768,7 +29782,7 @@
       <c r="O178" s="2"/>
     </row>
     <row r="179" spans="4:15">
-      <c r="D179" s="44"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -29782,7 +29796,7 @@
       <c r="O179" s="2"/>
     </row>
     <row r="180" spans="4:15">
-      <c r="D180" s="44"/>
+      <c r="D180" s="43"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -29796,7 +29810,7 @@
       <c r="O180" s="2"/>
     </row>
     <row r="181" spans="4:15">
-      <c r="D181" s="44"/>
+      <c r="D181" s="43"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -29810,7 +29824,7 @@
       <c r="O181" s="2"/>
     </row>
     <row r="182" spans="4:15">
-      <c r="D182" s="44"/>
+      <c r="D182" s="43"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -29824,7 +29838,7 @@
       <c r="O182" s="2"/>
     </row>
     <row r="183" spans="4:15">
-      <c r="D183" s="44"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -29838,7 +29852,7 @@
       <c r="O183" s="2"/>
     </row>
     <row r="184" spans="4:15">
-      <c r="D184" s="44"/>
+      <c r="D184" s="43"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -29852,7 +29866,7 @@
       <c r="O184" s="2"/>
     </row>
     <row r="185" spans="4:15">
-      <c r="D185" s="44"/>
+      <c r="D185" s="43"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -29866,7 +29880,7 @@
       <c r="O185" s="2"/>
     </row>
     <row r="186" spans="4:15">
-      <c r="D186" s="44"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -29880,7 +29894,7 @@
       <c r="O186" s="2"/>
     </row>
     <row r="187" spans="4:15">
-      <c r="D187" s="44"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -29894,7 +29908,7 @@
       <c r="O187" s="2"/>
     </row>
     <row r="188" spans="4:15">
-      <c r="D188" s="44"/>
+      <c r="D188" s="43"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -29908,7 +29922,7 @@
       <c r="O188" s="2"/>
     </row>
     <row r="189" spans="4:15">
-      <c r="D189" s="44"/>
+      <c r="D189" s="43"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -29922,7 +29936,7 @@
       <c r="O189" s="2"/>
     </row>
     <row r="190" spans="4:15">
-      <c r="D190" s="44"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -29936,7 +29950,7 @@
       <c r="O190" s="2"/>
     </row>
     <row r="191" spans="4:15">
-      <c r="D191" s="44"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -29950,7 +29964,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="4:15">
-      <c r="D192" s="44"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -29964,7 +29978,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="4:15">
-      <c r="D193" s="44"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -29978,7 +29992,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="4:15">
-      <c r="D194" s="44"/>
+      <c r="D194" s="43"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -29992,7 +30006,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="4:15">
-      <c r="D195" s="44"/>
+      <c r="D195" s="43"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -30006,7 +30020,7 @@
       <c r="O195" s="2"/>
     </row>
     <row r="196" spans="4:15">
-      <c r="D196" s="44"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -30020,7 +30034,7 @@
       <c r="O196" s="2"/>
     </row>
     <row r="197" spans="4:15">
-      <c r="D197" s="44"/>
+      <c r="D197" s="43"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -30034,7 +30048,7 @@
       <c r="O197" s="2"/>
     </row>
     <row r="198" spans="4:15">
-      <c r="D198" s="44"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -30048,7 +30062,7 @@
       <c r="O198" s="2"/>
     </row>
     <row r="199" spans="4:15">
-      <c r="D199" s="44"/>
+      <c r="D199" s="43"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -30062,7 +30076,7 @@
       <c r="O199" s="2"/>
     </row>
     <row r="200" spans="4:15">
-      <c r="D200" s="44"/>
+      <c r="D200" s="43"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -30076,7 +30090,7 @@
       <c r="O200" s="2"/>
     </row>
     <row r="201" spans="4:15">
-      <c r="D201" s="44"/>
+      <c r="D201" s="43"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -30090,7 +30104,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="4:15">
-      <c r="D202" s="44"/>
+      <c r="D202" s="43"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -30104,7 +30118,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="4:15">
-      <c r="D203" s="44"/>
+      <c r="D203" s="43"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -30118,7 +30132,7 @@
       <c r="O203" s="2"/>
     </row>
     <row r="204" spans="4:15">
-      <c r="D204" s="44"/>
+      <c r="D204" s="43"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -30132,7 +30146,7 @@
       <c r="O204" s="2"/>
     </row>
     <row r="205" spans="4:15">
-      <c r="D205" s="44"/>
+      <c r="D205" s="43"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -30146,7 +30160,7 @@
       <c r="O205" s="2"/>
     </row>
     <row r="206" spans="4:15">
-      <c r="D206" s="44"/>
+      <c r="D206" s="43"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -30160,7 +30174,7 @@
       <c r="O206" s="2"/>
     </row>
     <row r="207" spans="4:15">
-      <c r="D207" s="44"/>
+      <c r="D207" s="43"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -30174,7 +30188,7 @@
       <c r="O207" s="2"/>
     </row>
     <row r="208" spans="4:15">
-      <c r="D208" s="44"/>
+      <c r="D208" s="43"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -30188,7 +30202,7 @@
       <c r="O208" s="2"/>
     </row>
     <row r="209" spans="4:15">
-      <c r="D209" s="44"/>
+      <c r="D209" s="43"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -30202,7 +30216,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="4:15">
-      <c r="D210" s="44"/>
+      <c r="D210" s="43"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -30216,7 +30230,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="4:15">
-      <c r="D211" s="44"/>
+      <c r="D211" s="43"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -30230,7 +30244,7 @@
       <c r="O211" s="2"/>
     </row>
     <row r="212" spans="4:15">
-      <c r="D212" s="44"/>
+      <c r="D212" s="43"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -30244,7 +30258,7 @@
       <c r="O212" s="2"/>
     </row>
     <row r="213" spans="4:15">
-      <c r="D213" s="44"/>
+      <c r="D213" s="43"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -30258,7 +30272,7 @@
       <c r="O213" s="2"/>
     </row>
     <row r="214" spans="4:15">
-      <c r="D214" s="44"/>
+      <c r="D214" s="43"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -30272,7 +30286,7 @@
       <c r="O214" s="2"/>
     </row>
     <row r="215" spans="4:15">
-      <c r="D215" s="44"/>
+      <c r="D215" s="43"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -30286,7 +30300,7 @@
       <c r="O215" s="2"/>
     </row>
     <row r="216" spans="4:15">
-      <c r="D216" s="44"/>
+      <c r="D216" s="43"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -30300,7 +30314,7 @@
       <c r="O216" s="2"/>
     </row>
     <row r="217" spans="4:15">
-      <c r="D217" s="44"/>
+      <c r="D217" s="43"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -30314,7 +30328,7 @@
       <c r="O217" s="2"/>
     </row>
     <row r="218" spans="4:15">
-      <c r="D218" s="44"/>
+      <c r="D218" s="43"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -30328,7 +30342,7 @@
       <c r="O218" s="2"/>
     </row>
     <row r="219" spans="4:15">
-      <c r="D219" s="44"/>
+      <c r="D219" s="43"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -30342,7 +30356,7 @@
       <c r="O219" s="2"/>
     </row>
     <row r="220" spans="4:15">
-      <c r="D220" s="44"/>
+      <c r="D220" s="43"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -30356,7 +30370,7 @@
       <c r="O220" s="2"/>
     </row>
     <row r="221" spans="4:15">
-      <c r="D221" s="44"/>
+      <c r="D221" s="43"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -30370,7 +30384,7 @@
       <c r="O221" s="2"/>
     </row>
     <row r="222" spans="4:15">
-      <c r="D222" s="44"/>
+      <c r="D222" s="43"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -30384,7 +30398,7 @@
       <c r="O222" s="2"/>
     </row>
     <row r="223" spans="4:15">
-      <c r="D223" s="44"/>
+      <c r="D223" s="43"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -30398,7 +30412,7 @@
       <c r="O223" s="2"/>
     </row>
     <row r="224" spans="4:15">
-      <c r="D224" s="44"/>
+      <c r="D224" s="43"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -30412,7 +30426,7 @@
       <c r="O224" s="2"/>
     </row>
     <row r="225" spans="4:15">
-      <c r="D225" s="44"/>
+      <c r="D225" s="43"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -30426,7 +30440,7 @@
       <c r="O225" s="2"/>
     </row>
     <row r="226" spans="4:15">
-      <c r="D226" s="44"/>
+      <c r="D226" s="43"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -30440,7 +30454,7 @@
       <c r="O226" s="2"/>
     </row>
     <row r="227" spans="4:15">
-      <c r="D227" s="44"/>
+      <c r="D227" s="43"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -30454,7 +30468,7 @@
       <c r="O227" s="2"/>
     </row>
     <row r="228" spans="4:15">
-      <c r="D228" s="44"/>
+      <c r="D228" s="43"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -30468,7 +30482,7 @@
       <c r="O228" s="2"/>
     </row>
     <row r="229" spans="4:15">
-      <c r="D229" s="44"/>
+      <c r="D229" s="43"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -30482,7 +30496,7 @@
       <c r="O229" s="2"/>
     </row>
     <row r="230" spans="4:15">
-      <c r="D230" s="44"/>
+      <c r="D230" s="43"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -30496,7 +30510,7 @@
       <c r="O230" s="2"/>
     </row>
     <row r="231" spans="4:15">
-      <c r="D231" s="44"/>
+      <c r="D231" s="43"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -30510,7 +30524,7 @@
       <c r="O231" s="2"/>
     </row>
     <row r="232" spans="4:15">
-      <c r="D232" s="44"/>
+      <c r="D232" s="43"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -30524,7 +30538,7 @@
       <c r="O232" s="2"/>
     </row>
     <row r="233" spans="4:15">
-      <c r="D233" s="44"/>
+      <c r="D233" s="43"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -30538,7 +30552,7 @@
       <c r="O233" s="2"/>
     </row>
     <row r="234" spans="4:15">
-      <c r="D234" s="44"/>
+      <c r="D234" s="43"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -30552,7 +30566,7 @@
       <c r="O234" s="2"/>
     </row>
     <row r="235" spans="4:15">
-      <c r="D235" s="44"/>
+      <c r="D235" s="43"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -30566,7 +30580,7 @@
       <c r="O235" s="2"/>
     </row>
     <row r="236" spans="4:15">
-      <c r="D236" s="44"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -30580,7 +30594,7 @@
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="4:15">
-      <c r="D237" s="44"/>
+      <c r="D237" s="43"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -30594,7 +30608,7 @@
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="4:15">
-      <c r="D238" s="44"/>
+      <c r="D238" s="43"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -30608,7 +30622,7 @@
       <c r="O238" s="2"/>
     </row>
     <row r="239" spans="4:15">
-      <c r="D239" s="44"/>
+      <c r="D239" s="43"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -30622,7 +30636,7 @@
       <c r="O239" s="2"/>
     </row>
     <row r="240" spans="4:15">
-      <c r="D240" s="44"/>
+      <c r="D240" s="43"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -30636,7 +30650,7 @@
       <c r="O240" s="2"/>
     </row>
     <row r="241" spans="4:15">
-      <c r="D241" s="44"/>
+      <c r="D241" s="43"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -30650,7 +30664,7 @@
       <c r="O241" s="2"/>
     </row>
     <row r="242" spans="4:15">
-      <c r="D242" s="44"/>
+      <c r="D242" s="43"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -30664,7 +30678,7 @@
       <c r="O242" s="2"/>
     </row>
     <row r="243" spans="4:15">
-      <c r="D243" s="44"/>
+      <c r="D243" s="43"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -30678,7 +30692,7 @@
       <c r="O243" s="2"/>
     </row>
     <row r="244" spans="4:15">
-      <c r="D244" s="44"/>
+      <c r="D244" s="43"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -30692,7 +30706,7 @@
       <c r="O244" s="2"/>
     </row>
     <row r="245" spans="4:15">
-      <c r="D245" s="44"/>
+      <c r="D245" s="43"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -30706,7 +30720,7 @@
       <c r="O245" s="2"/>
     </row>
     <row r="246" spans="4:15">
-      <c r="D246" s="44"/>
+      <c r="D246" s="43"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -30720,7 +30734,7 @@
       <c r="O246" s="2"/>
     </row>
     <row r="247" spans="4:15">
-      <c r="D247" s="44"/>
+      <c r="D247" s="43"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -30734,7 +30748,7 @@
       <c r="O247" s="2"/>
     </row>
     <row r="248" spans="4:15">
-      <c r="D248" s="44"/>
+      <c r="D248" s="43"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -30748,7 +30762,7 @@
       <c r="O248" s="2"/>
     </row>
     <row r="249" spans="4:15">
-      <c r="D249" s="44"/>
+      <c r="D249" s="43"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -30762,7 +30776,7 @@
       <c r="O249" s="2"/>
     </row>
     <row r="250" spans="4:15">
-      <c r="D250" s="44"/>
+      <c r="D250" s="43"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -30776,7 +30790,7 @@
       <c r="O250" s="2"/>
     </row>
     <row r="251" spans="4:15">
-      <c r="D251" s="44"/>
+      <c r="D251" s="43"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -30790,7 +30804,7 @@
       <c r="O251" s="2"/>
     </row>
     <row r="252" spans="4:15">
-      <c r="D252" s="44"/>
+      <c r="D252" s="43"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -30804,7 +30818,7 @@
       <c r="O252" s="2"/>
     </row>
     <row r="253" spans="4:15">
-      <c r="D253" s="44"/>
+      <c r="D253" s="43"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -30818,7 +30832,7 @@
       <c r="O253" s="2"/>
     </row>
     <row r="254" spans="4:15">
-      <c r="D254" s="44"/>
+      <c r="D254" s="43"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -30832,7 +30846,7 @@
       <c r="O254" s="2"/>
     </row>
     <row r="255" spans="4:15">
-      <c r="D255" s="44"/>
+      <c r="D255" s="43"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -30846,7 +30860,7 @@
       <c r="O255" s="2"/>
     </row>
     <row r="256" spans="4:15">
-      <c r="D256" s="44"/>
+      <c r="D256" s="43"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -30860,7 +30874,7 @@
       <c r="O256" s="2"/>
     </row>
     <row r="257" spans="4:15">
-      <c r="D257" s="44"/>
+      <c r="D257" s="43"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -30874,7 +30888,7 @@
       <c r="O257" s="2"/>
     </row>
     <row r="258" spans="4:15">
-      <c r="D258" s="44"/>
+      <c r="D258" s="43"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -30888,7 +30902,7 @@
       <c r="O258" s="2"/>
     </row>
     <row r="259" spans="4:15">
-      <c r="D259" s="44"/>
+      <c r="D259" s="43"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -30902,7 +30916,7 @@
       <c r="O259" s="2"/>
     </row>
     <row r="260" spans="4:15">
-      <c r="D260" s="44"/>
+      <c r="D260" s="43"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -30916,7 +30930,7 @@
       <c r="O260" s="2"/>
     </row>
     <row r="261" spans="4:15">
-      <c r="D261" s="44"/>
+      <c r="D261" s="43"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -30930,7 +30944,7 @@
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="4:15">
-      <c r="D262" s="44"/>
+      <c r="D262" s="43"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -30944,7 +30958,7 @@
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="4:15">
-      <c r="D263" s="44"/>
+      <c r="D263" s="43"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -30958,7 +30972,7 @@
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="4:15">
-      <c r="D264" s="44"/>
+      <c r="D264" s="43"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -30972,7 +30986,7 @@
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="4:15">
-      <c r="D265" s="44"/>
+      <c r="D265" s="43"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -30986,7 +31000,7 @@
       <c r="O265" s="2"/>
     </row>
     <row r="266" spans="4:15">
-      <c r="D266" s="44"/>
+      <c r="D266" s="43"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -31000,7 +31014,7 @@
       <c r="O266" s="2"/>
     </row>
     <row r="267" spans="4:15">
-      <c r="D267" s="44"/>
+      <c r="D267" s="43"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -31014,7 +31028,7 @@
       <c r="O267" s="2"/>
     </row>
     <row r="268" spans="4:15">
-      <c r="D268" s="44"/>
+      <c r="D268" s="43"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -31028,7 +31042,7 @@
       <c r="O268" s="2"/>
     </row>
     <row r="269" spans="4:15">
-      <c r="D269" s="44"/>
+      <c r="D269" s="43"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -31042,7 +31056,7 @@
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="4:15">
-      <c r="D270" s="44"/>
+      <c r="D270" s="43"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -31056,7 +31070,7 @@
       <c r="O270" s="2"/>
     </row>
     <row r="271" spans="4:15">
-      <c r="D271" s="44"/>
+      <c r="D271" s="43"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -31070,7 +31084,7 @@
       <c r="O271" s="2"/>
     </row>
     <row r="272" spans="4:15">
-      <c r="D272" s="44"/>
+      <c r="D272" s="43"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -31084,7 +31098,7 @@
       <c r="O272" s="2"/>
     </row>
     <row r="273" spans="4:15">
-      <c r="D273" s="44"/>
+      <c r="D273" s="43"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -31098,7 +31112,7 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="4:15">
-      <c r="D274" s="44"/>
+      <c r="D274" s="43"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -31112,7 +31126,7 @@
       <c r="O274" s="2"/>
     </row>
     <row r="275" spans="4:15">
-      <c r="D275" s="44"/>
+      <c r="D275" s="43"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -31126,7 +31140,7 @@
       <c r="O275" s="2"/>
     </row>
     <row r="276" spans="4:15">
-      <c r="D276" s="44"/>
+      <c r="D276" s="43"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -31140,7 +31154,7 @@
       <c r="O276" s="2"/>
     </row>
     <row r="277" spans="4:15">
-      <c r="D277" s="44"/>
+      <c r="D277" s="43"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -31154,7 +31168,7 @@
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="4:15">
-      <c r="D278" s="44"/>
+      <c r="D278" s="43"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -31168,7 +31182,7 @@
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="4:15">
-      <c r="D279" s="44"/>
+      <c r="D279" s="43"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -31182,7 +31196,7 @@
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="4:15">
-      <c r="D280" s="44"/>
+      <c r="D280" s="43"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -31196,7 +31210,7 @@
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="4:15">
-      <c r="D281" s="44"/>
+      <c r="D281" s="43"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -31210,7 +31224,7 @@
       <c r="O281" s="2"/>
     </row>
     <row r="282" spans="4:15">
-      <c r="D282" s="44"/>
+      <c r="D282" s="43"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -31224,7 +31238,7 @@
       <c r="O282" s="2"/>
     </row>
     <row r="283" spans="4:15">
-      <c r="D283" s="44"/>
+      <c r="D283" s="43"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -31238,7 +31252,7 @@
       <c r="O283" s="2"/>
     </row>
     <row r="284" spans="4:15">
-      <c r="D284" s="44"/>
+      <c r="D284" s="43"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -31252,7 +31266,7 @@
       <c r="O284" s="2"/>
     </row>
     <row r="285" spans="4:15">
-      <c r="D285" s="44"/>
+      <c r="D285" s="43"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -31266,7 +31280,7 @@
       <c r="O285" s="2"/>
     </row>
     <row r="286" spans="4:15">
-      <c r="D286" s="44"/>
+      <c r="D286" s="43"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -31280,7 +31294,7 @@
       <c r="O286" s="2"/>
     </row>
     <row r="287" spans="4:15">
-      <c r="D287" s="44"/>
+      <c r="D287" s="43"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -31294,7 +31308,7 @@
       <c r="O287" s="2"/>
     </row>
     <row r="288" spans="4:15">
-      <c r="D288" s="44"/>
+      <c r="D288" s="43"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -31308,7 +31322,7 @@
       <c r="O288" s="2"/>
     </row>
     <row r="289" spans="4:15">
-      <c r="D289" s="44"/>
+      <c r="D289" s="43"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -31322,7 +31336,7 @@
       <c r="O289" s="2"/>
     </row>
     <row r="290" spans="4:15">
-      <c r="D290" s="44"/>
+      <c r="D290" s="43"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -31336,7 +31350,7 @@
       <c r="O290" s="2"/>
     </row>
     <row r="291" spans="4:15">
-      <c r="D291" s="44"/>
+      <c r="D291" s="43"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -31350,7 +31364,7 @@
       <c r="O291" s="2"/>
     </row>
     <row r="292" spans="4:15">
-      <c r="D292" s="44"/>
+      <c r="D292" s="43"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -31364,7 +31378,7 @@
       <c r="O292" s="2"/>
     </row>
     <row r="293" spans="4:15">
-      <c r="D293" s="44"/>
+      <c r="D293" s="43"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -31378,7 +31392,7 @@
       <c r="O293" s="2"/>
     </row>
     <row r="294" spans="4:15">
-      <c r="D294" s="44"/>
+      <c r="D294" s="43"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -31392,7 +31406,7 @@
       <c r="O294" s="2"/>
     </row>
     <row r="295" spans="4:15">
-      <c r="D295" s="44"/>
+      <c r="D295" s="43"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -31406,7 +31420,7 @@
       <c r="O295" s="2"/>
     </row>
     <row r="296" spans="4:15">
-      <c r="D296" s="44"/>
+      <c r="D296" s="43"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -31420,7 +31434,7 @@
       <c r="O296" s="2"/>
     </row>
     <row r="297" spans="4:15">
-      <c r="D297" s="44"/>
+      <c r="D297" s="43"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -31434,7 +31448,7 @@
       <c r="O297" s="2"/>
     </row>
     <row r="298" spans="4:15">
-      <c r="D298" s="44"/>
+      <c r="D298" s="43"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -31448,7 +31462,7 @@
       <c r="O298" s="2"/>
     </row>
     <row r="299" spans="4:15">
-      <c r="D299" s="44"/>
+      <c r="D299" s="43"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -31462,7 +31476,7 @@
       <c r="O299" s="2"/>
     </row>
     <row r="300" spans="4:15">
-      <c r="D300" s="44"/>
+      <c r="D300" s="43"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -31476,7 +31490,7 @@
       <c r="O300" s="2"/>
     </row>
     <row r="301" spans="4:15">
-      <c r="D301" s="44"/>
+      <c r="D301" s="43"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -31490,7 +31504,7 @@
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="4:15">
-      <c r="D302" s="44"/>
+      <c r="D302" s="43"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -31504,7 +31518,7 @@
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="4:15">
-      <c r="D303" s="44"/>
+      <c r="D303" s="43"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -31518,7 +31532,7 @@
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="4:15">
-      <c r="D304" s="44"/>
+      <c r="D304" s="43"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -31532,7 +31546,7 @@
       <c r="O304" s="2"/>
     </row>
     <row r="305" spans="4:15">
-      <c r="D305" s="44"/>
+      <c r="D305" s="43"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -31546,7 +31560,7 @@
       <c r="O305" s="2"/>
     </row>
     <row r="306" spans="4:15">
-      <c r="D306" s="44"/>
+      <c r="D306" s="43"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -31560,7 +31574,7 @@
       <c r="O306" s="2"/>
     </row>
     <row r="307" spans="4:15">
-      <c r="D307" s="44"/>
+      <c r="D307" s="43"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -31574,7 +31588,7 @@
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="4:15">
-      <c r="D308" s="44"/>
+      <c r="D308" s="43"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -31588,7 +31602,7 @@
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="4:15">
-      <c r="D309" s="44"/>
+      <c r="D309" s="43"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -31602,7 +31616,7 @@
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="4:15">
-      <c r="D310" s="44"/>
+      <c r="D310" s="43"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
@@ -31616,7 +31630,7 @@
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="4:15">
-      <c r="D311" s="44"/>
+      <c r="D311" s="43"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
@@ -31630,7 +31644,7 @@
       <c r="O311" s="2"/>
     </row>
     <row r="312" spans="4:15">
-      <c r="D312" s="44"/>
+      <c r="D312" s="43"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
@@ -31644,7 +31658,7 @@
       <c r="O312" s="2"/>
     </row>
     <row r="313" spans="4:15">
-      <c r="D313" s="44"/>
+      <c r="D313" s="43"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -31658,7 +31672,7 @@
       <c r="O313" s="2"/>
     </row>
     <row r="314" spans="4:15">
-      <c r="D314" s="44"/>
+      <c r="D314" s="43"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -31672,7 +31686,7 @@
       <c r="O314" s="2"/>
     </row>
     <row r="315" spans="4:15">
-      <c r="D315" s="44"/>
+      <c r="D315" s="43"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
@@ -31686,7 +31700,7 @@
       <c r="O315" s="2"/>
     </row>
     <row r="316" spans="4:15">
-      <c r="D316" s="44"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -31700,7 +31714,7 @@
       <c r="O316" s="2"/>
     </row>
     <row r="317" spans="4:15">
-      <c r="D317" s="44"/>
+      <c r="D317" s="43"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -31714,7 +31728,7 @@
       <c r="O317" s="2"/>
     </row>
     <row r="318" spans="4:15">
-      <c r="D318" s="44"/>
+      <c r="D318" s="43"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -31728,7 +31742,7 @@
       <c r="O318" s="2"/>
     </row>
     <row r="319" spans="4:15">
-      <c r="D319" s="44"/>
+      <c r="D319" s="43"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -31742,7 +31756,7 @@
       <c r="O319" s="2"/>
     </row>
     <row r="320" spans="4:15">
-      <c r="D320" s="44"/>
+      <c r="D320" s="43"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -31756,7 +31770,7 @@
       <c r="O320" s="2"/>
     </row>
     <row r="321" spans="4:15">
-      <c r="D321" s="44"/>
+      <c r="D321" s="43"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -31770,7 +31784,7 @@
       <c r="O321" s="2"/>
     </row>
     <row r="322" spans="4:15">
-      <c r="D322" s="44"/>
+      <c r="D322" s="43"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -31784,7 +31798,7 @@
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="4:15">
-      <c r="D323" s="44"/>
+      <c r="D323" s="43"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -31798,7 +31812,7 @@
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="4:15">
-      <c r="D324" s="44"/>
+      <c r="D324" s="43"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -31812,7 +31826,7 @@
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="4:15">
-      <c r="D325" s="44"/>
+      <c r="D325" s="43"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
@@ -31826,7 +31840,7 @@
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="4:15">
-      <c r="D326" s="44"/>
+      <c r="D326" s="43"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -31840,7 +31854,7 @@
       <c r="O326" s="2"/>
     </row>
     <row r="327" spans="4:15">
-      <c r="D327" s="44"/>
+      <c r="D327" s="43"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
@@ -31854,7 +31868,7 @@
       <c r="O327" s="2"/>
     </row>
     <row r="328" spans="4:15">
-      <c r="D328" s="44"/>
+      <c r="D328" s="43"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -31868,7 +31882,7 @@
       <c r="O328" s="2"/>
     </row>
     <row r="329" spans="4:15">
-      <c r="D329" s="44"/>
+      <c r="D329" s="43"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -31882,7 +31896,7 @@
       <c r="O329" s="2"/>
     </row>
     <row r="330" spans="4:15">
-      <c r="D330" s="44"/>
+      <c r="D330" s="43"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
@@ -31896,7 +31910,7 @@
       <c r="O330" s="2"/>
     </row>
     <row r="331" spans="4:15">
-      <c r="D331" s="44"/>
+      <c r="D331" s="43"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -31910,7 +31924,7 @@
       <c r="O331" s="2"/>
     </row>
     <row r="332" spans="4:15">
-      <c r="D332" s="44"/>
+      <c r="D332" s="43"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -31924,7 +31938,7 @@
       <c r="O332" s="2"/>
     </row>
     <row r="333" spans="4:15">
-      <c r="D333" s="44"/>
+      <c r="D333" s="43"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
@@ -31938,7 +31952,7 @@
       <c r="O333" s="2"/>
     </row>
     <row r="334" spans="4:15">
-      <c r="D334" s="44"/>
+      <c r="D334" s="43"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -31952,7 +31966,7 @@
       <c r="O334" s="2"/>
     </row>
     <row r="335" spans="4:15">
-      <c r="D335" s="44"/>
+      <c r="D335" s="43"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
@@ -31966,7 +31980,7 @@
       <c r="O335" s="2"/>
     </row>
     <row r="336" spans="4:15">
-      <c r="D336" s="44"/>
+      <c r="D336" s="43"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -31980,7 +31994,7 @@
       <c r="O336" s="2"/>
     </row>
     <row r="337" spans="4:15">
-      <c r="D337" s="44"/>
+      <c r="D337" s="43"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -31994,7 +32008,7 @@
       <c r="O337" s="2"/>
     </row>
     <row r="338" spans="4:15">
-      <c r="D338" s="44"/>
+      <c r="D338" s="43"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -32008,7 +32022,7 @@
       <c r="O338" s="2"/>
     </row>
     <row r="339" spans="4:15">
-      <c r="D339" s="44"/>
+      <c r="D339" s="43"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -32022,7 +32036,7 @@
       <c r="O339" s="2"/>
     </row>
     <row r="340" spans="4:15">
-      <c r="D340" s="44"/>
+      <c r="D340" s="43"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -32036,7 +32050,7 @@
       <c r="O340" s="2"/>
     </row>
     <row r="341" spans="4:15">
-      <c r="D341" s="44"/>
+      <c r="D341" s="43"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
@@ -32050,7 +32064,7 @@
       <c r="O341" s="2"/>
     </row>
     <row r="342" spans="4:15">
-      <c r="D342" s="44"/>
+      <c r="D342" s="43"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -32064,7 +32078,7 @@
       <c r="O342" s="2"/>
     </row>
     <row r="343" spans="4:15">
-      <c r="D343" s="44"/>
+      <c r="D343" s="43"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -32078,7 +32092,7 @@
       <c r="O343" s="2"/>
     </row>
     <row r="344" spans="4:15">
-      <c r="D344" s="44"/>
+      <c r="D344" s="43"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -32092,7 +32106,7 @@
       <c r="O344" s="2"/>
     </row>
     <row r="345" spans="4:15">
-      <c r="D345" s="44"/>
+      <c r="D345" s="43"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -32106,7 +32120,7 @@
       <c r="O345" s="2"/>
     </row>
     <row r="346" spans="4:15">
-      <c r="D346" s="44"/>
+      <c r="D346" s="43"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -32120,7 +32134,7 @@
       <c r="O346" s="2"/>
     </row>
     <row r="347" spans="4:15">
-      <c r="D347" s="44"/>
+      <c r="D347" s="43"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
@@ -32134,7 +32148,7 @@
       <c r="O347" s="2"/>
     </row>
     <row r="348" spans="4:15">
-      <c r="D348" s="44"/>
+      <c r="D348" s="43"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
@@ -32148,7 +32162,7 @@
       <c r="O348" s="2"/>
     </row>
     <row r="349" spans="4:15">
-      <c r="D349" s="44"/>
+      <c r="D349" s="43"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
@@ -32162,7 +32176,7 @@
       <c r="O349" s="2"/>
     </row>
     <row r="350" spans="4:15">
-      <c r="D350" s="44"/>
+      <c r="D350" s="43"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
@@ -32176,7 +32190,7 @@
       <c r="O350" s="2"/>
     </row>
     <row r="351" spans="4:15">
-      <c r="D351" s="44"/>
+      <c r="D351" s="43"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -32190,7 +32204,7 @@
       <c r="O351" s="2"/>
     </row>
     <row r="352" spans="4:15">
-      <c r="D352" s="44"/>
+      <c r="D352" s="43"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
@@ -32204,7 +32218,7 @@
       <c r="O352" s="2"/>
     </row>
     <row r="353" spans="4:15">
-      <c r="D353" s="44"/>
+      <c r="D353" s="43"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
@@ -32218,7 +32232,7 @@
       <c r="O353" s="2"/>
     </row>
     <row r="354" spans="4:15">
-      <c r="D354" s="44"/>
+      <c r="D354" s="43"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
@@ -32232,7 +32246,7 @@
       <c r="O354" s="2"/>
     </row>
     <row r="355" spans="4:15">
-      <c r="D355" s="44"/>
+      <c r="D355" s="43"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
@@ -32246,7 +32260,7 @@
       <c r="O355" s="2"/>
     </row>
     <row r="356" spans="4:15">
-      <c r="D356" s="44"/>
+      <c r="D356" s="43"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
@@ -32260,7 +32274,7 @@
       <c r="O356" s="2"/>
     </row>
     <row r="357" spans="4:15">
-      <c r="D357" s="44"/>
+      <c r="D357" s="43"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
@@ -32274,7 +32288,7 @@
       <c r="O357" s="2"/>
     </row>
     <row r="358" spans="4:15">
-      <c r="D358" s="44"/>
+      <c r="D358" s="43"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
@@ -32288,7 +32302,7 @@
       <c r="O358" s="2"/>
     </row>
     <row r="359" spans="4:15">
-      <c r="D359" s="44"/>
+      <c r="D359" s="43"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
@@ -32302,7 +32316,7 @@
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="4:15">
-      <c r="D360" s="44"/>
+      <c r="D360" s="43"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -32316,7 +32330,7 @@
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="4:15">
-      <c r="D361" s="44"/>
+      <c r="D361" s="43"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
@@ -32330,7 +32344,7 @@
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="4:15">
-      <c r="D362" s="44"/>
+      <c r="D362" s="43"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
@@ -32344,7 +32358,7 @@
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="4:15">
-      <c r="D363" s="44"/>
+      <c r="D363" s="43"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
@@ -32358,7 +32372,7 @@
       <c r="O363" s="2"/>
     </row>
     <row r="364" spans="4:15">
-      <c r="D364" s="44"/>
+      <c r="D364" s="43"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
@@ -32372,7 +32386,7 @@
       <c r="O364" s="2"/>
     </row>
     <row r="365" spans="4:15">
-      <c r="D365" s="44"/>
+      <c r="D365" s="43"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -32386,7 +32400,7 @@
       <c r="O365" s="2"/>
     </row>
     <row r="366" spans="4:15">
-      <c r="D366" s="44"/>
+      <c r="D366" s="43"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -32400,7 +32414,7 @@
       <c r="O366" s="2"/>
     </row>
     <row r="367" spans="4:15">
-      <c r="D367" s="44"/>
+      <c r="D367" s="43"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -32414,7 +32428,7 @@
       <c r="O367" s="2"/>
     </row>
     <row r="368" spans="4:15">
-      <c r="D368" s="44"/>
+      <c r="D368" s="43"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -32428,7 +32442,7 @@
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="4:15">
-      <c r="D369" s="44"/>
+      <c r="D369" s="43"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -32442,7 +32456,7 @@
       <c r="O369" s="2"/>
     </row>
     <row r="370" spans="4:15">
-      <c r="D370" s="44"/>
+      <c r="D370" s="43"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -32456,7 +32470,7 @@
       <c r="O370" s="2"/>
     </row>
     <row r="371" spans="4:15">
-      <c r="D371" s="44"/>
+      <c r="D371" s="43"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -32470,7 +32484,7 @@
       <c r="O371" s="2"/>
     </row>
     <row r="372" spans="4:15">
-      <c r="D372" s="44"/>
+      <c r="D372" s="43"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -32484,7 +32498,7 @@
       <c r="O372" s="2"/>
     </row>
     <row r="373" spans="4:15">
-      <c r="D373" s="44"/>
+      <c r="D373" s="43"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -32498,7 +32512,7 @@
       <c r="O373" s="2"/>
     </row>
     <row r="374" spans="4:15">
-      <c r="D374" s="44"/>
+      <c r="D374" s="43"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -32512,7 +32526,7 @@
       <c r="O374" s="2"/>
     </row>
     <row r="375" spans="4:15">
-      <c r="D375" s="44"/>
+      <c r="D375" s="43"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -32526,7 +32540,7 @@
       <c r="O375" s="2"/>
     </row>
     <row r="376" spans="4:15">
-      <c r="D376" s="44"/>
+      <c r="D376" s="43"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -32540,7 +32554,7 @@
       <c r="O376" s="2"/>
     </row>
     <row r="377" spans="4:15">
-      <c r="D377" s="44"/>
+      <c r="D377" s="43"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
@@ -32554,7 +32568,7 @@
       <c r="O377" s="2"/>
     </row>
     <row r="378" spans="4:15">
-      <c r="D378" s="44"/>
+      <c r="D378" s="43"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -32568,7 +32582,7 @@
       <c r="O378" s="2"/>
     </row>
     <row r="379" spans="4:15">
-      <c r="D379" s="44"/>
+      <c r="D379" s="43"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -32582,7 +32596,7 @@
       <c r="O379" s="2"/>
     </row>
     <row r="380" spans="4:15">
-      <c r="D380" s="44"/>
+      <c r="D380" s="43"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -32596,7 +32610,7 @@
       <c r="O380" s="2"/>
     </row>
     <row r="381" spans="4:15">
-      <c r="D381" s="44"/>
+      <c r="D381" s="43"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -32610,7 +32624,7 @@
       <c r="O381" s="2"/>
     </row>
     <row r="382" spans="4:15">
-      <c r="D382" s="44"/>
+      <c r="D382" s="43"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -32624,7 +32638,7 @@
       <c r="O382" s="2"/>
     </row>
     <row r="383" spans="4:15">
-      <c r="D383" s="44"/>
+      <c r="D383" s="43"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -32638,7 +32652,7 @@
       <c r="O383" s="2"/>
     </row>
     <row r="384" spans="4:15">
-      <c r="D384" s="44"/>
+      <c r="D384" s="43"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -32652,7 +32666,7 @@
       <c r="O384" s="2"/>
     </row>
     <row r="385" spans="4:15">
-      <c r="D385" s="44"/>
+      <c r="D385" s="43"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -32666,7 +32680,7 @@
       <c r="O385" s="2"/>
     </row>
     <row r="386" spans="4:15">
-      <c r="D386" s="44"/>
+      <c r="D386" s="43"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -32680,7 +32694,7 @@
       <c r="O386" s="2"/>
     </row>
     <row r="387" spans="4:15">
-      <c r="D387" s="44"/>
+      <c r="D387" s="43"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -32694,7 +32708,7 @@
       <c r="O387" s="2"/>
     </row>
     <row r="388" spans="4:15">
-      <c r="D388" s="44"/>
+      <c r="D388" s="43"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -32708,7 +32722,7 @@
       <c r="O388" s="2"/>
     </row>
     <row r="389" spans="4:15">
-      <c r="D389" s="44"/>
+      <c r="D389" s="43"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -32722,7 +32736,7 @@
       <c r="O389" s="2"/>
     </row>
     <row r="390" spans="4:15">
-      <c r="D390" s="44"/>
+      <c r="D390" s="43"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -32736,7 +32750,7 @@
       <c r="O390" s="2"/>
     </row>
     <row r="391" spans="4:15">
-      <c r="D391" s="44"/>
+      <c r="D391" s="43"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -32750,7 +32764,7 @@
       <c r="O391" s="2"/>
     </row>
     <row r="392" spans="4:15">
-      <c r="D392" s="44"/>
+      <c r="D392" s="43"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -32764,7 +32778,7 @@
       <c r="O392" s="2"/>
     </row>
     <row r="393" spans="4:15">
-      <c r="D393" s="44"/>
+      <c r="D393" s="43"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -32778,7 +32792,7 @@
       <c r="O393" s="2"/>
     </row>
     <row r="394" spans="4:15">
-      <c r="D394" s="44"/>
+      <c r="D394" s="43"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -32792,7 +32806,7 @@
       <c r="O394" s="2"/>
     </row>
     <row r="395" spans="4:15">
-      <c r="D395" s="44"/>
+      <c r="D395" s="43"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -32806,7 +32820,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="4:15">
-      <c r="D396" s="44"/>
+      <c r="D396" s="43"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -32820,7 +32834,7 @@
       <c r="O396" s="2"/>
     </row>
     <row r="397" spans="4:15">
-      <c r="D397" s="44"/>
+      <c r="D397" s="43"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -32834,7 +32848,7 @@
       <c r="O397" s="2"/>
     </row>
     <row r="398" spans="4:15">
-      <c r="D398" s="44"/>
+      <c r="D398" s="43"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -32848,7 +32862,7 @@
       <c r="O398" s="2"/>
     </row>
     <row r="399" spans="4:15">
-      <c r="D399" s="44"/>
+      <c r="D399" s="43"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -32862,7 +32876,7 @@
       <c r="O399" s="2"/>
     </row>
     <row r="400" spans="4:15">
-      <c r="D400" s="44"/>
+      <c r="D400" s="43"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -32876,7 +32890,7 @@
       <c r="O400" s="2"/>
     </row>
     <row r="401" spans="4:15">
-      <c r="D401" s="44"/>
+      <c r="D401" s="43"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -32890,7 +32904,7 @@
       <c r="O401" s="2"/>
     </row>
     <row r="402" spans="4:15">
-      <c r="D402" s="44"/>
+      <c r="D402" s="43"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -32904,7 +32918,7 @@
       <c r="O402" s="2"/>
     </row>
     <row r="403" spans="4:15">
-      <c r="D403" s="44"/>
+      <c r="D403" s="43"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -32918,7 +32932,7 @@
       <c r="O403" s="2"/>
     </row>
     <row r="404" spans="4:15">
-      <c r="D404" s="44"/>
+      <c r="D404" s="43"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -32932,7 +32946,7 @@
       <c r="O404" s="2"/>
     </row>
     <row r="405" spans="4:15">
-      <c r="D405" s="44"/>
+      <c r="D405" s="43"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -32946,7 +32960,7 @@
       <c r="O405" s="2"/>
     </row>
     <row r="406" spans="4:15">
-      <c r="D406" s="44"/>
+      <c r="D406" s="43"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -32960,7 +32974,7 @@
       <c r="O406" s="2"/>
     </row>
     <row r="407" spans="4:15">
-      <c r="D407" s="44"/>
+      <c r="D407" s="43"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -32974,7 +32988,7 @@
       <c r="O407" s="2"/>
     </row>
     <row r="408" spans="4:15">
-      <c r="D408" s="44"/>
+      <c r="D408" s="43"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -32988,7 +33002,7 @@
       <c r="O408" s="2"/>
     </row>
     <row r="409" spans="4:15">
-      <c r="D409" s="44"/>
+      <c r="D409" s="43"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
@@ -33002,7 +33016,7 @@
       <c r="O409" s="2"/>
     </row>
     <row r="410" spans="4:15">
-      <c r="D410" s="44"/>
+      <c r="D410" s="43"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
@@ -33016,7 +33030,7 @@
       <c r="O410" s="2"/>
     </row>
     <row r="411" spans="4:15">
-      <c r="D411" s="44"/>
+      <c r="D411" s="43"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
@@ -33030,7 +33044,7 @@
       <c r="O411" s="2"/>
     </row>
     <row r="412" spans="4:15">
-      <c r="D412" s="44"/>
+      <c r="D412" s="43"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
@@ -33044,7 +33058,7 @@
       <c r="O412" s="2"/>
     </row>
     <row r="413" spans="4:15">
-      <c r="D413" s="44"/>
+      <c r="D413" s="43"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
@@ -33058,7 +33072,7 @@
       <c r="O413" s="2"/>
     </row>
     <row r="414" spans="4:15">
-      <c r="D414" s="44"/>
+      <c r="D414" s="43"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -33072,7 +33086,7 @@
       <c r="O414" s="2"/>
     </row>
     <row r="415" spans="4:15">
-      <c r="D415" s="44"/>
+      <c r="D415" s="43"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -33086,7 +33100,7 @@
       <c r="O415" s="2"/>
     </row>
     <row r="416" spans="4:15">
-      <c r="D416" s="44"/>
+      <c r="D416" s="43"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -33100,7 +33114,7 @@
       <c r="O416" s="2"/>
     </row>
     <row r="417" spans="4:15">
-      <c r="D417" s="44"/>
+      <c r="D417" s="43"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -33114,7 +33128,7 @@
       <c r="O417" s="2"/>
     </row>
     <row r="418" spans="4:15">
-      <c r="D418" s="44"/>
+      <c r="D418" s="43"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -33128,7 +33142,7 @@
       <c r="O418" s="2"/>
     </row>
     <row r="419" spans="4:15">
-      <c r="D419" s="44"/>
+      <c r="D419" s="43"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -33142,7 +33156,7 @@
       <c r="O419" s="2"/>
     </row>
     <row r="420" spans="4:15">
-      <c r="D420" s="44"/>
+      <c r="D420" s="43"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -33156,7 +33170,7 @@
       <c r="O420" s="2"/>
     </row>
     <row r="421" spans="4:15">
-      <c r="D421" s="44"/>
+      <c r="D421" s="43"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -33170,7 +33184,7 @@
       <c r="O421" s="2"/>
     </row>
     <row r="422" spans="4:15">
-      <c r="D422" s="44"/>
+      <c r="D422" s="43"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -33184,7 +33198,7 @@
       <c r="O422" s="2"/>
     </row>
     <row r="423" spans="4:15">
-      <c r="D423" s="44"/>
+      <c r="D423" s="43"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -33198,7 +33212,7 @@
       <c r="O423" s="2"/>
     </row>
     <row r="424" spans="4:15">
-      <c r="D424" s="44"/>
+      <c r="D424" s="43"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -33212,7 +33226,7 @@
       <c r="O424" s="2"/>
     </row>
     <row r="425" spans="4:15">
-      <c r="D425" s="44"/>
+      <c r="D425" s="43"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -33226,7 +33240,7 @@
       <c r="O425" s="2"/>
     </row>
     <row r="426" spans="4:15">
-      <c r="D426" s="44"/>
+      <c r="D426" s="43"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -33240,7 +33254,7 @@
       <c r="O426" s="2"/>
     </row>
     <row r="427" spans="4:15">
-      <c r="D427" s="44"/>
+      <c r="D427" s="43"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -33254,7 +33268,7 @@
       <c r="O427" s="2"/>
     </row>
     <row r="428" spans="4:15">
-      <c r="D428" s="44"/>
+      <c r="D428" s="43"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -33268,7 +33282,7 @@
       <c r="O428" s="2"/>
     </row>
     <row r="429" spans="4:15">
-      <c r="D429" s="44"/>
+      <c r="D429" s="43"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -33282,7 +33296,7 @@
       <c r="O429" s="2"/>
     </row>
     <row r="430" spans="4:15">
-      <c r="D430" s="44"/>
+      <c r="D430" s="43"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -33296,7 +33310,7 @@
       <c r="O430" s="2"/>
     </row>
     <row r="431" spans="4:15">
-      <c r="D431" s="44"/>
+      <c r="D431" s="43"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -33310,7 +33324,7 @@
       <c r="O431" s="2"/>
     </row>
     <row r="432" spans="4:15">
-      <c r="D432" s="44"/>
+      <c r="D432" s="43"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -33324,7 +33338,7 @@
       <c r="O432" s="2"/>
     </row>
     <row r="433" spans="4:15">
-      <c r="D433" s="44"/>
+      <c r="D433" s="43"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -33338,7 +33352,7 @@
       <c r="O433" s="2"/>
     </row>
     <row r="434" spans="4:15">
-      <c r="D434" s="44"/>
+      <c r="D434" s="43"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -33352,7 +33366,7 @@
       <c r="O434" s="2"/>
     </row>
     <row r="435" spans="4:15">
-      <c r="D435" s="44"/>
+      <c r="D435" s="43"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -33366,7 +33380,7 @@
       <c r="O435" s="2"/>
     </row>
     <row r="436" spans="4:15">
-      <c r="D436" s="44"/>
+      <c r="D436" s="43"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -33380,7 +33394,7 @@
       <c r="O436" s="2"/>
     </row>
     <row r="437" spans="4:15">
-      <c r="D437" s="44"/>
+      <c r="D437" s="43"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
@@ -33394,7 +33408,7 @@
       <c r="O437" s="2"/>
     </row>
     <row r="438" spans="4:15">
-      <c r="D438" s="44"/>
+      <c r="D438" s="43"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -33408,7 +33422,7 @@
       <c r="O438" s="2"/>
     </row>
     <row r="439" spans="4:15">
-      <c r="D439" s="44"/>
+      <c r="D439" s="43"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -33422,7 +33436,7 @@
       <c r="O439" s="2"/>
     </row>
     <row r="440" spans="4:15">
-      <c r="D440" s="44"/>
+      <c r="D440" s="43"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -33436,7 +33450,7 @@
       <c r="O440" s="2"/>
     </row>
     <row r="441" spans="4:15">
-      <c r="D441" s="44"/>
+      <c r="D441" s="43"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
@@ -33450,7 +33464,7 @@
       <c r="O441" s="2"/>
     </row>
     <row r="442" spans="4:15">
-      <c r="D442" s="44"/>
+      <c r="D442" s="43"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
@@ -33464,7 +33478,7 @@
       <c r="O442" s="2"/>
     </row>
     <row r="443" spans="4:15">
-      <c r="D443" s="44"/>
+      <c r="D443" s="43"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
@@ -33478,7 +33492,7 @@
       <c r="O443" s="2"/>
     </row>
     <row r="444" spans="4:15">
-      <c r="D444" s="44"/>
+      <c r="D444" s="43"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
@@ -33492,7 +33506,7 @@
       <c r="O444" s="2"/>
     </row>
     <row r="445" spans="4:15">
-      <c r="D445" s="44"/>
+      <c r="D445" s="43"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -33506,7 +33520,7 @@
       <c r="O445" s="2"/>
     </row>
     <row r="446" spans="4:15">
-      <c r="D446" s="44"/>
+      <c r="D446" s="43"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -33520,7 +33534,7 @@
       <c r="O446" s="2"/>
     </row>
     <row r="447" spans="4:15">
-      <c r="D447" s="44"/>
+      <c r="D447" s="43"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
@@ -33534,7 +33548,7 @@
       <c r="O447" s="2"/>
     </row>
     <row r="448" spans="4:15">
-      <c r="D448" s="44"/>
+      <c r="D448" s="43"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
@@ -33548,7 +33562,7 @@
       <c r="O448" s="2"/>
     </row>
     <row r="449" spans="4:15">
-      <c r="D449" s="44"/>
+      <c r="D449" s="43"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
@@ -33562,7 +33576,7 @@
       <c r="O449" s="2"/>
     </row>
     <row r="450" spans="4:15">
-      <c r="D450" s="44"/>
+      <c r="D450" s="43"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
@@ -33576,7 +33590,7 @@
       <c r="O450" s="2"/>
     </row>
     <row r="451" spans="4:15">
-      <c r="D451" s="44"/>
+      <c r="D451" s="43"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
@@ -33590,7 +33604,7 @@
       <c r="O451" s="2"/>
     </row>
     <row r="452" spans="4:15">
-      <c r="D452" s="44"/>
+      <c r="D452" s="43"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
@@ -33604,7 +33618,7 @@
       <c r="O452" s="2"/>
     </row>
     <row r="453" spans="4:15">
-      <c r="D453" s="44"/>
+      <c r="D453" s="43"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -33618,7 +33632,7 @@
       <c r="O453" s="2"/>
     </row>
     <row r="454" spans="4:15">
-      <c r="D454" s="44"/>
+      <c r="D454" s="43"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -33632,7 +33646,7 @@
       <c r="O454" s="2"/>
     </row>
     <row r="455" spans="4:15">
-      <c r="D455" s="44"/>
+      <c r="D455" s="43"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -33646,7 +33660,7 @@
       <c r="O455" s="2"/>
     </row>
     <row r="456" spans="4:15">
-      <c r="D456" s="44"/>
+      <c r="D456" s="43"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -33660,7 +33674,7 @@
       <c r="O456" s="2"/>
     </row>
     <row r="457" spans="4:15">
-      <c r="D457" s="44"/>
+      <c r="D457" s="43"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
@@ -33674,7 +33688,7 @@
       <c r="O457" s="2"/>
     </row>
     <row r="458" spans="4:15">
-      <c r="D458" s="44"/>
+      <c r="D458" s="43"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
@@ -33688,7 +33702,7 @@
       <c r="O458" s="2"/>
     </row>
     <row r="459" spans="4:15">
-      <c r="D459" s="44"/>
+      <c r="D459" s="43"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
@@ -33702,7 +33716,7 @@
       <c r="O459" s="2"/>
     </row>
     <row r="460" spans="4:15">
-      <c r="D460" s="44"/>
+      <c r="D460" s="43"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
@@ -33716,7 +33730,7 @@
       <c r="O460" s="2"/>
     </row>
     <row r="461" spans="4:15">
-      <c r="D461" s="44"/>
+      <c r="D461" s="43"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
@@ -33730,7 +33744,7 @@
       <c r="O461" s="2"/>
     </row>
     <row r="462" spans="4:15">
-      <c r="D462" s="44"/>
+      <c r="D462" s="43"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
@@ -33744,7 +33758,7 @@
       <c r="O462" s="2"/>
     </row>
     <row r="463" spans="4:15">
-      <c r="D463" s="44"/>
+      <c r="D463" s="43"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -33758,7 +33772,7 @@
       <c r="O463" s="2"/>
     </row>
     <row r="464" spans="4:15">
-      <c r="D464" s="44"/>
+      <c r="D464" s="43"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
@@ -33772,7 +33786,7 @@
       <c r="O464" s="2"/>
     </row>
     <row r="465" spans="4:15">
-      <c r="D465" s="44"/>
+      <c r="D465" s="43"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -33786,7 +33800,7 @@
       <c r="O465" s="2"/>
     </row>
     <row r="466" spans="4:15">
-      <c r="D466" s="44"/>
+      <c r="D466" s="43"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -33800,7 +33814,7 @@
       <c r="O466" s="2"/>
     </row>
     <row r="467" spans="4:15">
-      <c r="D467" s="44"/>
+      <c r="D467" s="43"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
@@ -33814,7 +33828,7 @@
       <c r="O467" s="2"/>
     </row>
     <row r="468" spans="4:15">
-      <c r="D468" s="44"/>
+      <c r="D468" s="43"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -33828,7 +33842,7 @@
       <c r="O468" s="2"/>
     </row>
     <row r="469" spans="4:15">
-      <c r="D469" s="44"/>
+      <c r="D469" s="43"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -33842,7 +33856,7 @@
       <c r="O469" s="2"/>
     </row>
     <row r="470" spans="4:15">
-      <c r="D470" s="44"/>
+      <c r="D470" s="43"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -33856,7 +33870,7 @@
       <c r="O470" s="2"/>
     </row>
     <row r="471" spans="4:15">
-      <c r="D471" s="44"/>
+      <c r="D471" s="43"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -33870,7 +33884,7 @@
       <c r="O471" s="2"/>
     </row>
     <row r="472" spans="4:15">
-      <c r="D472" s="44"/>
+      <c r="D472" s="43"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -33884,7 +33898,7 @@
       <c r="O472" s="2"/>
     </row>
     <row r="473" spans="4:15">
-      <c r="D473" s="44"/>
+      <c r="D473" s="43"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -33898,7 +33912,7 @@
       <c r="O473" s="2"/>
     </row>
     <row r="474" spans="4:15">
-      <c r="D474" s="44"/>
+      <c r="D474" s="43"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
@@ -33912,7 +33926,7 @@
       <c r="O474" s="2"/>
     </row>
     <row r="475" spans="4:15">
-      <c r="D475" s="44"/>
+      <c r="D475" s="43"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -33926,7 +33940,7 @@
       <c r="O475" s="2"/>
     </row>
     <row r="476" spans="4:15">
-      <c r="D476" s="44"/>
+      <c r="D476" s="43"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -33940,7 +33954,7 @@
       <c r="O476" s="2"/>
     </row>
     <row r="477" spans="4:15">
-      <c r="D477" s="44"/>
+      <c r="D477" s="43"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
@@ -33954,7 +33968,7 @@
       <c r="O477" s="2"/>
     </row>
     <row r="478" spans="4:15">
-      <c r="D478" s="44"/>
+      <c r="D478" s="43"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -33968,7 +33982,7 @@
       <c r="O478" s="2"/>
     </row>
     <row r="479" spans="4:15">
-      <c r="D479" s="44"/>
+      <c r="D479" s="43"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -33982,7 +33996,7 @@
       <c r="O479" s="2"/>
     </row>
     <row r="480" spans="4:15">
-      <c r="D480" s="44"/>
+      <c r="D480" s="43"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
@@ -33996,7 +34010,7 @@
       <c r="O480" s="2"/>
     </row>
     <row r="481" spans="4:15">
-      <c r="D481" s="44"/>
+      <c r="D481" s="43"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
@@ -34010,7 +34024,7 @@
       <c r="O481" s="2"/>
     </row>
     <row r="482" spans="4:15">
-      <c r="D482" s="44"/>
+      <c r="D482" s="43"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
@@ -34024,7 +34038,7 @@
       <c r="O482" s="2"/>
     </row>
     <row r="483" spans="4:15">
-      <c r="D483" s="44"/>
+      <c r="D483" s="43"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
@@ -34038,7 +34052,7 @@
       <c r="O483" s="2"/>
     </row>
     <row r="484" spans="4:15">
-      <c r="D484" s="44"/>
+      <c r="D484" s="43"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
@@ -34052,7 +34066,7 @@
       <c r="O484" s="2"/>
     </row>
     <row r="485" spans="4:15">
-      <c r="D485" s="44"/>
+      <c r="D485" s="43"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
@@ -34066,7 +34080,7 @@
       <c r="O485" s="2"/>
     </row>
     <row r="486" spans="4:15">
-      <c r="D486" s="44"/>
+      <c r="D486" s="43"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
@@ -34080,7 +34094,7 @@
       <c r="O486" s="2"/>
     </row>
     <row r="487" spans="4:15">
-      <c r="D487" s="44"/>
+      <c r="D487" s="43"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
@@ -34094,7 +34108,7 @@
       <c r="O487" s="2"/>
     </row>
     <row r="488" spans="4:15">
-      <c r="D488" s="44"/>
+      <c r="D488" s="43"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -34108,7 +34122,7 @@
       <c r="O488" s="2"/>
     </row>
     <row r="489" spans="4:15">
-      <c r="D489" s="44"/>
+      <c r="D489" s="43"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
@@ -34122,7 +34136,7 @@
       <c r="O489" s="2"/>
     </row>
     <row r="490" spans="4:15">
-      <c r="D490" s="44"/>
+      <c r="D490" s="43"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -34136,7 +34150,7 @@
       <c r="O490" s="2"/>
     </row>
     <row r="491" spans="4:15">
-      <c r="D491" s="44"/>
+      <c r="D491" s="43"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -34150,7 +34164,7 @@
       <c r="O491" s="2"/>
     </row>
     <row r="492" spans="4:15">
-      <c r="D492" s="44"/>
+      <c r="D492" s="43"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -34164,7 +34178,7 @@
       <c r="O492" s="2"/>
     </row>
     <row r="493" spans="4:15">
-      <c r="D493" s="44"/>
+      <c r="D493" s="43"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -34178,7 +34192,7 @@
       <c r="O493" s="2"/>
     </row>
     <row r="494" spans="4:15">
-      <c r="D494" s="44"/>
+      <c r="D494" s="43"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -34192,7 +34206,7 @@
       <c r="O494" s="2"/>
     </row>
     <row r="495" spans="4:15">
-      <c r="D495" s="44"/>
+      <c r="D495" s="43"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -34206,7 +34220,7 @@
       <c r="O495" s="2"/>
     </row>
     <row r="496" spans="4:15">
-      <c r="D496" s="44"/>
+      <c r="D496" s="43"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -34220,7 +34234,7 @@
       <c r="O496" s="2"/>
     </row>
     <row r="497" spans="4:15">
-      <c r="D497" s="44"/>
+      <c r="D497" s="43"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -34234,7 +34248,7 @@
       <c r="O497" s="2"/>
     </row>
     <row r="498" spans="4:15">
-      <c r="D498" s="44"/>
+      <c r="D498" s="43"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -34248,7 +34262,7 @@
       <c r="O498" s="2"/>
     </row>
     <row r="499" spans="4:15">
-      <c r="D499" s="44"/>
+      <c r="D499" s="43"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -34262,7 +34276,7 @@
       <c r="O499" s="2"/>
     </row>
     <row r="500" spans="4:15">
-      <c r="D500" s="44"/>
+      <c r="D500" s="43"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -34276,7 +34290,7 @@
       <c r="O500" s="2"/>
     </row>
     <row r="501" spans="4:15">
-      <c r="D501" s="44"/>
+      <c r="D501" s="43"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -34290,7 +34304,7 @@
       <c r="O501" s="2"/>
     </row>
     <row r="502" spans="4:15">
-      <c r="D502" s="44"/>
+      <c r="D502" s="43"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -34304,7 +34318,7 @@
       <c r="O502" s="2"/>
     </row>
     <row r="503" spans="4:15">
-      <c r="D503" s="44"/>
+      <c r="D503" s="43"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -34318,7 +34332,7 @@
       <c r="O503" s="2"/>
     </row>
     <row r="504" spans="4:15">
-      <c r="D504" s="44"/>
+      <c r="D504" s="43"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -34332,7 +34346,7 @@
       <c r="O504" s="2"/>
     </row>
     <row r="505" spans="4:15">
-      <c r="D505" s="44"/>
+      <c r="D505" s="43"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -34346,7 +34360,7 @@
       <c r="O505" s="2"/>
     </row>
     <row r="506" spans="4:15">
-      <c r="D506" s="44"/>
+      <c r="D506" s="43"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
@@ -34360,7 +34374,7 @@
       <c r="O506" s="2"/>
     </row>
     <row r="507" spans="4:15">
-      <c r="D507" s="44"/>
+      <c r="D507" s="43"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -34374,7 +34388,7 @@
       <c r="O507" s="2"/>
     </row>
     <row r="508" spans="4:15">
-      <c r="D508" s="44"/>
+      <c r="D508" s="43"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -34388,7 +34402,7 @@
       <c r="O508" s="2"/>
     </row>
     <row r="509" spans="4:15">
-      <c r="D509" s="44"/>
+      <c r="D509" s="43"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -34402,7 +34416,7 @@
       <c r="O509" s="2"/>
     </row>
     <row r="510" spans="4:15">
-      <c r="D510" s="44"/>
+      <c r="D510" s="43"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -34416,7 +34430,7 @@
       <c r="O510" s="2"/>
     </row>
     <row r="511" spans="4:15">
-      <c r="D511" s="44"/>
+      <c r="D511" s="43"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -34430,7 +34444,7 @@
       <c r="O511" s="2"/>
     </row>
     <row r="512" spans="4:15">
-      <c r="D512" s="44"/>
+      <c r="D512" s="43"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -34444,7 +34458,7 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="4:15">
-      <c r="D513" s="44"/>
+      <c r="D513" s="43"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -34458,7 +34472,7 @@
       <c r="O513" s="2"/>
     </row>
     <row r="514" spans="4:15">
-      <c r="D514" s="44"/>
+      <c r="D514" s="43"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -34472,7 +34486,7 @@
       <c r="O514" s="2"/>
     </row>
     <row r="515" spans="4:15">
-      <c r="D515" s="44"/>
+      <c r="D515" s="43"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -34486,7 +34500,7 @@
       <c r="O515" s="2"/>
     </row>
     <row r="516" spans="4:15">
-      <c r="D516" s="44"/>
+      <c r="D516" s="43"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -34500,7 +34514,7 @@
       <c r="O516" s="2"/>
     </row>
     <row r="517" spans="4:15">
-      <c r="D517" s="44"/>
+      <c r="D517" s="43"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -34514,7 +34528,7 @@
       <c r="O517" s="2"/>
     </row>
     <row r="518" spans="4:15">
-      <c r="D518" s="44"/>
+      <c r="D518" s="43"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -34528,7 +34542,7 @@
       <c r="O518" s="2"/>
     </row>
     <row r="519" spans="4:15">
-      <c r="D519" s="44"/>
+      <c r="D519" s="43"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -34542,7 +34556,7 @@
       <c r="O519" s="2"/>
     </row>
     <row r="520" spans="4:15">
-      <c r="D520" s="44"/>
+      <c r="D520" s="43"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -34556,7 +34570,7 @@
       <c r="O520" s="2"/>
     </row>
     <row r="521" spans="4:15">
-      <c r="D521" s="44"/>
+      <c r="D521" s="43"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -34570,7 +34584,7 @@
       <c r="O521" s="2"/>
     </row>
     <row r="522" spans="4:15">
-      <c r="D522" s="44"/>
+      <c r="D522" s="43"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -34584,7 +34598,7 @@
       <c r="O522" s="2"/>
     </row>
     <row r="523" spans="4:15">
-      <c r="D523" s="44"/>
+      <c r="D523" s="43"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -34598,7 +34612,7 @@
       <c r="O523" s="2"/>
     </row>
     <row r="524" spans="4:15">
-      <c r="D524" s="44"/>
+      <c r="D524" s="43"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -34612,7 +34626,7 @@
       <c r="O524" s="2"/>
     </row>
     <row r="525" spans="4:15">
-      <c r="D525" s="44"/>
+      <c r="D525" s="43"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
@@ -34626,7 +34640,7 @@
       <c r="O525" s="2"/>
     </row>
     <row r="526" spans="4:15">
-      <c r="D526" s="44"/>
+      <c r="D526" s="43"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
@@ -34640,7 +34654,7 @@
       <c r="O526" s="2"/>
     </row>
     <row r="527" spans="4:15">
-      <c r="D527" s="44"/>
+      <c r="D527" s="43"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
@@ -34654,7 +34668,7 @@
       <c r="O527" s="2"/>
     </row>
     <row r="528" spans="4:15">
-      <c r="D528" s="44"/>
+      <c r="D528" s="43"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -34668,7 +34682,7 @@
       <c r="O528" s="2"/>
     </row>
     <row r="529" spans="4:15">
-      <c r="D529" s="44"/>
+      <c r="D529" s="43"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -34682,7 +34696,7 @@
       <c r="O529" s="2"/>
     </row>
     <row r="530" spans="4:15">
-      <c r="D530" s="44"/>
+      <c r="D530" s="43"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -34696,7 +34710,7 @@
       <c r="O530" s="2"/>
     </row>
     <row r="531" spans="4:15">
-      <c r="D531" s="44"/>
+      <c r="D531" s="43"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
@@ -34710,7 +34724,7 @@
       <c r="O531" s="2"/>
     </row>
     <row r="532" spans="4:15">
-      <c r="D532" s="44"/>
+      <c r="D532" s="43"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -34724,7 +34738,7 @@
       <c r="O532" s="2"/>
     </row>
     <row r="533" spans="4:15">
-      <c r="D533" s="44"/>
+      <c r="D533" s="43"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -34738,7 +34752,7 @@
       <c r="O533" s="2"/>
     </row>
     <row r="534" spans="4:15">
-      <c r="D534" s="44"/>
+      <c r="D534" s="43"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -34752,7 +34766,7 @@
       <c r="O534" s="2"/>
     </row>
     <row r="535" spans="4:15">
-      <c r="D535" s="44"/>
+      <c r="D535" s="43"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -34766,7 +34780,7 @@
       <c r="O535" s="2"/>
     </row>
     <row r="536" spans="4:15">
-      <c r="D536" s="44"/>
+      <c r="D536" s="43"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -34780,7 +34794,7 @@
       <c r="O536" s="2"/>
     </row>
     <row r="537" spans="4:15">
-      <c r="D537" s="44"/>
+      <c r="D537" s="43"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -34794,7 +34808,7 @@
       <c r="O537" s="2"/>
     </row>
     <row r="538" spans="4:15">
-      <c r="D538" s="44"/>
+      <c r="D538" s="43"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -34808,7 +34822,7 @@
       <c r="O538" s="2"/>
     </row>
     <row r="539" spans="4:15">
-      <c r="D539" s="44"/>
+      <c r="D539" s="43"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -34822,7 +34836,7 @@
       <c r="O539" s="2"/>
     </row>
     <row r="540" spans="4:15">
-      <c r="D540" s="44"/>
+      <c r="D540" s="43"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -34836,7 +34850,7 @@
       <c r="O540" s="2"/>
     </row>
     <row r="541" spans="4:15">
-      <c r="D541" s="44"/>
+      <c r="D541" s="43"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -34850,7 +34864,7 @@
       <c r="O541" s="2"/>
     </row>
     <row r="542" spans="4:15">
-      <c r="D542" s="44"/>
+      <c r="D542" s="43"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -34864,7 +34878,7 @@
       <c r="O542" s="2"/>
     </row>
     <row r="543" spans="4:15">
-      <c r="D543" s="44"/>
+      <c r="D543" s="43"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -34878,7 +34892,7 @@
       <c r="O543" s="2"/>
     </row>
     <row r="544" spans="4:15">
-      <c r="D544" s="44"/>
+      <c r="D544" s="43"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -34892,7 +34906,7 @@
       <c r="O544" s="2"/>
     </row>
     <row r="545" spans="4:15">
-      <c r="D545" s="44"/>
+      <c r="D545" s="43"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -34906,7 +34920,7 @@
       <c r="O545" s="2"/>
     </row>
     <row r="546" spans="4:15">
-      <c r="D546" s="44"/>
+      <c r="D546" s="43"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -34920,7 +34934,7 @@
       <c r="O546" s="2"/>
     </row>
     <row r="547" spans="4:15">
-      <c r="D547" s="44"/>
+      <c r="D547" s="43"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -34934,7 +34948,7 @@
       <c r="O547" s="2"/>
     </row>
     <row r="548" spans="4:15">
-      <c r="D548" s="44"/>
+      <c r="D548" s="43"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -34948,7 +34962,7 @@
       <c r="O548" s="2"/>
     </row>
     <row r="549" spans="4:15">
-      <c r="D549" s="44"/>
+      <c r="D549" s="43"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -34962,7 +34976,7 @@
       <c r="O549" s="2"/>
     </row>
     <row r="550" spans="4:15">
-      <c r="D550" s="44"/>
+      <c r="D550" s="43"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -34976,7 +34990,7 @@
       <c r="O550" s="2"/>
     </row>
     <row r="551" spans="4:15">
-      <c r="D551" s="44"/>
+      <c r="D551" s="43"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -34990,7 +35004,7 @@
       <c r="O551" s="2"/>
     </row>
     <row r="552" spans="4:15">
-      <c r="D552" s="44"/>
+      <c r="D552" s="43"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -35004,7 +35018,7 @@
       <c r="O552" s="2"/>
     </row>
     <row r="553" spans="4:15">
-      <c r="D553" s="44"/>
+      <c r="D553" s="43"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -35018,7 +35032,7 @@
       <c r="O553" s="2"/>
     </row>
     <row r="554" spans="4:15">
-      <c r="D554" s="44"/>
+      <c r="D554" s="43"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -35032,7 +35046,7 @@
       <c r="O554" s="2"/>
     </row>
     <row r="555" spans="4:15">
-      <c r="D555" s="44"/>
+      <c r="D555" s="43"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -35046,7 +35060,7 @@
       <c r="O555" s="2"/>
     </row>
     <row r="556" spans="4:15">
-      <c r="D556" s="44"/>
+      <c r="D556" s="43"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
@@ -35060,7 +35074,7 @@
       <c r="O556" s="2"/>
     </row>
     <row r="557" spans="4:15">
-      <c r="D557" s="44"/>
+      <c r="D557" s="43"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -35074,7 +35088,7 @@
       <c r="O557" s="2"/>
     </row>
     <row r="558" spans="4:15">
-      <c r="D558" s="44"/>
+      <c r="D558" s="43"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -35088,7 +35102,7 @@
       <c r="O558" s="2"/>
     </row>
     <row r="559" spans="4:15">
-      <c r="D559" s="44"/>
+      <c r="D559" s="43"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -35102,7 +35116,7 @@
       <c r="O559" s="2"/>
     </row>
     <row r="560" spans="4:15">
-      <c r="D560" s="44"/>
+      <c r="D560" s="43"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -35116,7 +35130,7 @@
       <c r="O560" s="2"/>
     </row>
     <row r="561" spans="4:15">
-      <c r="D561" s="44"/>
+      <c r="D561" s="43"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -35130,7 +35144,7 @@
       <c r="O561" s="2"/>
     </row>
     <row r="562" spans="4:15">
-      <c r="D562" s="44"/>
+      <c r="D562" s="43"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
@@ -35144,7 +35158,7 @@
       <c r="O562" s="2"/>
     </row>
     <row r="563" spans="4:15">
-      <c r="D563" s="44"/>
+      <c r="D563" s="43"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -35158,7 +35172,7 @@
       <c r="O563" s="2"/>
     </row>
     <row r="564" spans="4:15">
-      <c r="D564" s="44"/>
+      <c r="D564" s="43"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -35172,7 +35186,7 @@
       <c r="O564" s="2"/>
     </row>
     <row r="565" spans="4:15">
-      <c r="D565" s="44"/>
+      <c r="D565" s="43"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -35186,7 +35200,7 @@
       <c r="O565" s="2"/>
     </row>
     <row r="566" spans="4:15">
-      <c r="D566" s="44"/>
+      <c r="D566" s="43"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
@@ -35200,7 +35214,7 @@
       <c r="O566" s="2"/>
     </row>
     <row r="567" spans="4:15">
-      <c r="D567" s="44"/>
+      <c r="D567" s="43"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
@@ -35214,7 +35228,7 @@
       <c r="O567" s="2"/>
     </row>
     <row r="568" spans="4:15">
-      <c r="D568" s="44"/>
+      <c r="D568" s="43"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -35228,7 +35242,7 @@
       <c r="O568" s="2"/>
     </row>
     <row r="569" spans="4:15">
-      <c r="D569" s="44"/>
+      <c r="D569" s="43"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -35242,7 +35256,7 @@
       <c r="O569" s="2"/>
     </row>
     <row r="570" spans="4:15">
-      <c r="D570" s="44"/>
+      <c r="D570" s="43"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
@@ -35256,7 +35270,7 @@
       <c r="O570" s="2"/>
     </row>
     <row r="571" spans="4:15">
-      <c r="D571" s="44"/>
+      <c r="D571" s="43"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -35270,7 +35284,7 @@
       <c r="O571" s="2"/>
     </row>
     <row r="572" spans="4:15">
-      <c r="D572" s="44"/>
+      <c r="D572" s="43"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
@@ -35284,7 +35298,7 @@
       <c r="O572" s="2"/>
     </row>
     <row r="573" spans="4:15">
-      <c r="D573" s="44"/>
+      <c r="D573" s="43"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
@@ -35298,7 +35312,7 @@
       <c r="O573" s="2"/>
     </row>
     <row r="574" spans="4:15">
-      <c r="D574" s="44"/>
+      <c r="D574" s="43"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -35312,7 +35326,7 @@
       <c r="O574" s="2"/>
     </row>
     <row r="575" spans="4:15">
-      <c r="D575" s="44"/>
+      <c r="D575" s="43"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -35326,7 +35340,7 @@
       <c r="O575" s="2"/>
     </row>
     <row r="576" spans="4:15">
-      <c r="D576" s="44"/>
+      <c r="D576" s="43"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
@@ -35340,7 +35354,7 @@
       <c r="O576" s="2"/>
     </row>
     <row r="577" spans="4:15">
-      <c r="D577" s="44"/>
+      <c r="D577" s="43"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
@@ -35354,7 +35368,7 @@
       <c r="O577" s="2"/>
     </row>
     <row r="578" spans="4:15">
-      <c r="D578" s="44"/>
+      <c r="D578" s="43"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -35368,7 +35382,7 @@
       <c r="O578" s="2"/>
     </row>
     <row r="579" spans="4:15">
-      <c r="D579" s="44"/>
+      <c r="D579" s="43"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -35382,7 +35396,7 @@
       <c r="O579" s="2"/>
     </row>
     <row r="580" spans="4:15">
-      <c r="D580" s="44"/>
+      <c r="D580" s="43"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -35396,7 +35410,7 @@
       <c r="O580" s="2"/>
     </row>
     <row r="581" spans="4:15">
-      <c r="D581" s="44"/>
+      <c r="D581" s="43"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -35410,7 +35424,7 @@
       <c r="O581" s="2"/>
     </row>
     <row r="582" spans="4:15">
-      <c r="D582" s="44"/>
+      <c r="D582" s="43"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -35424,7 +35438,7 @@
       <c r="O582" s="2"/>
     </row>
     <row r="583" spans="4:15">
-      <c r="D583" s="44"/>
+      <c r="D583" s="43"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -35438,7 +35452,7 @@
       <c r="O583" s="2"/>
     </row>
     <row r="584" spans="4:15">
-      <c r="D584" s="44"/>
+      <c r="D584" s="43"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -35452,7 +35466,7 @@
       <c r="O584" s="2"/>
     </row>
     <row r="585" spans="4:15">
-      <c r="D585" s="44"/>
+      <c r="D585" s="43"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -35466,7 +35480,7 @@
       <c r="O585" s="2"/>
     </row>
     <row r="586" spans="4:15">
-      <c r="D586" s="44"/>
+      <c r="D586" s="43"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -35480,7 +35494,7 @@
       <c r="O586" s="2"/>
     </row>
     <row r="587" spans="4:15">
-      <c r="D587" s="44"/>
+      <c r="D587" s="43"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -35494,7 +35508,7 @@
       <c r="O587" s="2"/>
     </row>
     <row r="588" spans="4:15">
-      <c r="D588" s="44"/>
+      <c r="D588" s="43"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -35508,7 +35522,7 @@
       <c r="O588" s="2"/>
     </row>
     <row r="589" spans="4:15">
-      <c r="D589" s="44"/>
+      <c r="D589" s="43"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -35522,7 +35536,7 @@
       <c r="O589" s="2"/>
     </row>
     <row r="590" spans="4:15">
-      <c r="D590" s="44"/>
+      <c r="D590" s="43"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -35536,7 +35550,7 @@
       <c r="O590" s="2"/>
     </row>
     <row r="591" spans="4:15">
-      <c r="D591" s="44"/>
+      <c r="D591" s="43"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -35550,7 +35564,7 @@
       <c r="O591" s="2"/>
     </row>
     <row r="592" spans="4:15">
-      <c r="D592" s="44"/>
+      <c r="D592" s="43"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -35564,7 +35578,7 @@
       <c r="O592" s="2"/>
     </row>
     <row r="593" spans="4:15">
-      <c r="D593" s="44"/>
+      <c r="D593" s="43"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -35578,7 +35592,7 @@
       <c r="O593" s="2"/>
     </row>
     <row r="594" spans="4:15">
-      <c r="D594" s="44"/>
+      <c r="D594" s="43"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -35592,7 +35606,7 @@
       <c r="O594" s="2"/>
     </row>
     <row r="595" spans="4:15">
-      <c r="D595" s="44"/>
+      <c r="D595" s="43"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
@@ -35606,7 +35620,7 @@
       <c r="O595" s="2"/>
     </row>
     <row r="596" spans="4:15">
-      <c r="D596" s="44"/>
+      <c r="D596" s="43"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -35620,7 +35634,7 @@
       <c r="O596" s="2"/>
     </row>
     <row r="597" spans="4:15">
-      <c r="D597" s="44"/>
+      <c r="D597" s="43"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -35634,7 +35648,7 @@
       <c r="O597" s="2"/>
     </row>
     <row r="598" spans="4:15">
-      <c r="D598" s="44"/>
+      <c r="D598" s="43"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -35648,7 +35662,7 @@
       <c r="O598" s="2"/>
     </row>
     <row r="599" spans="4:15">
-      <c r="D599" s="44"/>
+      <c r="D599" s="43"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -35662,7 +35676,7 @@
       <c r="O599" s="2"/>
     </row>
     <row r="600" spans="4:15">
-      <c r="D600" s="44"/>
+      <c r="D600" s="43"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -35676,7 +35690,7 @@
       <c r="O600" s="2"/>
     </row>
     <row r="601" spans="4:15">
-      <c r="D601" s="44"/>
+      <c r="D601" s="43"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -35690,7 +35704,7 @@
       <c r="O601" s="2"/>
     </row>
     <row r="602" spans="4:15">
-      <c r="D602" s="44"/>
+      <c r="D602" s="43"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -35704,7 +35718,7 @@
       <c r="O602" s="2"/>
     </row>
     <row r="603" spans="4:15">
-      <c r="D603" s="44"/>
+      <c r="D603" s="43"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -35718,7 +35732,7 @@
       <c r="O603" s="2"/>
     </row>
     <row r="604" spans="4:15">
-      <c r="D604" s="44"/>
+      <c r="D604" s="43"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -35732,7 +35746,7 @@
       <c r="O604" s="2"/>
     </row>
     <row r="605" spans="4:15">
-      <c r="D605" s="44"/>
+      <c r="D605" s="43"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -35746,7 +35760,7 @@
       <c r="O605" s="2"/>
     </row>
     <row r="606" spans="4:15">
-      <c r="D606" s="44"/>
+      <c r="D606" s="43"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
@@ -35760,7 +35774,7 @@
       <c r="O606" s="2"/>
     </row>
     <row r="607" spans="4:15">
-      <c r="D607" s="44"/>
+      <c r="D607" s="43"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
@@ -35774,7 +35788,7 @@
       <c r="O607" s="2"/>
     </row>
     <row r="608" spans="4:15">
-      <c r="D608" s="44"/>
+      <c r="D608" s="43"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
@@ -35788,7 +35802,7 @@
       <c r="O608" s="2"/>
     </row>
     <row r="609" spans="4:15">
-      <c r="D609" s="44"/>
+      <c r="D609" s="43"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
@@ -35802,7 +35816,7 @@
       <c r="O609" s="2"/>
     </row>
     <row r="610" spans="4:15">
-      <c r="D610" s="44"/>
+      <c r="D610" s="43"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
@@ -35816,7 +35830,7 @@
       <c r="O610" s="2"/>
     </row>
     <row r="611" spans="4:15">
-      <c r="D611" s="44"/>
+      <c r="D611" s="43"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
@@ -35830,7 +35844,7 @@
       <c r="O611" s="2"/>
     </row>
     <row r="612" spans="4:15">
-      <c r="D612" s="44"/>
+      <c r="D612" s="43"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
@@ -35844,7 +35858,7 @@
       <c r="O612" s="2"/>
     </row>
     <row r="613" spans="4:15">
-      <c r="D613" s="44"/>
+      <c r="D613" s="43"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
@@ -35858,7 +35872,7 @@
       <c r="O613" s="2"/>
     </row>
     <row r="614" spans="4:15">
-      <c r="D614" s="44"/>
+      <c r="D614" s="43"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
@@ -35872,7 +35886,7 @@
       <c r="O614" s="2"/>
     </row>
     <row r="615" spans="4:15">
-      <c r="D615" s="44"/>
+      <c r="D615" s="43"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
@@ -35886,7 +35900,7 @@
       <c r="O615" s="2"/>
     </row>
     <row r="616" spans="4:15">
-      <c r="D616" s="44"/>
+      <c r="D616" s="43"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
@@ -35900,7 +35914,7 @@
       <c r="O616" s="2"/>
     </row>
     <row r="617" spans="4:15">
-      <c r="D617" s="44"/>
+      <c r="D617" s="43"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
@@ -35914,7 +35928,7 @@
       <c r="O617" s="2"/>
     </row>
     <row r="618" spans="4:15">
-      <c r="D618" s="44"/>
+      <c r="D618" s="43"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
@@ -35928,7 +35942,7 @@
       <c r="O618" s="2"/>
     </row>
     <row r="619" spans="4:15">
-      <c r="D619" s="44"/>
+      <c r="D619" s="43"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
@@ -35942,7 +35956,7 @@
       <c r="O619" s="2"/>
     </row>
     <row r="620" spans="4:15">
-      <c r="D620" s="44"/>
+      <c r="D620" s="43"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
@@ -35956,7 +35970,7 @@
       <c r="O620" s="2"/>
     </row>
     <row r="621" spans="4:15">
-      <c r="D621" s="44"/>
+      <c r="D621" s="43"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
@@ -35970,7 +35984,7 @@
       <c r="O621" s="2"/>
     </row>
     <row r="622" spans="4:15">
-      <c r="D622" s="44"/>
+      <c r="D622" s="43"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
@@ -35984,7 +35998,7 @@
       <c r="O622" s="2"/>
     </row>
     <row r="623" spans="4:15">
-      <c r="D623" s="44"/>
+      <c r="D623" s="43"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
@@ -35998,7 +36012,7 @@
       <c r="O623" s="2"/>
     </row>
     <row r="624" spans="4:15">
-      <c r="D624" s="44"/>
+      <c r="D624" s="43"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
@@ -36012,7 +36026,7 @@
       <c r="O624" s="2"/>
     </row>
     <row r="625" spans="4:15">
-      <c r="D625" s="44"/>
+      <c r="D625" s="43"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
@@ -36026,7 +36040,7 @@
       <c r="O625" s="2"/>
     </row>
     <row r="626" spans="4:15">
-      <c r="D626" s="44"/>
+      <c r="D626" s="43"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
@@ -36040,7 +36054,7 @@
       <c r="O626" s="2"/>
     </row>
     <row r="627" spans="4:15">
-      <c r="D627" s="44"/>
+      <c r="D627" s="43"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
@@ -36054,7 +36068,7 @@
       <c r="O627" s="2"/>
     </row>
     <row r="628" spans="4:15">
-      <c r="D628" s="44"/>
+      <c r="D628" s="43"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
@@ -36068,7 +36082,7 @@
       <c r="O628" s="2"/>
     </row>
     <row r="629" spans="4:15">
-      <c r="D629" s="44"/>
+      <c r="D629" s="43"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
@@ -36082,7 +36096,7 @@
       <c r="O629" s="2"/>
     </row>
     <row r="630" spans="4:15">
-      <c r="D630" s="44"/>
+      <c r="D630" s="43"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
@@ -36096,7 +36110,7 @@
       <c r="O630" s="2"/>
     </row>
     <row r="631" spans="4:15">
-      <c r="D631" s="44"/>
+      <c r="D631" s="43"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
@@ -36110,7 +36124,7 @@
       <c r="O631" s="2"/>
     </row>
     <row r="632" spans="4:15">
-      <c r="D632" s="44"/>
+      <c r="D632" s="43"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
@@ -36124,7 +36138,7 @@
       <c r="O632" s="2"/>
     </row>
     <row r="633" spans="4:15">
-      <c r="D633" s="44"/>
+      <c r="D633" s="43"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
@@ -36138,7 +36152,7 @@
       <c r="O633" s="2"/>
     </row>
     <row r="634" spans="4:15">
-      <c r="D634" s="44"/>
+      <c r="D634" s="43"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
@@ -36152,7 +36166,7 @@
       <c r="O634" s="2"/>
     </row>
     <row r="635" spans="4:15">
-      <c r="D635" s="44"/>
+      <c r="D635" s="43"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
@@ -36166,7 +36180,7 @@
       <c r="O635" s="2"/>
     </row>
     <row r="636" spans="4:15">
-      <c r="D636" s="44"/>
+      <c r="D636" s="43"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
@@ -36180,7 +36194,7 @@
       <c r="O636" s="2"/>
     </row>
     <row r="637" spans="4:15">
-      <c r="D637" s="44"/>
+      <c r="D637" s="43"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
@@ -36194,7 +36208,7 @@
       <c r="O637" s="2"/>
     </row>
     <row r="638" spans="4:15">
-      <c r="D638" s="44"/>
+      <c r="D638" s="43"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
@@ -36208,7 +36222,7 @@
       <c r="O638" s="2"/>
     </row>
     <row r="639" spans="4:15">
-      <c r="D639" s="44"/>
+      <c r="D639" s="43"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
@@ -36222,7 +36236,7 @@
       <c r="O639" s="2"/>
     </row>
     <row r="640" spans="4:15">
-      <c r="D640" s="44"/>
+      <c r="D640" s="43"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
@@ -36236,7 +36250,7 @@
       <c r="O640" s="2"/>
     </row>
     <row r="641" spans="4:15">
-      <c r="D641" s="44"/>
+      <c r="D641" s="43"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
@@ -36250,7 +36264,7 @@
       <c r="O641" s="2"/>
     </row>
     <row r="642" spans="4:15">
-      <c r="D642" s="44"/>
+      <c r="D642" s="43"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
@@ -36264,7 +36278,7 @@
       <c r="O642" s="2"/>
     </row>
     <row r="643" spans="4:15">
-      <c r="D643" s="44"/>
+      <c r="D643" s="43"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
@@ -36278,7 +36292,7 @@
       <c r="O643" s="2"/>
     </row>
     <row r="644" spans="4:15">
-      <c r="D644" s="44"/>
+      <c r="D644" s="43"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
@@ -36292,7 +36306,7 @@
       <c r="O644" s="2"/>
     </row>
     <row r="645" spans="4:15">
-      <c r="D645" s="44"/>
+      <c r="D645" s="43"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
@@ -36306,7 +36320,7 @@
       <c r="O645" s="2"/>
     </row>
     <row r="646" spans="4:15">
-      <c r="D646" s="44"/>
+      <c r="D646" s="43"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
@@ -36320,7 +36334,7 @@
       <c r="O646" s="2"/>
     </row>
     <row r="647" spans="4:15">
-      <c r="D647" s="44"/>
+      <c r="D647" s="43"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
@@ -36334,7 +36348,7 @@
       <c r="O647" s="2"/>
     </row>
     <row r="648" spans="4:15">
-      <c r="D648" s="44"/>
+      <c r="D648" s="43"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
@@ -36348,7 +36362,7 @@
       <c r="O648" s="2"/>
     </row>
     <row r="649" spans="4:15">
-      <c r="D649" s="44"/>
+      <c r="D649" s="43"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
@@ -36362,7 +36376,7 @@
       <c r="O649" s="2"/>
     </row>
     <row r="650" spans="4:15">
-      <c r="D650" s="44"/>
+      <c r="D650" s="43"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
@@ -36376,7 +36390,7 @@
       <c r="O650" s="2"/>
     </row>
     <row r="651" spans="4:15">
-      <c r="D651" s="44"/>
+      <c r="D651" s="43"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
@@ -36390,7 +36404,7 @@
       <c r="O651" s="2"/>
     </row>
     <row r="652" spans="4:15">
-      <c r="D652" s="44"/>
+      <c r="D652" s="43"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
@@ -36404,7 +36418,7 @@
       <c r="O652" s="2"/>
     </row>
     <row r="653" spans="4:15">
-      <c r="D653" s="44"/>
+      <c r="D653" s="43"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
@@ -36418,7 +36432,7 @@
       <c r="O653" s="2"/>
     </row>
     <row r="654" spans="4:15">
-      <c r="D654" s="44"/>
+      <c r="D654" s="43"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
@@ -36432,7 +36446,7 @@
       <c r="O654" s="2"/>
     </row>
     <row r="655" spans="4:15">
-      <c r="D655" s="44"/>
+      <c r="D655" s="43"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
@@ -36446,7 +36460,7 @@
       <c r="O655" s="2"/>
     </row>
     <row r="656" spans="4:15">
-      <c r="D656" s="44"/>
+      <c r="D656" s="43"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
@@ -36460,7 +36474,7 @@
       <c r="O656" s="2"/>
     </row>
     <row r="657" spans="4:15">
-      <c r="D657" s="44"/>
+      <c r="D657" s="43"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
@@ -36474,7 +36488,7 @@
       <c r="O657" s="2"/>
     </row>
     <row r="658" spans="4:15">
-      <c r="D658" s="44"/>
+      <c r="D658" s="43"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
@@ -36488,7 +36502,7 @@
       <c r="O658" s="2"/>
     </row>
     <row r="659" spans="4:15">
-      <c r="D659" s="44"/>
+      <c r="D659" s="43"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
@@ -36502,7 +36516,7 @@
       <c r="O659" s="2"/>
     </row>
     <row r="660" spans="4:15">
-      <c r="D660" s="44"/>
+      <c r="D660" s="43"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
@@ -36516,7 +36530,7 @@
       <c r="O660" s="2"/>
     </row>
     <row r="661" spans="4:15">
-      <c r="D661" s="44"/>
+      <c r="D661" s="43"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
@@ -36530,7 +36544,7 @@
       <c r="O661" s="2"/>
     </row>
     <row r="662" spans="4:15">
-      <c r="D662" s="44"/>
+      <c r="D662" s="43"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
@@ -36544,7 +36558,7 @@
       <c r="O662" s="2"/>
     </row>
     <row r="663" spans="4:15">
-      <c r="D663" s="44"/>
+      <c r="D663" s="43"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
@@ -36558,7 +36572,7 @@
       <c r="O663" s="2"/>
     </row>
     <row r="664" spans="4:15">
-      <c r="D664" s="44"/>
+      <c r="D664" s="43"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
@@ -36572,7 +36586,7 @@
       <c r="O664" s="2"/>
     </row>
     <row r="665" spans="4:15">
-      <c r="D665" s="44"/>
+      <c r="D665" s="43"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
@@ -36586,7 +36600,7 @@
       <c r="O665" s="2"/>
     </row>
     <row r="666" spans="4:15">
-      <c r="D666" s="44"/>
+      <c r="D666" s="43"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
@@ -36600,7 +36614,7 @@
       <c r="O666" s="2"/>
     </row>
     <row r="667" spans="4:15">
-      <c r="D667" s="44"/>
+      <c r="D667" s="43"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
@@ -36614,7 +36628,7 @@
       <c r="O667" s="2"/>
     </row>
     <row r="668" spans="4:15">
-      <c r="D668" s="44"/>
+      <c r="D668" s="43"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
@@ -36628,7 +36642,7 @@
       <c r="O668" s="2"/>
     </row>
     <row r="669" spans="4:15">
-      <c r="D669" s="44"/>
+      <c r="D669" s="43"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
@@ -36642,7 +36656,7 @@
       <c r="O669" s="2"/>
     </row>
     <row r="670" spans="4:15">
-      <c r="D670" s="44"/>
+      <c r="D670" s="43"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
@@ -36656,7 +36670,7 @@
       <c r="O670" s="2"/>
     </row>
     <row r="671" spans="4:15">
-      <c r="D671" s="44"/>
+      <c r="D671" s="43"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
@@ -36670,7 +36684,7 @@
       <c r="O671" s="2"/>
     </row>
     <row r="672" spans="4:15">
-      <c r="D672" s="44"/>
+      <c r="D672" s="43"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
@@ -36684,7 +36698,7 @@
       <c r="O672" s="2"/>
     </row>
     <row r="673" spans="4:15">
-      <c r="D673" s="44"/>
+      <c r="D673" s="43"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
@@ -36698,7 +36712,7 @@
       <c r="O673" s="2"/>
     </row>
     <row r="674" spans="4:15">
-      <c r="D674" s="44"/>
+      <c r="D674" s="43"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
@@ -36712,7 +36726,7 @@
       <c r="O674" s="2"/>
     </row>
     <row r="675" spans="4:15">
-      <c r="D675" s="44"/>
+      <c r="D675" s="43"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
@@ -36726,7 +36740,7 @@
       <c r="O675" s="2"/>
     </row>
     <row r="676" spans="4:15">
-      <c r="D676" s="44"/>
+      <c r="D676" s="43"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
@@ -36740,7 +36754,7 @@
       <c r="O676" s="2"/>
     </row>
     <row r="677" spans="4:15">
-      <c r="D677" s="44"/>
+      <c r="D677" s="43"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
@@ -36754,7 +36768,7 @@
       <c r="O677" s="2"/>
     </row>
     <row r="678" spans="4:15">
-      <c r="D678" s="44"/>
+      <c r="D678" s="43"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
@@ -36768,7 +36782,7 @@
       <c r="O678" s="2"/>
     </row>
     <row r="679" spans="4:15">
-      <c r="D679" s="44"/>
+      <c r="D679" s="43"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
@@ -36782,7 +36796,7 @@
       <c r="O679" s="2"/>
     </row>
     <row r="680" spans="4:15">
-      <c r="D680" s="44"/>
+      <c r="D680" s="43"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
@@ -36796,7 +36810,7 @@
       <c r="O680" s="2"/>
     </row>
     <row r="681" spans="4:15">
-      <c r="D681" s="44"/>
+      <c r="D681" s="43"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
@@ -36810,7 +36824,7 @@
       <c r="O681" s="2"/>
     </row>
     <row r="682" spans="4:15">
-      <c r="D682" s="44"/>
+      <c r="D682" s="43"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
@@ -36824,7 +36838,7 @@
       <c r="O682" s="2"/>
     </row>
     <row r="683" spans="4:15">
-      <c r="D683" s="44"/>
+      <c r="D683" s="43"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
@@ -36838,7 +36852,7 @@
       <c r="O683" s="2"/>
     </row>
     <row r="684" spans="4:15">
-      <c r="D684" s="44"/>
+      <c r="D684" s="43"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
@@ -36852,7 +36866,7 @@
       <c r="O684" s="2"/>
     </row>
     <row r="685" spans="4:15">
-      <c r="D685" s="44"/>
+      <c r="D685" s="43"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
@@ -36866,7 +36880,7 @@
       <c r="O685" s="2"/>
     </row>
     <row r="686" spans="4:15">
-      <c r="D686" s="44"/>
+      <c r="D686" s="43"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
@@ -36880,7 +36894,7 @@
       <c r="O686" s="2"/>
     </row>
     <row r="687" spans="4:15">
-      <c r="D687" s="44"/>
+      <c r="D687" s="43"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
@@ -36894,7 +36908,7 @@
       <c r="O687" s="2"/>
     </row>
     <row r="688" spans="4:15">
-      <c r="D688" s="44"/>
+      <c r="D688" s="43"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
@@ -36908,7 +36922,7 @@
       <c r="O688" s="2"/>
     </row>
     <row r="689" spans="4:15">
-      <c r="D689" s="44"/>
+      <c r="D689" s="43"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
@@ -36922,7 +36936,7 @@
       <c r="O689" s="2"/>
     </row>
     <row r="690" spans="4:15">
-      <c r="D690" s="44"/>
+      <c r="D690" s="43"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
@@ -36936,7 +36950,7 @@
       <c r="O690" s="2"/>
     </row>
     <row r="691" spans="4:15">
-      <c r="D691" s="44"/>
+      <c r="D691" s="43"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
@@ -36950,7 +36964,7 @@
       <c r="O691" s="2"/>
     </row>
     <row r="692" spans="4:15">
-      <c r="D692" s="44"/>
+      <c r="D692" s="43"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
@@ -36964,7 +36978,7 @@
       <c r="O692" s="2"/>
     </row>
     <row r="693" spans="4:15">
-      <c r="D693" s="44"/>
+      <c r="D693" s="43"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
@@ -36978,7 +36992,7 @@
       <c r="O693" s="2"/>
     </row>
     <row r="694" spans="4:15">
-      <c r="D694" s="44"/>
+      <c r="D694" s="43"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
@@ -36992,7 +37006,7 @@
       <c r="O694" s="2"/>
     </row>
     <row r="695" spans="4:15">
-      <c r="D695" s="44"/>
+      <c r="D695" s="43"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
@@ -37006,7 +37020,7 @@
       <c r="O695" s="2"/>
     </row>
     <row r="696" spans="4:15">
-      <c r="D696" s="44"/>
+      <c r="D696" s="43"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
@@ -37020,7 +37034,7 @@
       <c r="O696" s="2"/>
     </row>
     <row r="697" spans="4:15">
-      <c r="D697" s="44"/>
+      <c r="D697" s="43"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
@@ -37034,7 +37048,7 @@
       <c r="O697" s="2"/>
     </row>
     <row r="698" spans="4:15">
-      <c r="D698" s="44"/>
+      <c r="D698" s="43"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
@@ -37048,7 +37062,7 @@
       <c r="O698" s="2"/>
     </row>
     <row r="699" spans="4:15">
-      <c r="D699" s="44"/>
+      <c r="D699" s="43"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
@@ -37062,7 +37076,7 @@
       <c r="O699" s="2"/>
     </row>
     <row r="700" spans="4:15">
-      <c r="D700" s="44"/>
+      <c r="D700" s="43"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
@@ -37076,7 +37090,7 @@
       <c r="O700" s="2"/>
     </row>
     <row r="701" spans="4:15">
-      <c r="D701" s="44"/>
+      <c r="D701" s="43"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
@@ -37090,7 +37104,7 @@
       <c r="O701" s="2"/>
     </row>
     <row r="702" spans="4:15">
-      <c r="D702" s="44"/>
+      <c r="D702" s="43"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
@@ -37104,7 +37118,7 @@
       <c r="O702" s="2"/>
     </row>
     <row r="703" spans="4:15">
-      <c r="D703" s="44"/>
+      <c r="D703" s="43"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
@@ -37118,7 +37132,7 @@
       <c r="O703" s="2"/>
     </row>
     <row r="704" spans="4:15">
-      <c r="D704" s="44"/>
+      <c r="D704" s="43"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
@@ -37132,7 +37146,7 @@
       <c r="O704" s="2"/>
     </row>
     <row r="705" spans="4:15">
-      <c r="D705" s="44"/>
+      <c r="D705" s="43"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
@@ -37146,7 +37160,7 @@
       <c r="O705" s="2"/>
     </row>
     <row r="706" spans="4:15">
-      <c r="D706" s="44"/>
+      <c r="D706" s="43"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
@@ -37160,7 +37174,7 @@
       <c r="O706" s="2"/>
     </row>
     <row r="707" spans="4:15">
-      <c r="D707" s="44"/>
+      <c r="D707" s="43"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
@@ -37174,7 +37188,7 @@
       <c r="O707" s="2"/>
     </row>
     <row r="708" spans="4:15">
-      <c r="D708" s="44"/>
+      <c r="D708" s="43"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
@@ -37188,7 +37202,7 @@
       <c r="O708" s="2"/>
     </row>
     <row r="709" spans="4:15">
-      <c r="D709" s="44"/>
+      <c r="D709" s="43"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
@@ -37202,7 +37216,7 @@
       <c r="O709" s="2"/>
     </row>
     <row r="710" spans="4:15">
-      <c r="D710" s="44"/>
+      <c r="D710" s="43"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
@@ -37216,7 +37230,7 @@
       <c r="O710" s="2"/>
     </row>
     <row r="711" spans="4:15">
-      <c r="D711" s="44"/>
+      <c r="D711" s="43"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
@@ -37230,7 +37244,7 @@
       <c r="O711" s="2"/>
     </row>
     <row r="712" spans="4:15">
-      <c r="D712" s="44"/>
+      <c r="D712" s="43"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
@@ -37244,7 +37258,7 @@
       <c r="O712" s="2"/>
     </row>
     <row r="713" spans="4:15">
-      <c r="D713" s="44"/>
+      <c r="D713" s="43"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
@@ -37258,7 +37272,7 @@
       <c r="O713" s="2"/>
     </row>
     <row r="714" spans="4:15">
-      <c r="D714" s="44"/>
+      <c r="D714" s="43"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
@@ -37272,7 +37286,7 @@
       <c r="O714" s="2"/>
     </row>
     <row r="715" spans="4:15">
-      <c r="D715" s="44"/>
+      <c r="D715" s="43"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
@@ -37286,7 +37300,7 @@
       <c r="O715" s="2"/>
     </row>
     <row r="716" spans="4:15">
-      <c r="D716" s="44"/>
+      <c r="D716" s="43"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
@@ -37300,7 +37314,7 @@
       <c r="O716" s="2"/>
     </row>
     <row r="717" spans="4:15">
-      <c r="D717" s="44"/>
+      <c r="D717" s="43"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
@@ -37314,7 +37328,7 @@
       <c r="O717" s="2"/>
     </row>
     <row r="718" spans="4:15">
-      <c r="D718" s="44"/>
+      <c r="D718" s="43"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
@@ -37328,7 +37342,7 @@
       <c r="O718" s="2"/>
     </row>
     <row r="719" spans="4:15">
-      <c r="D719" s="44"/>
+      <c r="D719" s="43"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
@@ -37342,7 +37356,7 @@
       <c r="O719" s="2"/>
     </row>
     <row r="720" spans="4:15">
-      <c r="D720" s="44"/>
+      <c r="D720" s="43"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
@@ -37356,7 +37370,7 @@
       <c r="O720" s="2"/>
     </row>
     <row r="721" spans="4:15">
-      <c r="D721" s="44"/>
+      <c r="D721" s="43"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
@@ -37370,7 +37384,7 @@
       <c r="O721" s="2"/>
     </row>
     <row r="722" spans="4:15">
-      <c r="D722" s="44"/>
+      <c r="D722" s="43"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
@@ -37384,7 +37398,7 @@
       <c r="O722" s="2"/>
     </row>
     <row r="723" spans="4:15">
-      <c r="D723" s="44"/>
+      <c r="D723" s="43"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
@@ -37398,7 +37412,7 @@
       <c r="O723" s="2"/>
     </row>
     <row r="724" spans="4:15">
-      <c r="D724" s="44"/>
+      <c r="D724" s="43"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
@@ -37412,7 +37426,7 @@
       <c r="O724" s="2"/>
     </row>
     <row r="725" spans="4:15">
-      <c r="D725" s="44"/>
+      <c r="D725" s="43"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
@@ -37426,7 +37440,7 @@
       <c r="O725" s="2"/>
     </row>
     <row r="726" spans="4:15">
-      <c r="D726" s="44"/>
+      <c r="D726" s="43"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
@@ -37440,7 +37454,7 @@
       <c r="O726" s="2"/>
     </row>
     <row r="727" spans="4:15">
-      <c r="D727" s="44"/>
+      <c r="D727" s="43"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
@@ -37454,7 +37468,7 @@
       <c r="O727" s="2"/>
     </row>
     <row r="728" spans="4:15">
-      <c r="D728" s="44"/>
+      <c r="D728" s="43"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
@@ -37468,7 +37482,7 @@
       <c r="O728" s="2"/>
     </row>
     <row r="729" spans="4:15">
-      <c r="D729" s="44"/>
+      <c r="D729" s="43"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
@@ -37482,7 +37496,7 @@
       <c r="O729" s="2"/>
     </row>
     <row r="730" spans="4:15">
-      <c r="D730" s="44"/>
+      <c r="D730" s="43"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
@@ -37496,7 +37510,7 @@
       <c r="O730" s="2"/>
     </row>
     <row r="731" spans="4:15">
-      <c r="D731" s="44"/>
+      <c r="D731" s="43"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
@@ -37510,7 +37524,7 @@
       <c r="O731" s="2"/>
     </row>
     <row r="732" spans="4:15">
-      <c r="D732" s="44"/>
+      <c r="D732" s="43"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
@@ -37524,7 +37538,7 @@
       <c r="O732" s="2"/>
     </row>
     <row r="733" spans="4:15">
-      <c r="D733" s="44"/>
+      <c r="D733" s="43"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
@@ -37538,7 +37552,7 @@
       <c r="O733" s="2"/>
     </row>
     <row r="734" spans="4:15">
-      <c r="D734" s="44"/>
+      <c r="D734" s="43"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
@@ -37552,7 +37566,7 @@
       <c r="O734" s="2"/>
     </row>
     <row r="735" spans="4:15">
-      <c r="D735" s="44"/>
+      <c r="D735" s="43"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
@@ -37566,7 +37580,7 @@
       <c r="O735" s="2"/>
     </row>
     <row r="736" spans="4:15">
-      <c r="D736" s="44"/>
+      <c r="D736" s="43"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
@@ -37580,7 +37594,7 @@
       <c r="O736" s="2"/>
     </row>
     <row r="737" spans="4:15">
-      <c r="D737" s="44"/>
+      <c r="D737" s="43"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
@@ -37594,7 +37608,7 @@
       <c r="O737" s="2"/>
     </row>
     <row r="738" spans="4:15">
-      <c r="D738" s="44"/>
+      <c r="D738" s="43"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
@@ -37608,7 +37622,7 @@
       <c r="O738" s="2"/>
     </row>
     <row r="739" spans="4:15">
-      <c r="D739" s="44"/>
+      <c r="D739" s="43"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
@@ -37622,7 +37636,7 @@
       <c r="O739" s="2"/>
     </row>
     <row r="740" spans="4:15">
-      <c r="D740" s="44"/>
+      <c r="D740" s="43"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
@@ -37636,7 +37650,7 @@
       <c r="O740" s="2"/>
     </row>
     <row r="741" spans="4:15">
-      <c r="D741" s="44"/>
+      <c r="D741" s="43"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
@@ -37650,7 +37664,7 @@
       <c r="O741" s="2"/>
     </row>
     <row r="742" spans="4:15">
-      <c r="D742" s="44"/>
+      <c r="D742" s="43"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
@@ -37664,7 +37678,7 @@
       <c r="O742" s="2"/>
     </row>
     <row r="743" spans="4:15">
-      <c r="D743" s="44"/>
+      <c r="D743" s="43"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
@@ -37678,7 +37692,7 @@
       <c r="O743" s="2"/>
     </row>
     <row r="744" spans="4:15">
-      <c r="D744" s="44"/>
+      <c r="D744" s="43"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
@@ -37692,7 +37706,7 @@
       <c r="O744" s="2"/>
     </row>
     <row r="745" spans="4:15">
-      <c r="D745" s="44"/>
+      <c r="D745" s="43"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
@@ -37706,7 +37720,7 @@
       <c r="O745" s="2"/>
     </row>
     <row r="746" spans="4:15">
-      <c r="D746" s="44"/>
+      <c r="D746" s="43"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
@@ -37720,7 +37734,7 @@
       <c r="O746" s="2"/>
     </row>
     <row r="747" spans="4:15">
-      <c r="D747" s="44"/>
+      <c r="D747" s="43"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
@@ -37734,7 +37748,7 @@
       <c r="O747" s="2"/>
     </row>
     <row r="748" spans="4:15">
-      <c r="D748" s="44"/>
+      <c r="D748" s="43"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
@@ -37748,7 +37762,7 @@
       <c r="O748" s="2"/>
     </row>
     <row r="749" spans="4:15">
-      <c r="D749" s="44"/>
+      <c r="D749" s="43"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
@@ -37762,7 +37776,7 @@
       <c r="O749" s="2"/>
     </row>
     <row r="750" spans="4:15">
-      <c r="D750" s="44"/>
+      <c r="D750" s="43"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
@@ -37776,7 +37790,7 @@
       <c r="O750" s="2"/>
     </row>
     <row r="751" spans="4:15">
-      <c r="D751" s="44"/>
+      <c r="D751" s="43"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
@@ -37790,7 +37804,7 @@
       <c r="O751" s="2"/>
     </row>
     <row r="752" spans="4:15">
-      <c r="D752" s="44"/>
+      <c r="D752" s="43"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
@@ -37804,7 +37818,7 @@
       <c r="O752" s="2"/>
     </row>
     <row r="753" spans="4:15">
-      <c r="D753" s="44"/>
+      <c r="D753" s="43"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
@@ -37818,7 +37832,7 @@
       <c r="O753" s="2"/>
     </row>
     <row r="754" spans="4:15">
-      <c r="D754" s="44"/>
+      <c r="D754" s="43"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
@@ -37832,7 +37846,7 @@
       <c r="O754" s="2"/>
     </row>
     <row r="755" spans="4:15">
-      <c r="D755" s="44"/>
+      <c r="D755" s="43"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
@@ -37846,7 +37860,7 @@
       <c r="O755" s="2"/>
     </row>
     <row r="756" spans="4:15">
-      <c r="D756" s="44"/>
+      <c r="D756" s="43"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
@@ -37860,7 +37874,7 @@
       <c r="O756" s="2"/>
     </row>
     <row r="757" spans="4:15">
-      <c r="D757" s="44"/>
+      <c r="D757" s="43"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
@@ -37874,7 +37888,7 @@
       <c r="O757" s="2"/>
     </row>
     <row r="758" spans="4:15">
-      <c r="D758" s="44"/>
+      <c r="D758" s="43"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
@@ -37888,7 +37902,7 @@
       <c r="O758" s="2"/>
     </row>
     <row r="759" spans="4:15">
-      <c r="D759" s="44"/>
+      <c r="D759" s="43"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
@@ -37902,7 +37916,7 @@
       <c r="O759" s="2"/>
     </row>
     <row r="760" spans="4:15">
-      <c r="D760" s="44"/>
+      <c r="D760" s="43"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
@@ -37916,7 +37930,7 @@
       <c r="O760" s="2"/>
     </row>
     <row r="761" spans="4:15">
-      <c r="D761" s="44"/>
+      <c r="D761" s="43"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
@@ -37930,7 +37944,7 @@
       <c r="O761" s="2"/>
     </row>
     <row r="762" spans="4:15">
-      <c r="D762" s="44"/>
+      <c r="D762" s="43"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
@@ -37944,7 +37958,7 @@
       <c r="O762" s="2"/>
     </row>
     <row r="763" spans="4:15">
-      <c r="D763" s="44"/>
+      <c r="D763" s="43"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
@@ -37958,7 +37972,7 @@
       <c r="O763" s="2"/>
     </row>
     <row r="764" spans="4:15">
-      <c r="D764" s="44"/>
+      <c r="D764" s="43"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
@@ -37972,7 +37986,7 @@
       <c r="O764" s="2"/>
     </row>
     <row r="765" spans="4:15">
-      <c r="D765" s="44"/>
+      <c r="D765" s="43"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
@@ -37986,7 +38000,7 @@
       <c r="O765" s="2"/>
     </row>
     <row r="766" spans="4:15">
-      <c r="D766" s="44"/>
+      <c r="D766" s="43"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
@@ -38000,7 +38014,7 @@
       <c r="O766" s="2"/>
     </row>
     <row r="767" spans="4:15">
-      <c r="D767" s="44"/>
+      <c r="D767" s="43"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
@@ -38014,7 +38028,7 @@
       <c r="O767" s="2"/>
     </row>
     <row r="768" spans="4:15">
-      <c r="D768" s="44"/>
+      <c r="D768" s="43"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
@@ -38028,7 +38042,7 @@
       <c r="O768" s="2"/>
     </row>
     <row r="769" spans="4:15">
-      <c r="D769" s="44"/>
+      <c r="D769" s="43"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
@@ -38042,7 +38056,7 @@
       <c r="O769" s="2"/>
     </row>
     <row r="770" spans="4:15">
-      <c r="D770" s="44"/>
+      <c r="D770" s="43"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
@@ -38056,7 +38070,7 @@
       <c r="O770" s="2"/>
     </row>
     <row r="771" spans="4:15">
-      <c r="D771" s="44"/>
+      <c r="D771" s="43"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
@@ -38070,7 +38084,7 @@
       <c r="O771" s="2"/>
     </row>
     <row r="772" spans="4:15">
-      <c r="D772" s="44"/>
+      <c r="D772" s="43"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
@@ -38084,7 +38098,7 @@
       <c r="O772" s="2"/>
     </row>
     <row r="773" spans="4:15">
-      <c r="D773" s="44"/>
+      <c r="D773" s="43"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
@@ -38098,7 +38112,7 @@
       <c r="O773" s="2"/>
     </row>
     <row r="774" spans="4:15">
-      <c r="D774" s="44"/>
+      <c r="D774" s="43"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
@@ -38112,7 +38126,7 @@
       <c r="O774" s="2"/>
     </row>
     <row r="775" spans="4:15">
-      <c r="D775" s="44"/>
+      <c r="D775" s="43"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
@@ -38126,7 +38140,7 @@
       <c r="O775" s="2"/>
     </row>
     <row r="776" spans="4:15">
-      <c r="D776" s="44"/>
+      <c r="D776" s="43"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
@@ -38140,7 +38154,7 @@
       <c r="O776" s="2"/>
     </row>
     <row r="777" spans="4:15">
-      <c r="D777" s="44"/>
+      <c r="D777" s="43"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
@@ -38154,7 +38168,7 @@
       <c r="O777" s="2"/>
     </row>
     <row r="778" spans="4:15">
-      <c r="D778" s="44"/>
+      <c r="D778" s="43"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
@@ -38168,7 +38182,7 @@
       <c r="O778" s="2"/>
     </row>
     <row r="779" spans="4:15">
-      <c r="D779" s="44"/>
+      <c r="D779" s="43"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
@@ -38182,7 +38196,7 @@
       <c r="O779" s="2"/>
     </row>
     <row r="780" spans="4:15">
-      <c r="D780" s="44"/>
+      <c r="D780" s="43"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
@@ -38196,7 +38210,7 @@
       <c r="O780" s="2"/>
     </row>
     <row r="781" spans="4:15">
-      <c r="D781" s="44"/>
+      <c r="D781" s="43"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
@@ -38210,7 +38224,7 @@
       <c r="O781" s="2"/>
     </row>
     <row r="782" spans="4:15">
-      <c r="D782" s="44"/>
+      <c r="D782" s="43"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
@@ -38224,7 +38238,7 @@
       <c r="O782" s="2"/>
     </row>
     <row r="783" spans="4:15">
-      <c r="D783" s="44"/>
+      <c r="D783" s="43"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
@@ -38238,7 +38252,7 @@
       <c r="O783" s="2"/>
     </row>
     <row r="784" spans="4:15">
-      <c r="D784" s="44"/>
+      <c r="D784" s="43"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
@@ -38252,7 +38266,7 @@
       <c r="O784" s="2"/>
     </row>
     <row r="785" spans="4:15">
-      <c r="D785" s="44"/>
+      <c r="D785" s="43"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
@@ -38266,7 +38280,7 @@
       <c r="O785" s="2"/>
     </row>
     <row r="786" spans="4:15">
-      <c r="D786" s="44"/>
+      <c r="D786" s="43"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
@@ -38280,7 +38294,7 @@
       <c r="O786" s="2"/>
     </row>
     <row r="787" spans="4:15">
-      <c r="D787" s="44"/>
+      <c r="D787" s="43"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
@@ -38294,7 +38308,7 @@
       <c r="O787" s="2"/>
     </row>
     <row r="788" spans="4:15">
-      <c r="D788" s="44"/>
+      <c r="D788" s="43"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
@@ -38308,7 +38322,7 @@
       <c r="O788" s="2"/>
     </row>
     <row r="789" spans="4:15">
-      <c r="D789" s="44"/>
+      <c r="D789" s="43"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
@@ -38322,7 +38336,7 @@
       <c r="O789" s="2"/>
     </row>
     <row r="790" spans="4:15">
-      <c r="D790" s="44"/>
+      <c r="D790" s="43"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
@@ -38336,7 +38350,7 @@
       <c r="O790" s="2"/>
     </row>
     <row r="791" spans="4:15">
-      <c r="D791" s="44"/>
+      <c r="D791" s="43"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
@@ -38350,7 +38364,7 @@
       <c r="O791" s="2"/>
     </row>
     <row r="792" spans="4:15">
-      <c r="D792" s="44"/>
+      <c r="D792" s="43"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
@@ -38364,7 +38378,7 @@
       <c r="O792" s="2"/>
     </row>
     <row r="793" spans="4:15">
-      <c r="D793" s="44"/>
+      <c r="D793" s="43"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
@@ -38378,7 +38392,7 @@
       <c r="O793" s="2"/>
     </row>
     <row r="794" spans="4:15">
-      <c r="D794" s="44"/>
+      <c r="D794" s="43"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
@@ -38392,7 +38406,7 @@
       <c r="O794" s="2"/>
     </row>
     <row r="795" spans="4:15">
-      <c r="D795" s="44"/>
+      <c r="D795" s="43"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
@@ -38406,7 +38420,7 @@
       <c r="O795" s="2"/>
     </row>
     <row r="796" spans="4:15">
-      <c r="D796" s="44"/>
+      <c r="D796" s="43"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
@@ -38420,7 +38434,7 @@
       <c r="O796" s="2"/>
     </row>
     <row r="797" spans="4:15">
-      <c r="D797" s="44"/>
+      <c r="D797" s="43"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
@@ -38434,7 +38448,7 @@
       <c r="O797" s="2"/>
     </row>
     <row r="798" spans="4:15">
-      <c r="D798" s="44"/>
+      <c r="D798" s="43"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
@@ -38448,7 +38462,7 @@
       <c r="O798" s="2"/>
     </row>
     <row r="799" spans="4:15">
-      <c r="D799" s="44"/>
+      <c r="D799" s="43"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
@@ -38462,7 +38476,7 @@
       <c r="O799" s="2"/>
     </row>
     <row r="800" spans="4:15">
-      <c r="D800" s="44"/>
+      <c r="D800" s="43"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
@@ -38476,7 +38490,7 @@
       <c r="O800" s="2"/>
     </row>
     <row r="801" spans="4:15">
-      <c r="D801" s="44"/>
+      <c r="D801" s="43"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
@@ -38490,7 +38504,7 @@
       <c r="O801" s="2"/>
     </row>
     <row r="802" spans="4:15">
-      <c r="D802" s="44"/>
+      <c r="D802" s="43"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
@@ -38504,7 +38518,7 @@
       <c r="O802" s="2"/>
     </row>
     <row r="803" spans="4:15">
-      <c r="D803" s="44"/>
+      <c r="D803" s="43"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
@@ -38518,7 +38532,7 @@
       <c r="O803" s="2"/>
     </row>
     <row r="804" spans="4:15">
-      <c r="D804" s="44"/>
+      <c r="D804" s="43"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
@@ -38532,7 +38546,7 @@
       <c r="O804" s="2"/>
     </row>
     <row r="805" spans="4:15">
-      <c r="D805" s="44"/>
+      <c r="D805" s="43"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
@@ -38546,7 +38560,7 @@
       <c r="O805" s="2"/>
     </row>
     <row r="806" spans="4:15">
-      <c r="D806" s="44"/>
+      <c r="D806" s="43"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
@@ -38560,7 +38574,7 @@
       <c r="O806" s="2"/>
     </row>
     <row r="807" spans="4:15">
-      <c r="D807" s="44"/>
+      <c r="D807" s="43"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
@@ -38574,7 +38588,7 @@
       <c r="O807" s="2"/>
     </row>
     <row r="808" spans="4:15">
-      <c r="D808" s="44"/>
+      <c r="D808" s="43"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
@@ -38588,7 +38602,7 @@
       <c r="O808" s="2"/>
     </row>
     <row r="809" spans="4:15">
-      <c r="D809" s="44"/>
+      <c r="D809" s="43"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
@@ -38602,7 +38616,7 @@
       <c r="O809" s="2"/>
     </row>
     <row r="810" spans="4:15">
-      <c r="D810" s="44"/>
+      <c r="D810" s="43"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
@@ -38616,7 +38630,7 @@
       <c r="O810" s="2"/>
     </row>
     <row r="811" spans="4:15">
-      <c r="D811" s="44"/>
+      <c r="D811" s="43"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
@@ -38630,7 +38644,7 @@
       <c r="O811" s="2"/>
     </row>
     <row r="812" spans="4:15">
-      <c r="D812" s="44"/>
+      <c r="D812" s="43"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
@@ -38644,7 +38658,7 @@
       <c r="O812" s="2"/>
     </row>
     <row r="813" spans="4:15">
-      <c r="D813" s="44"/>
+      <c r="D813" s="43"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
@@ -38658,7 +38672,7 @@
       <c r="O813" s="2"/>
     </row>
     <row r="814" spans="4:15">
-      <c r="D814" s="44"/>
+      <c r="D814" s="43"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
@@ -38672,7 +38686,7 @@
       <c r="O814" s="2"/>
     </row>
     <row r="815" spans="4:15">
-      <c r="D815" s="44"/>
+      <c r="D815" s="43"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
@@ -38686,7 +38700,7 @@
       <c r="O815" s="2"/>
     </row>
     <row r="816" spans="4:15">
-      <c r="D816" s="44"/>
+      <c r="D816" s="43"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
@@ -38700,7 +38714,7 @@
       <c r="O816" s="2"/>
     </row>
     <row r="817" spans="4:15">
-      <c r="D817" s="44"/>
+      <c r="D817" s="43"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
@@ -38714,7 +38728,7 @@
       <c r="O817" s="2"/>
     </row>
     <row r="818" spans="4:15">
-      <c r="D818" s="44"/>
+      <c r="D818" s="43"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
@@ -38728,7 +38742,7 @@
       <c r="O818" s="2"/>
     </row>
     <row r="819" spans="4:15">
-      <c r="D819" s="44"/>
+      <c r="D819" s="43"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
@@ -38742,7 +38756,7 @@
       <c r="O819" s="2"/>
     </row>
     <row r="820" spans="4:15">
-      <c r="D820" s="44"/>
+      <c r="D820" s="43"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
@@ -38756,7 +38770,7 @@
       <c r="O820" s="2"/>
     </row>
     <row r="821" spans="4:15">
-      <c r="D821" s="44"/>
+      <c r="D821" s="43"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
@@ -38770,7 +38784,7 @@
       <c r="O821" s="2"/>
     </row>
     <row r="822" spans="4:15">
-      <c r="D822" s="44"/>
+      <c r="D822" s="43"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
@@ -38784,7 +38798,7 @@
       <c r="O822" s="2"/>
     </row>
     <row r="823" spans="4:15">
-      <c r="D823" s="44"/>
+      <c r="D823" s="43"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -38798,7 +38812,7 @@
       <c r="O823" s="2"/>
     </row>
     <row r="824" spans="4:15">
-      <c r="D824" s="44"/>
+      <c r="D824" s="43"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
@@ -38812,7 +38826,7 @@
       <c r="O824" s="2"/>
     </row>
     <row r="825" spans="4:15">
-      <c r="D825" s="44"/>
+      <c r="D825" s="43"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
@@ -38826,7 +38840,7 @@
       <c r="O825" s="2"/>
     </row>
     <row r="826" spans="4:15">
-      <c r="D826" s="44"/>
+      <c r="D826" s="43"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
@@ -38840,7 +38854,7 @@
       <c r="O826" s="2"/>
     </row>
     <row r="827" spans="4:15">
-      <c r="D827" s="44"/>
+      <c r="D827" s="43"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
@@ -38854,7 +38868,7 @@
       <c r="O827" s="2"/>
     </row>
     <row r="828" spans="4:15">
-      <c r="D828" s="44"/>
+      <c r="D828" s="43"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
@@ -38868,7 +38882,7 @@
       <c r="O828" s="2"/>
     </row>
     <row r="829" spans="4:15">
-      <c r="D829" s="44"/>
+      <c r="D829" s="43"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
@@ -38882,7 +38896,7 @@
       <c r="O829" s="2"/>
     </row>
     <row r="830" spans="4:15">
-      <c r="D830" s="44"/>
+      <c r="D830" s="43"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
@@ -38896,7 +38910,7 @@
       <c r="O830" s="2"/>
     </row>
     <row r="831" spans="4:15">
-      <c r="D831" s="44"/>
+      <c r="D831" s="43"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
@@ -38910,7 +38924,7 @@
       <c r="O831" s="2"/>
     </row>
     <row r="832" spans="4:15">
-      <c r="D832" s="44"/>
+      <c r="D832" s="43"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
@@ -38924,7 +38938,7 @@
       <c r="O832" s="2"/>
     </row>
     <row r="833" spans="4:15">
-      <c r="D833" s="44"/>
+      <c r="D833" s="43"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
@@ -38938,7 +38952,7 @@
       <c r="O833" s="2"/>
     </row>
     <row r="834" spans="4:15">
-      <c r="D834" s="44"/>
+      <c r="D834" s="43"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
@@ -38952,7 +38966,7 @@
       <c r="O834" s="2"/>
     </row>
     <row r="835" spans="4:15">
-      <c r="D835" s="44"/>
+      <c r="D835" s="43"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
@@ -38966,7 +38980,7 @@
       <c r="O835" s="2"/>
     </row>
     <row r="836" spans="4:15">
-      <c r="D836" s="44"/>
+      <c r="D836" s="43"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
@@ -38980,7 +38994,7 @@
       <c r="O836" s="2"/>
     </row>
     <row r="837" spans="4:15">
-      <c r="D837" s="44"/>
+      <c r="D837" s="43"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
@@ -38994,7 +39008,7 @@
       <c r="O837" s="2"/>
     </row>
     <row r="838" spans="4:15">
-      <c r="D838" s="44"/>
+      <c r="D838" s="43"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
@@ -39008,7 +39022,7 @@
       <c r="O838" s="2"/>
     </row>
     <row r="839" spans="4:15">
-      <c r="D839" s="44"/>
+      <c r="D839" s="43"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
@@ -39022,7 +39036,7 @@
       <c r="O839" s="2"/>
     </row>
     <row r="840" spans="4:15">
-      <c r="D840" s="44"/>
+      <c r="D840" s="43"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
@@ -39036,7 +39050,7 @@
       <c r="O840" s="2"/>
     </row>
     <row r="841" spans="4:15">
-      <c r="D841" s="44"/>
+      <c r="D841" s="43"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
@@ -39050,7 +39064,7 @@
       <c r="O841" s="2"/>
     </row>
     <row r="842" spans="4:15">
-      <c r="D842" s="44"/>
+      <c r="D842" s="43"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
@@ -39064,7 +39078,7 @@
       <c r="O842" s="2"/>
     </row>
     <row r="843" spans="4:15">
-      <c r="D843" s="44"/>
+      <c r="D843" s="43"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
@@ -39078,7 +39092,7 @@
       <c r="O843" s="2"/>
     </row>
     <row r="844" spans="4:15">
-      <c r="D844" s="44"/>
+      <c r="D844" s="43"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
@@ -39092,7 +39106,7 @@
       <c r="O844" s="2"/>
     </row>
     <row r="845" spans="4:15">
-      <c r="D845" s="44"/>
+      <c r="D845" s="43"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
@@ -39106,7 +39120,7 @@
       <c r="O845" s="2"/>
     </row>
     <row r="846" spans="4:15">
-      <c r="D846" s="44"/>
+      <c r="D846" s="43"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
@@ -39120,7 +39134,7 @@
       <c r="O846" s="2"/>
     </row>
     <row r="847" spans="4:15">
-      <c r="D847" s="44"/>
+      <c r="D847" s="43"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
@@ -39134,7 +39148,7 @@
       <c r="O847" s="2"/>
     </row>
     <row r="848" spans="4:15">
-      <c r="D848" s="44"/>
+      <c r="D848" s="43"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
@@ -39148,7 +39162,7 @@
       <c r="O848" s="2"/>
     </row>
     <row r="849" spans="4:15">
-      <c r="D849" s="44"/>
+      <c r="D849" s="43"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
@@ -39162,7 +39176,7 @@
       <c r="O849" s="2"/>
     </row>
     <row r="850" spans="4:15">
-      <c r="D850" s="44"/>
+      <c r="D850" s="43"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
@@ -39176,7 +39190,7 @@
       <c r="O850" s="2"/>
     </row>
     <row r="851" spans="4:15">
-      <c r="D851" s="44"/>
+      <c r="D851" s="43"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
@@ -39190,7 +39204,7 @@
       <c r="O851" s="2"/>
     </row>
     <row r="852" spans="4:15">
-      <c r="D852" s="44"/>
+      <c r="D852" s="43"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
@@ -39204,7 +39218,7 @@
       <c r="O852" s="2"/>
     </row>
     <row r="853" spans="4:15">
-      <c r="D853" s="44"/>
+      <c r="D853" s="43"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
@@ -39218,7 +39232,7 @@
       <c r="O853" s="2"/>
     </row>
     <row r="854" spans="4:15">
-      <c r="D854" s="44"/>
+      <c r="D854" s="43"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
@@ -39232,7 +39246,7 @@
       <c r="O854" s="2"/>
     </row>
     <row r="855" spans="4:15">
-      <c r="D855" s="44"/>
+      <c r="D855" s="43"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
@@ -39246,7 +39260,7 @@
       <c r="O855" s="2"/>
     </row>
     <row r="856" spans="4:15">
-      <c r="D856" s="44"/>
+      <c r="D856" s="43"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
@@ -39260,7 +39274,7 @@
       <c r="O856" s="2"/>
     </row>
     <row r="857" spans="4:15">
-      <c r="D857" s="44"/>
+      <c r="D857" s="43"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
@@ -39274,7 +39288,7 @@
       <c r="O857" s="2"/>
     </row>
     <row r="858" spans="4:15">
-      <c r="D858" s="44"/>
+      <c r="D858" s="43"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
@@ -39288,7 +39302,7 @@
       <c r="O858" s="2"/>
     </row>
     <row r="859" spans="4:15">
-      <c r="D859" s="44"/>
+      <c r="D859" s="43"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
@@ -39302,7 +39316,7 @@
       <c r="O859" s="2"/>
     </row>
     <row r="860" spans="4:15">
-      <c r="D860" s="44"/>
+      <c r="D860" s="43"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
@@ -39316,7 +39330,7 @@
       <c r="O860" s="2"/>
     </row>
     <row r="861" spans="4:15">
-      <c r="D861" s="44"/>
+      <c r="D861" s="43"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
@@ -39330,7 +39344,7 @@
       <c r="O861" s="2"/>
     </row>
     <row r="862" spans="4:15">
-      <c r="D862" s="44"/>
+      <c r="D862" s="43"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
@@ -39344,7 +39358,7 @@
       <c r="O862" s="2"/>
     </row>
     <row r="863" spans="4:15">
-      <c r="D863" s="44"/>
+      <c r="D863" s="43"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
@@ -39358,7 +39372,7 @@
       <c r="O863" s="2"/>
     </row>
     <row r="864" spans="4:15">
-      <c r="D864" s="44"/>
+      <c r="D864" s="43"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
@@ -39372,7 +39386,7 @@
       <c r="O864" s="2"/>
     </row>
     <row r="865" spans="4:15">
-      <c r="D865" s="44"/>
+      <c r="D865" s="43"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
@@ -39386,7 +39400,7 @@
       <c r="O865" s="2"/>
     </row>
     <row r="866" spans="4:15">
-      <c r="D866" s="44"/>
+      <c r="D866" s="43"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
@@ -39400,7 +39414,7 @@
       <c r="O866" s="2"/>
     </row>
     <row r="867" spans="4:15">
-      <c r="D867" s="44"/>
+      <c r="D867" s="43"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
@@ -39414,7 +39428,7 @@
       <c r="O867" s="2"/>
     </row>
     <row r="868" spans="4:15">
-      <c r="D868" s="44"/>
+      <c r="D868" s="43"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
@@ -39428,7 +39442,7 @@
       <c r="O868" s="2"/>
     </row>
     <row r="869" spans="4:15">
-      <c r="D869" s="44"/>
+      <c r="D869" s="43"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
@@ -39442,7 +39456,7 @@
       <c r="O869" s="2"/>
     </row>
     <row r="870" spans="4:15">
-      <c r="D870" s="44"/>
+      <c r="D870" s="43"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
@@ -39456,7 +39470,7 @@
       <c r="O870" s="2"/>
     </row>
     <row r="871" spans="4:15">
-      <c r="D871" s="44"/>
+      <c r="D871" s="43"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
@@ -39470,7 +39484,7 @@
       <c r="O871" s="2"/>
     </row>
     <row r="872" spans="4:15">
-      <c r="D872" s="44"/>
+      <c r="D872" s="43"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
@@ -39484,7 +39498,7 @@
       <c r="O872" s="2"/>
     </row>
     <row r="873" spans="4:15">
-      <c r="D873" s="44"/>
+      <c r="D873" s="43"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
@@ -39498,7 +39512,7 @@
       <c r="O873" s="2"/>
     </row>
     <row r="874" spans="4:15">
-      <c r="D874" s="44"/>
+      <c r="D874" s="43"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
@@ -39512,7 +39526,7 @@
       <c r="O874" s="2"/>
     </row>
     <row r="875" spans="4:15">
-      <c r="D875" s="44"/>
+      <c r="D875" s="43"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
@@ -39526,7 +39540,7 @@
       <c r="O875" s="2"/>
     </row>
     <row r="876" spans="4:15">
-      <c r="D876" s="44"/>
+      <c r="D876" s="43"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
@@ -39540,7 +39554,7 @@
       <c r="O876" s="2"/>
     </row>
     <row r="877" spans="4:15">
-      <c r="D877" s="44"/>
+      <c r="D877" s="43"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
@@ -39554,7 +39568,7 @@
       <c r="O877" s="2"/>
     </row>
     <row r="878" spans="4:15">
-      <c r="D878" s="44"/>
+      <c r="D878" s="43"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
@@ -39568,7 +39582,7 @@
       <c r="O878" s="2"/>
     </row>
     <row r="879" spans="4:15">
-      <c r="D879" s="44"/>
+      <c r="D879" s="43"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
@@ -39582,7 +39596,7 @@
       <c r="O879" s="2"/>
     </row>
     <row r="880" spans="4:15">
-      <c r="D880" s="44"/>
+      <c r="D880" s="43"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
@@ -39596,7 +39610,7 @@
       <c r="O880" s="2"/>
     </row>
     <row r="881" spans="4:15">
-      <c r="D881" s="44"/>
+      <c r="D881" s="43"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
@@ -39610,7 +39624,7 @@
       <c r="O881" s="2"/>
     </row>
     <row r="882" spans="4:15">
-      <c r="D882" s="44"/>
+      <c r="D882" s="43"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
@@ -39624,7 +39638,7 @@
       <c r="O882" s="2"/>
     </row>
     <row r="883" spans="4:15">
-      <c r="D883" s="44"/>
+      <c r="D883" s="43"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
@@ -39638,7 +39652,7 @@
       <c r="O883" s="2"/>
     </row>
     <row r="884" spans="4:15">
-      <c r="D884" s="44"/>
+      <c r="D884" s="43"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
@@ -39652,7 +39666,7 @@
       <c r="O884" s="2"/>
     </row>
     <row r="885" spans="4:15">
-      <c r="D885" s="44"/>
+      <c r="D885" s="43"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
@@ -39666,7 +39680,7 @@
       <c r="O885" s="2"/>
     </row>
     <row r="886" spans="4:15">
-      <c r="D886" s="44"/>
+      <c r="D886" s="43"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
@@ -39680,7 +39694,7 @@
       <c r="O886" s="2"/>
     </row>
     <row r="887" spans="4:15">
-      <c r="D887" s="44"/>
+      <c r="D887" s="43"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
@@ -39694,7 +39708,7 @@
       <c r="O887" s="2"/>
     </row>
     <row r="888" spans="4:15">
-      <c r="D888" s="44"/>
+      <c r="D888" s="43"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
@@ -39708,7 +39722,7 @@
       <c r="O888" s="2"/>
     </row>
     <row r="889" spans="4:15">
-      <c r="D889" s="44"/>
+      <c r="D889" s="43"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
@@ -39722,7 +39736,7 @@
       <c r="O889" s="2"/>
     </row>
     <row r="890" spans="4:15">
-      <c r="D890" s="44"/>
+      <c r="D890" s="43"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
@@ -39736,7 +39750,7 @@
       <c r="O890" s="2"/>
     </row>
     <row r="891" spans="4:15">
-      <c r="D891" s="44"/>
+      <c r="D891" s="43"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
@@ -39750,7 +39764,7 @@
       <c r="O891" s="2"/>
     </row>
     <row r="892" spans="4:15">
-      <c r="D892" s="44"/>
+      <c r="D892" s="43"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
@@ -39764,7 +39778,7 @@
       <c r="O892" s="2"/>
     </row>
     <row r="893" spans="4:15">
-      <c r="D893" s="44"/>
+      <c r="D893" s="43"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
@@ -39778,7 +39792,7 @@
       <c r="O893" s="2"/>
     </row>
     <row r="894" spans="4:15">
-      <c r="D894" s="44"/>
+      <c r="D894" s="43"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
@@ -39792,7 +39806,7 @@
       <c r="O894" s="2"/>
     </row>
     <row r="895" spans="4:15">
-      <c r="D895" s="44"/>
+      <c r="D895" s="43"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
@@ -39806,7 +39820,7 @@
       <c r="O895" s="2"/>
     </row>
     <row r="896" spans="4:15">
-      <c r="D896" s="44"/>
+      <c r="D896" s="43"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
@@ -39820,7 +39834,7 @@
       <c r="O896" s="2"/>
     </row>
     <row r="897" spans="4:15">
-      <c r="D897" s="44"/>
+      <c r="D897" s="43"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
@@ -39834,7 +39848,7 @@
       <c r="O897" s="2"/>
     </row>
     <row r="898" spans="4:15">
-      <c r="D898" s="44"/>
+      <c r="D898" s="43"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
@@ -39848,7 +39862,7 @@
       <c r="O898" s="2"/>
     </row>
     <row r="899" spans="4:15">
-      <c r="D899" s="44"/>
+      <c r="D899" s="43"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
@@ -39862,7 +39876,7 @@
       <c r="O899" s="2"/>
     </row>
     <row r="900" spans="4:15">
-      <c r="D900" s="44"/>
+      <c r="D900" s="43"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
@@ -39876,7 +39890,7 @@
       <c r="O900" s="2"/>
     </row>
     <row r="901" spans="4:15">
-      <c r="D901" s="44"/>
+      <c r="D901" s="43"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
@@ -39890,7 +39904,7 @@
       <c r="O901" s="2"/>
     </row>
     <row r="902" spans="4:15">
-      <c r="D902" s="44"/>
+      <c r="D902" s="43"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
@@ -39904,7 +39918,7 @@
       <c r="O902" s="2"/>
     </row>
     <row r="903" spans="4:15">
-      <c r="D903" s="44"/>
+      <c r="D903" s="43"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
@@ -39918,7 +39932,7 @@
       <c r="O903" s="2"/>
     </row>
     <row r="904" spans="4:15">
-      <c r="D904" s="44"/>
+      <c r="D904" s="43"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
@@ -39932,7 +39946,7 @@
       <c r="O904" s="2"/>
     </row>
     <row r="905" spans="4:15">
-      <c r="D905" s="44"/>
+      <c r="D905" s="43"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
@@ -39946,7 +39960,7 @@
       <c r="O905" s="2"/>
     </row>
     <row r="906" spans="4:15">
-      <c r="D906" s="44"/>
+      <c r="D906" s="43"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
@@ -39960,7 +39974,7 @@
       <c r="O906" s="2"/>
     </row>
     <row r="907" spans="4:15">
-      <c r="D907" s="44"/>
+      <c r="D907" s="43"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
@@ -39974,7 +39988,7 @@
       <c r="O907" s="2"/>
     </row>
     <row r="908" spans="4:15">
-      <c r="D908" s="44"/>
+      <c r="D908" s="43"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
@@ -39988,7 +40002,7 @@
       <c r="O908" s="2"/>
     </row>
     <row r="909" spans="4:15">
-      <c r="D909" s="44"/>
+      <c r="D909" s="43"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
@@ -40002,7 +40016,7 @@
       <c r="O909" s="2"/>
     </row>
     <row r="910" spans="4:15">
-      <c r="D910" s="44"/>
+      <c r="D910" s="43"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
@@ -40016,7 +40030,7 @@
       <c r="O910" s="2"/>
     </row>
     <row r="911" spans="4:15">
-      <c r="D911" s="44"/>
+      <c r="D911" s="43"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
@@ -40030,7 +40044,7 @@
       <c r="O911" s="2"/>
     </row>
     <row r="912" spans="4:15">
-      <c r="D912" s="44"/>
+      <c r="D912" s="43"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
@@ -40044,7 +40058,7 @@
       <c r="O912" s="2"/>
     </row>
     <row r="913" spans="4:15">
-      <c r="D913" s="44"/>
+      <c r="D913" s="43"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
@@ -40058,7 +40072,7 @@
       <c r="O913" s="2"/>
     </row>
     <row r="914" spans="4:15">
-      <c r="D914" s="44"/>
+      <c r="D914" s="43"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
@@ -40072,7 +40086,7 @@
       <c r="O914" s="2"/>
     </row>
     <row r="915" spans="4:15">
-      <c r="D915" s="44"/>
+      <c r="D915" s="43"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
@@ -40086,7 +40100,7 @@
       <c r="O915" s="2"/>
     </row>
     <row r="916" spans="4:15">
-      <c r="D916" s="44"/>
+      <c r="D916" s="43"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
@@ -40100,7 +40114,7 @@
       <c r="O916" s="2"/>
     </row>
     <row r="917" spans="4:15">
-      <c r="D917" s="44"/>
+      <c r="D917" s="43"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
@@ -40114,7 +40128,7 @@
       <c r="O917" s="2"/>
     </row>
     <row r="918" spans="4:15">
-      <c r="D918" s="44"/>
+      <c r="D918" s="43"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
@@ -40128,7 +40142,7 @@
       <c r="O918" s="2"/>
     </row>
     <row r="919" spans="4:15">
-      <c r="D919" s="44"/>
+      <c r="D919" s="43"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
@@ -40142,7 +40156,7 @@
       <c r="O919" s="2"/>
     </row>
     <row r="920" spans="4:15">
-      <c r="D920" s="44"/>
+      <c r="D920" s="43"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
@@ -40156,7 +40170,7 @@
       <c r="O920" s="2"/>
     </row>
     <row r="921" spans="4:15">
-      <c r="D921" s="44"/>
+      <c r="D921" s="43"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
@@ -40170,7 +40184,7 @@
       <c r="O921" s="2"/>
     </row>
     <row r="922" spans="4:15">
-      <c r="D922" s="44"/>
+      <c r="D922" s="43"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
@@ -40184,7 +40198,7 @@
       <c r="O922" s="2"/>
     </row>
     <row r="923" spans="4:15">
-      <c r="D923" s="44"/>
+      <c r="D923" s="43"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
@@ -40198,7 +40212,7 @@
       <c r="O923" s="2"/>
     </row>
     <row r="924" spans="4:15">
-      <c r="D924" s="44"/>
+      <c r="D924" s="43"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
@@ -40212,7 +40226,7 @@
       <c r="O924" s="2"/>
     </row>
     <row r="925" spans="4:15">
-      <c r="D925" s="44"/>
+      <c r="D925" s="43"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
@@ -40226,7 +40240,7 @@
       <c r="O925" s="2"/>
     </row>
     <row r="926" spans="4:15">
-      <c r="D926" s="44"/>
+      <c r="D926" s="43"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
@@ -40240,7 +40254,7 @@
       <c r="O926" s="2"/>
     </row>
     <row r="927" spans="4:15">
-      <c r="D927" s="44"/>
+      <c r="D927" s="43"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
@@ -40254,7 +40268,7 @@
       <c r="O927" s="2"/>
     </row>
     <row r="928" spans="4:15">
-      <c r="D928" s="44"/>
+      <c r="D928" s="43"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
@@ -40268,7 +40282,7 @@
       <c r="O928" s="2"/>
     </row>
     <row r="929" spans="4:15">
-      <c r="D929" s="44"/>
+      <c r="D929" s="43"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
@@ -40282,7 +40296,7 @@
       <c r="O929" s="2"/>
     </row>
     <row r="930" spans="4:15">
-      <c r="D930" s="44"/>
+      <c r="D930" s="43"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
@@ -40296,7 +40310,7 @@
       <c r="O930" s="2"/>
     </row>
     <row r="931" spans="4:15">
-      <c r="D931" s="44"/>
+      <c r="D931" s="43"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
@@ -40310,7 +40324,7 @@
       <c r="O931" s="2"/>
     </row>
     <row r="932" spans="4:15">
-      <c r="D932" s="44"/>
+      <c r="D932" s="43"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
@@ -40324,7 +40338,7 @@
       <c r="O932" s="2"/>
     </row>
     <row r="933" spans="4:15">
-      <c r="D933" s="44"/>
+      <c r="D933" s="43"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
@@ -40338,7 +40352,7 @@
       <c r="O933" s="2"/>
     </row>
     <row r="934" spans="4:15">
-      <c r="D934" s="44"/>
+      <c r="D934" s="43"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
@@ -40352,7 +40366,7 @@
       <c r="O934" s="2"/>
     </row>
     <row r="935" spans="4:15">
-      <c r="D935" s="44"/>
+      <c r="D935" s="43"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
@@ -40366,7 +40380,7 @@
       <c r="O935" s="2"/>
     </row>
     <row r="936" spans="4:15">
-      <c r="D936" s="44"/>
+      <c r="D936" s="43"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
       <c r="G936" s="3"/>
@@ -40380,7 +40394,7 @@
       <c r="O936" s="2"/>
     </row>
     <row r="937" spans="4:15">
-      <c r="D937" s="44"/>
+      <c r="D937" s="43"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
       <c r="G937" s="3"/>
@@ -40394,7 +40408,7 @@
       <c r="O937" s="2"/>
     </row>
     <row r="938" spans="4:15">
-      <c r="D938" s="44"/>
+      <c r="D938" s="43"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
       <c r="G938" s="3"/>
@@ -40408,7 +40422,7 @@
       <c r="O938" s="2"/>
     </row>
     <row r="939" spans="4:15">
-      <c r="D939" s="44"/>
+      <c r="D939" s="43"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
       <c r="G939" s="3"/>
@@ -40422,7 +40436,7 @@
       <c r="O939" s="2"/>
     </row>
     <row r="940" spans="4:15">
-      <c r="D940" s="44"/>
+      <c r="D940" s="43"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
       <c r="G940" s="3"/>
@@ -40436,7 +40450,7 @@
       <c r="O940" s="2"/>
     </row>
     <row r="941" spans="4:15">
-      <c r="D941" s="44"/>
+      <c r="D941" s="43"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
       <c r="G941" s="3"/>
@@ -40450,7 +40464,7 @@
       <c r="O941" s="2"/>
     </row>
     <row r="942" spans="4:15">
-      <c r="D942" s="44"/>
+      <c r="D942" s="43"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
       <c r="G942" s="3"/>
@@ -40464,7 +40478,7 @@
       <c r="O942" s="2"/>
     </row>
     <row r="943" spans="4:15">
-      <c r="D943" s="44"/>
+      <c r="D943" s="43"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
       <c r="G943" s="3"/>
@@ -40478,7 +40492,7 @@
       <c r="O943" s="2"/>
     </row>
     <row r="944" spans="4:15">
-      <c r="D944" s="44"/>
+      <c r="D944" s="43"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
       <c r="G944" s="3"/>
@@ -40492,7 +40506,7 @@
       <c r="O944" s="2"/>
     </row>
     <row r="945" spans="4:15">
-      <c r="D945" s="44"/>
+      <c r="D945" s="43"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
       <c r="G945" s="3"/>
@@ -40506,7 +40520,7 @@
       <c r="O945" s="2"/>
     </row>
     <row r="946" spans="4:15">
-      <c r="D946" s="44"/>
+      <c r="D946" s="43"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
       <c r="G946" s="3"/>
@@ -40520,7 +40534,7 @@
       <c r="O946" s="2"/>
     </row>
     <row r="947" spans="4:15">
-      <c r="D947" s="44"/>
+      <c r="D947" s="43"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
@@ -40534,7 +40548,7 @@
       <c r="O947" s="2"/>
     </row>
     <row r="948" spans="4:15">
-      <c r="D948" s="44"/>
+      <c r="D948" s="43"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
@@ -40548,7 +40562,7 @@
       <c r="O948" s="2"/>
     </row>
     <row r="949" spans="4:15">
-      <c r="D949" s="44"/>
+      <c r="D949" s="43"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
       <c r="G949" s="3"/>
@@ -40562,7 +40576,7 @@
       <c r="O949" s="2"/>
     </row>
     <row r="950" spans="4:15">
-      <c r="D950" s="44"/>
+      <c r="D950" s="43"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
       <c r="G950" s="3"/>
@@ -40576,7 +40590,7 @@
       <c r="O950" s="2"/>
     </row>
     <row r="951" spans="4:15">
-      <c r="D951" s="44"/>
+      <c r="D951" s="43"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
       <c r="G951" s="3"/>
@@ -40590,7 +40604,7 @@
       <c r="O951" s="2"/>
     </row>
     <row r="952" spans="4:15">
-      <c r="D952" s="44"/>
+      <c r="D952" s="43"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
       <c r="G952" s="3"/>
@@ -40604,7 +40618,7 @@
       <c r="O952" s="2"/>
     </row>
     <row r="953" spans="4:15">
-      <c r="D953" s="44"/>
+      <c r="D953" s="43"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
       <c r="G953" s="3"/>
@@ -40618,7 +40632,7 @@
       <c r="O953" s="2"/>
     </row>
     <row r="954" spans="4:15">
-      <c r="D954" s="44"/>
+      <c r="D954" s="43"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
       <c r="G954" s="3"/>
@@ -40632,7 +40646,7 @@
       <c r="O954" s="2"/>
     </row>
     <row r="955" spans="4:15">
-      <c r="D955" s="44"/>
+      <c r="D955" s="43"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
@@ -40646,7 +40660,7 @@
       <c r="O955" s="2"/>
     </row>
     <row r="956" spans="4:15">
-      <c r="D956" s="44"/>
+      <c r="D956" s="43"/>
       <c r="F956" s="3"/>
       <c r="G956" s="3"/>
       <c r="H956" s="3"/>
@@ -40659,7 +40673,7 @@
       <c r="O956" s="2"/>
     </row>
     <row r="957" spans="4:15">
-      <c r="D957" s="44"/>
+      <c r="D957" s="43"/>
       <c r="F957" s="3"/>
       <c r="G957" s="3"/>
       <c r="H957" s="3"/>
@@ -40681,7 +40695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65506883-8C0B-4B4B-9CDC-69050B8D6DCA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -40694,7 +40708,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B1" s="38" t="str">
         <f>configuration!B2</f>
@@ -40703,7 +40717,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B2" s="28" t="str">
         <f>configuration!B7</f>
@@ -40712,7 +40726,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B3" s="28" t="str">
         <f>configuration!B8</f>
@@ -40721,7 +40735,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B4" s="28" t="str">
         <f>configuration!B18</f>
@@ -40730,7 +40744,7 @@
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B5" s="28" t="str">
         <f>configuration!B19</f>
@@ -40739,7 +40753,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B6" s="28" t="str">
         <f>configuration!B20</f>
@@ -40753,127 +40767,169 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D008F881-5C6F-4157-A868-DE4C1A16983B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.44921875" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="35" t="s">
-        <v>742</v>
-      </c>
-      <c r="B1" s="36" t="str">
+    <row r="1" spans="1:4" s="6" customFormat="1">
+      <c r="A1" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="B5" s="36" t="str">
         <f>configuration!B23</f>
         <v>true</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
-        <v>749</v>
-      </c>
-      <c r="B2" s="38" t="str">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15.3" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1">
+      <c r="A7" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1">
+      <c r="A8" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1">
+      <c r="A9" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
+      <c r="A10" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
+      <c r="A11" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B12" s="38" t="str">
         <f>configuration!B31</f>
         <v>GitHub Repository</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3" s="28" t="str">
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B13" s="28" t="str">
         <f>configuration!B32</f>
         <v>https://github.com/RPI-DATA/jupyter-book</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
-        <v>743</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
-        <v>749</v>
-      </c>
-      <c r="B6" s="28" t="str">
+    <row r="14" spans="1:4">
+      <c r="A14" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B14" s="28" t="str">
         <f>configuration!B33</f>
         <v>Colab</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B7" s="28" t="str">
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B15" s="28" t="str">
         <f>configuration!B34</f>
         <v>https://colab.research.google.com/notebooks/welcome.ipynb#recent=true</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35" t="s">
-        <v>743</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
-        <v>749</v>
-      </c>
-      <c r="B10" s="28" t="str">
+    <row r="16" spans="1:4">
+      <c r="A16" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B16" s="28" t="str">
         <f>configuration!B35</f>
         <v>Slack</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B11" s="28" t="str">
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B17" s="28" t="str">
         <f>configuration!B36</f>
         <v>https://rpi-data.slack.com/messages</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35" t="s">
-        <v>743</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -40886,7 +40942,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -40896,7 +40952,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="78">
       <c r="A1" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -41020,7 +41076,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
